--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -1,28 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20397"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\git_code\myCode\lib\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36FE27AD-DDD7-4C3F-B99E-60C3E1369D12}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28125" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="研究院周报" sheetId="2" r:id="rId1"/>
     <sheet name="研究院专题周报-补充" sheetId="4" r:id="rId2"/>
     <sheet name="周报说明" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+  <si>
+    <t>龙辛柯-周报(2023年04月24日-2023年04月30日)4月第5周</t>
+  </si>
   <si>
     <t>季度重点工作</t>
   </si>
@@ -65,30 +62,36 @@
     <t>规划内工作</t>
   </si>
   <si>
-    <t>江财数据收集</t>
+    <t>增量同步+防报错</t>
   </si>
   <si>
     <t>完成</t>
   </si>
   <si>
-    <t>湖北省中心继续优化流程报错没数据的问题</t>
-  </si>
-  <si>
-    <t>就业质量模型搭建</t>
+    <t>爬教育行业标签</t>
+  </si>
+  <si>
+    <t>湖北省其他招聘会信息展示</t>
   </si>
   <si>
     <t>持续进行</t>
   </si>
   <si>
-    <t>绩效面谈</t>
-  </si>
-  <si>
-    <t>湖北省设置增量同步</t>
+    <t>就业质量模型权重计算</t>
+  </si>
+  <si>
+    <t>重点用人单位校招取数</t>
   </si>
   <si>
     <t>临时事项</t>
   </si>
   <si>
+    <t>优化了一下回收率导出代码</t>
+  </si>
+  <si>
+    <t>兰州石化就业跟踪管理平台</t>
+  </si>
+  <si>
     <t>下周工作安排</t>
   </si>
   <si>
@@ -98,7 +101,8 @@
     <t>工作总结</t>
   </si>
   <si>
-    <t>1.爬公开数据还是好爬多了，有的也不用爬直接给了pdf甚至是excel版本，但有些也依然不太好爬，比如爬律师事务所需要用selenium控制一个个点点完之后在获取post请求的response中的结果，不像以前爬的都是根据修改url传递的参数一个个爬。我还发现一个bug，查上交所的数据是没有全国的数据，只能一个个省份点进去看，但是我发现把url里省份的参数去掉就能直接查到全国的数据，应该是程序员疏忽了。</t>
+    <t>1.朱黎让我帮忙导出一下回收率的时候发现跑不了于是忙里偷闲优化了一下，首先以前是填excel表格，其实根本不需要填那么多东西，给个问卷id其他的去数据库查就好了，我以前怎么没想到这个问题；然后是因为以前问卷量多有单位问卷和学生问卷在一起，现在单独导出一个学生问卷会错，属于没考虑到点炒饭的情况
+2.我现在才知道因子分析要用极差归一化，我以前都是直接除以最大值归一，主要是我一开始就没怎么弄明白因子分析，虽然知道原理，但是细节并不是很懂，这一点就不追究为什么了，记住就是了</t>
   </si>
   <si>
     <t>上周</t>
@@ -336,16 +340,18 @@
   <si>
     <t>5、每周最后一个工作日（一般周五）晚上12点之前通过邮件发送到数据事业部，抄送孙柏，如本周及下周工作需要其他部门相关责任人知晓，请一并抄送。</t>
   </si>
-  <si>
-    <t>龙辛柯-周报(2023年04月24日-2023年04月30日)4月第5周</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,7 +376,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0" tint="-0.14972380748924222"/>
+      <color theme="0" tint="-0.149723807489242"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -425,9 +431,146 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -467,15 +610,8 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -508,12 +644,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14972380748924222"/>
+        <fgColor theme="0" tint="-0.149723807489242"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -771,15 +1093,254 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -789,14 +1350,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -805,25 +1366,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="50" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="50" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="50" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -832,15 +1429,33 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="51" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -850,109 +1465,92 @@
     <xf numFmtId="9" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="常规 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 4" xfId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1210,312 +1808,324 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.6" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="50.375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="52.75" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="13"/>
+    <col min="1" max="1" width="16.125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="50.375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="52.75" style="25" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>39</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+    <row r="1" ht="26.45" customHeight="1" spans="1:4">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="14" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" ht="26.45" customHeight="1" spans="1:4">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="15" t="s">
+    </row>
+    <row r="3" ht="36.6" customHeight="1" spans="1:4">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-    </row>
-    <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="16" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="17">
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="35">
         <v>1</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="36" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="17">
+      <c r="D6" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="38"/>
+      <c r="B7" s="35">
         <f t="shared" ref="B7:B16" si="0">B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="17">
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="38"/>
+      <c r="B8" s="35">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="17">
+      <c r="D8" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="38"/>
+      <c r="B9" s="35">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="35" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="17">
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="38"/>
+      <c r="B10" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="17">
+      <c r="C10" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="38"/>
+      <c r="B11" s="35">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D11" s="19"/>
-    </row>
-    <row r="12" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="17">
+      <c r="D11" s="37"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="38"/>
+      <c r="B12" s="35">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="17">
+      <c r="C12" s="36"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="35">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="19"/>
-    </row>
-    <row r="14" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="17">
+      <c r="C13" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="39"/>
+      <c r="B14" s="35">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="19"/>
-    </row>
-    <row r="15" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="17">
+      <c r="C14" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="D14" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="39"/>
+      <c r="B15" s="35">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="20"/>
-    </row>
-    <row r="16" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="17">
+      <c r="C15" s="35"/>
+      <c r="D15" s="40"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="39"/>
+      <c r="B16" s="35">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-    </row>
-    <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-    </row>
-    <row r="18" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="17">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="30" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="35">
         <v>1</v>
       </c>
-      <c r="C19" s="17" t="s">
+      <c r="C19" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="17">
+      <c r="D19" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="39"/>
+      <c r="B20" s="35">
         <f>B19+1</f>
         <v>2</v>
       </c>
-      <c r="C20" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D20" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="17">
+      <c r="C20" s="35" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="39"/>
+      <c r="B21" s="35">
         <f>B20+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="18"/>
-      <c r="D21" s="19"/>
-    </row>
-    <row r="22" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="17">
+      <c r="C21" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="39"/>
+      <c r="B22" s="35">
         <f>B21+1</f>
         <v>4</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="20"/>
-    </row>
-    <row r="23" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>18</v>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-    </row>
-    <row r="24" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-    </row>
-    <row r="25" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="40"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+    </row>
+    <row r="24" ht="82.15" customHeight="1" spans="1:4">
+      <c r="A24" s="41" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+    </row>
+    <row r="25" ht="39" customHeight="1" spans="1:4">
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A24:D25"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="2.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="40.875" style="3" customWidth="1"/>
@@ -1529,7 +2139,7 @@
     <col min="14" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:13">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1538,203 +2148,203 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="29.25" x14ac:dyDescent="0.2">
+      <c r="I2" s="21"/>
+      <c r="J2" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="M2" s="23"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="29.25" spans="1:13">
       <c r="A3" s="5"/>
-      <c r="B3" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="22.5" spans="1:13">
       <c r="A4" s="5"/>
-      <c r="B4" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
       <c r="A5" s="5"/>
-      <c r="B5" s="45" t="s">
-        <v>25</v>
-      </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
       <c r="A6" s="5"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
       <c r="A7" s="5"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
       <c r="A8" s="5"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
       <c r="A9" s="5"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
       <c r="A10" s="5"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
       <c r="A11" s="5"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="171" customHeight="1" spans="1:13">
       <c r="A12" s="5"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="22.15" customHeight="1" spans="1:13">
       <c r="A13" s="5"/>
-      <c r="B13" s="40" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="351" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="351" customHeight="1" spans="1:13">
       <c r="A14" s="5"/>
-      <c r="B14" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E14" s="43" t="s">
+      <c r="B14" s="17" t="s">
         <v>31</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
+      <c r="C14" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1745,59 +2355,60 @@
     <mergeCell ref="B5:C12"/>
     <mergeCell ref="D5:G12"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="18.6" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" ht="18.6" customHeight="1" spans="1:1">
       <c r="A2" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -1,26 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20397"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\git_code\myCode\lib\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECA7547-474C-4153-BD83-5D0E8D9AFE59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="研究院周报" sheetId="2" r:id="rId1"/>
     <sheet name="研究院专题周报-补充" sheetId="4" r:id="rId2"/>
     <sheet name="周报说明" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
   <si>
-    <t>龙辛柯-周报(2023年04月24日-2023年04月30日)4月第5周</t>
-  </si>
-  <si>
     <t>季度重点工作</t>
   </si>
   <si>
@@ -339,19 +342,17 @@
   </si>
   <si>
     <t>5、每周最后一个工作日（一般周五）晚上12点之前通过邮件发送到数据事业部，抄送孙柏，如本周及下周工作需要其他部门相关责任人知晓，请一并抄送。</t>
+  </si>
+  <si>
+    <t>龙辛柯-周报(2023年05月01日-2023年05月07日)5月第1周</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="36">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -376,7 +377,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0" tint="-0.149723807489242"/>
+      <color theme="0" tint="-0.14969328897976622"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -431,146 +432,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -610,8 +474,15 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -644,198 +515,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149723807489242"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="0" tint="-0.14969328897976622"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1093,254 +778,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="19" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -1350,14 +796,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1366,61 +812,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="50" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="50" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="50" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1">
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1429,16 +839,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="51" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1456,101 +884,82 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="5">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
-    <cellStyle name="常规 4" xfId="51"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1808,11 +1217,12 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
@@ -1822,310 +1232,309 @@
       <selection activeCell="K19" sqref="K19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.6" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="50.375" style="25" customWidth="1"/>
-    <col min="4" max="4" width="52.75" style="25" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="25"/>
+    <col min="1" max="1" width="16.125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="50.375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="52.75" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.45" customHeight="1" spans="1:4">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-    </row>
-    <row r="2" ht="26.45" customHeight="1" spans="1:4">
-      <c r="A2" s="27" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" ht="36.6" customHeight="1" spans="1:4">
-      <c r="A3" s="29" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="30" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="33" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="34" t="s">
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="35">
-        <v>1</v>
-      </c>
-      <c r="C6" s="36" t="s">
+      <c r="D6" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="38"/>
-      <c r="B7" s="35">
+    </row>
+    <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="17">
         <f t="shared" ref="B7:B16" si="0">B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="37" t="s">
+      <c r="C7" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="38"/>
-      <c r="B8" s="35">
+      <c r="D7" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C8" s="25" t="s">
+      <c r="C8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="38"/>
-      <c r="B9" s="35">
+    </row>
+    <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="37" t="s">
+      <c r="C9" s="17" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="38"/>
-      <c r="B10" s="35">
+      <c r="D9" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="38"/>
-      <c r="B11" s="35">
+      <c r="C10" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10" s="19" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D11" s="37"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="38"/>
-      <c r="B12" s="35">
+      <c r="D11" s="19"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="36"/>
-      <c r="D12" s="35"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="39" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="35">
+      <c r="C12" s="18"/>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="39"/>
-      <c r="B14" s="35">
+      <c r="C13" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D13" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="30"/>
+      <c r="B14" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C14" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="39"/>
-      <c r="B15" s="35">
+      <c r="C14" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D14" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="30"/>
+      <c r="B15" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="40"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="39"/>
-      <c r="B16" s="35">
+      <c r="C15" s="17"/>
+      <c r="D15" s="20"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="30"/>
+      <c r="B16" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="30" t="s">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+    </row>
+    <row r="18" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="35">
+    </row>
+    <row r="19" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="17">
         <v>1</v>
       </c>
-      <c r="C19" s="35" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" s="37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="39"/>
-      <c r="B20" s="35">
+      <c r="C19" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="30"/>
+      <c r="B20" s="17">
         <f>B19+1</f>
         <v>2</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>15</v>
-      </c>
-      <c r="D20" s="37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="39"/>
-      <c r="B21" s="35">
+      <c r="C20" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="D20" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="30"/>
+      <c r="B21" s="17">
         <f>B20+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D21" s="37" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="39"/>
-      <c r="B22" s="35">
+      <c r="C21" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="19" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="30"/>
+      <c r="B22" s="17">
         <f>B21+1</f>
         <v>4</v>
       </c>
-      <c r="C22" s="36"/>
-      <c r="D22" s="40"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="27" t="s">
+      <c r="C22" s="18"/>
+      <c r="D22" s="20"/>
+    </row>
+    <row r="23" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+    </row>
+    <row r="24" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-    </row>
-    <row r="24" ht="82.15" customHeight="1" spans="1:4">
-      <c r="A24" s="41" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
-    </row>
-    <row r="25" ht="39" customHeight="1" spans="1:4">
-      <c r="A25" s="44"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
+    </row>
+    <row r="25" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A24:D25"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="40.875" style="3" customWidth="1"/>
@@ -2139,7 +1548,7 @@
     <col min="14" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:13">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2148,203 +1557,203 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22" t="s">
+      <c r="I2" s="9"/>
+      <c r="J2" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="K2" s="22" t="s">
+      <c r="L2" s="10" t="s">
         <v>24</v>
       </c>
-      <c r="L2" s="22" t="s">
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="29.25" x14ac:dyDescent="0.2">
+      <c r="A3" s="5"/>
+      <c r="B3" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="M2" s="23"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="29.25" spans="1:13">
-      <c r="A3" s="5"/>
-      <c r="B3" s="7" t="s">
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="A4" s="5"/>
+      <c r="B4" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="22.5" spans="1:13">
-      <c r="A4" s="5"/>
-      <c r="B4" s="10" t="s">
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="5"/>
+      <c r="B5" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
-      <c r="A5" s="5"/>
-      <c r="B5" s="13" t="s">
+      <c r="C5" s="46"/>
+      <c r="D5" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15" t="s">
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="48"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="5"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="48"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="5"/>
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="5"/>
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="5"/>
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="5"/>
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="5"/>
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="5"/>
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="5"/>
+      <c r="B13" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
-      <c r="A6" s="5"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
-      <c r="A7" s="5"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
-      <c r="A8" s="5"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
-      <c r="A9" s="5"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
-      <c r="A10" s="5"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
-      <c r="A11" s="5"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="171" customHeight="1" spans="1:13">
-      <c r="A12" s="5"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="22.15" customHeight="1" spans="1:13">
-      <c r="A13" s="5"/>
-      <c r="B13" s="10" t="s">
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="351" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="5"/>
+      <c r="B14" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="351" customHeight="1" spans="1:13">
-      <c r="A14" s="5"/>
-      <c r="B14" s="17" t="s">
+      <c r="C14" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="C14" s="18" t="s">
+      <c r="D14" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="E14" s="43" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="19" t="s">
-        <v>34</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2355,60 +1764,59 @@
     <mergeCell ref="B5:C12"/>
     <mergeCell ref="D5:G12"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="18.6" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="2" ht="18.6" customHeight="1" spans="1:1">
-      <c r="A2" t="s">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:1">
-      <c r="A3" t="s">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:1">
-      <c r="A4" t="s">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:1">
-      <c r="A5" t="s">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="7" spans="1:1">
-      <c r="A7" t="s">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:1">
-      <c r="A8" t="s">
-        <v>41</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -1,28 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20397"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\git_code\myCode\lib\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ECA7547-474C-4153-BD83-5D0E8D9AFE59}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="研究院周报" sheetId="2" r:id="rId1"/>
     <sheet name="研究院专题周报-补充" sheetId="4" r:id="rId2"/>
     <sheet name="周报说明" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
+  <si>
+    <t>龙辛柯-周报(2023年05月01日-2023年05月07日)5月第1周</t>
+  </si>
   <si>
     <t>季度重点工作</t>
   </si>
@@ -65,34 +62,31 @@
     <t>规划内工作</t>
   </si>
   <si>
-    <t>增量同步+防报错</t>
+    <t>就业质量模型权重计算</t>
   </si>
   <si>
     <t>完成</t>
   </si>
   <si>
-    <t>爬教育行业标签</t>
-  </si>
-  <si>
-    <t>湖北省其他招聘会信息展示</t>
+    <t>就业质量模型数据导入及交换机输出</t>
+  </si>
+  <si>
+    <t>教育行业分析数据打标签</t>
+  </si>
+  <si>
+    <t>教育行业分析搭建</t>
+  </si>
+  <si>
+    <t>湖北省优化拆分</t>
   </si>
   <si>
     <t>持续进行</t>
   </si>
   <si>
-    <t>就业质量模型权重计算</t>
-  </si>
-  <si>
-    <t>重点用人单位校招取数</t>
-  </si>
-  <si>
     <t>临时事项</t>
   </si>
   <si>
-    <t>优化了一下回收率导出代码</t>
-  </si>
-  <si>
-    <t>兰州石化就业跟踪管理平台</t>
+    <t>兰州理工数据收集</t>
   </si>
   <si>
     <t>下周工作安排</t>
@@ -101,11 +95,18 @@
     <t>预计达到的目标</t>
   </si>
   <si>
+    <t>宋凯文要的大屏</t>
+  </si>
+  <si>
+    <t>西北师范报表</t>
+  </si>
+  <si>
     <t>工作总结</t>
   </si>
   <si>
-    <t>1.朱黎让我帮忙导出一下回收率的时候发现跑不了于是忙里偷闲优化了一下，首先以前是填excel表格，其实根本不需要填那么多东西，给个问卷id其他的去数据库查就好了，我以前怎么没想到这个问题；然后是因为以前问卷量多有单位问卷和学生问卷在一起，现在单独导出一个学生问卷会错，属于没考虑到点炒饭的情况
-2.我现在才知道因子分析要用极差归一化，我以前都是直接除以最大值归一，主要是我一开始就没怎么弄明白因子分析，虽然知道原理，但是细节并不是很懂，这一点就不追究为什么了，记住就是了</t>
+    <t>1.用case when的时候出问题了，问题在于我把when True then 1 else 0写成了when Fasle then 0 else 1，看起来没什么区别，但是前者的空值也是0，而后者空值是1，这导致计算百分比的时候出现大于1的情况
+2.第二个问题是没有使用ifnull把空值处理为0，导致计算就业质量评分的时候有些指标算不出来，虽然不会报错但是没有值
+3.部分分析仪没考虑到下拉框的过滤，所以group by中没有添加相应的字段</t>
   </si>
   <si>
     <t>上周</t>
@@ -343,16 +344,18 @@
   <si>
     <t>5、每周最后一个工作日（一般周五）晚上12点之前通过邮件发送到数据事业部，抄送孙柏，如本周及下周工作需要其他部门相关责任人知晓，请一并抄送。</t>
   </si>
-  <si>
-    <t>龙辛柯-周报(2023年05月01日-2023年05月07日)5月第1周</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,7 +380,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0" tint="-0.14969328897976622"/>
+      <color theme="0" tint="-0.149693288979766"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -432,7 +435,144 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -474,15 +614,8 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -515,12 +648,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14969328897976622"/>
+        <fgColor theme="0" tint="-0.149693288979766"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -778,15 +1097,254 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="37" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="19" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="30" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -796,14 +1354,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -812,25 +1370,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="50" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="50" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="50" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -839,127 +1433,128 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="51" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="常规 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 4" xfId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1217,324 +1812,320 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K19" sqref="K19"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.6" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="50.375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="52.75" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="13"/>
+    <col min="1" max="1" width="16.125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="50.375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="52.75" style="25" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-    </row>
-    <row r="2" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+    <row r="1" ht="26.45" customHeight="1" spans="1:4">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
-      <c r="D2" s="14" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" ht="26.45" customHeight="1" spans="1:4">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="15" t="s">
+    </row>
+    <row r="3" ht="36.6" customHeight="1" spans="1:4">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
-    </row>
-    <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
-      <c r="D5" s="16" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="17">
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="35">
         <v>1</v>
       </c>
-      <c r="C6" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="19" t="s">
+      <c r="C6" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
-      <c r="B7" s="17">
+      <c r="D6" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="37"/>
+      <c r="B7" s="35">
         <f t="shared" ref="B7:B16" si="0">B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
-      <c r="B8" s="17">
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="37"/>
+      <c r="B8" s="35">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="19" t="s">
+      <c r="C8" s="25" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
-      <c r="B9" s="17">
+      <c r="D8" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="37"/>
+      <c r="B9" s="35">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="D9" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
-      <c r="B10" s="17">
+      <c r="D9" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="37"/>
+      <c r="B10" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D10" s="19" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
-      <c r="B11" s="17">
+      <c r="D10" s="36" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="37"/>
+      <c r="B11" s="35">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D11" s="19"/>
-    </row>
-    <row r="12" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
-      <c r="B12" s="17">
+      <c r="D11" s="36"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="37"/>
+      <c r="B12" s="35">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="18"/>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13" s="17">
+      <c r="C12" s="38"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="35">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D13" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
-      <c r="B14" s="17">
+      <c r="C13" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="39"/>
+      <c r="B14" s="35">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>17</v>
-      </c>
-      <c r="D14" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
-      <c r="B15" s="17">
+      <c r="C14" s="35"/>
+      <c r="D14" s="36"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="39"/>
+      <c r="B15" s="35">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="20"/>
-    </row>
-    <row r="16" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
-      <c r="B16" s="17">
+      <c r="C15" s="35"/>
+      <c r="D15" s="40"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="39"/>
+      <c r="B16" s="35">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-    </row>
-    <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-    </row>
-    <row r="18" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="16" t="s">
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="17">
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="35">
         <v>1</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
-      <c r="B20" s="17">
+      <c r="C19" s="35" t="s">
+        <v>20</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="39"/>
+      <c r="B20" s="35">
         <f>B19+1</f>
         <v>2</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="D20" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
-      <c r="B21" s="17">
+      <c r="D20" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="39"/>
+      <c r="B21" s="35">
         <f>B20+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="19" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
-      <c r="B22" s="17">
+      <c r="C21" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="39"/>
+      <c r="B22" s="35">
         <f>B21+1</f>
         <v>4</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="20"/>
-    </row>
-    <row r="23" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-    </row>
-    <row r="24" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-    </row>
-    <row r="25" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="40"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="27" t="s">
+        <v>22</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+    </row>
+    <row r="24" ht="82.15" customHeight="1" spans="1:4">
+      <c r="A24" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+    </row>
+    <row r="25" ht="39" customHeight="1" spans="1:4">
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A24:D25"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="2.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="40.875" style="3" customWidth="1"/>
@@ -1548,7 +2139,7 @@
     <col min="14" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:13">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1557,203 +2148,203 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="10" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="29.25" x14ac:dyDescent="0.2">
+      <c r="K2" s="22" t="s">
+        <v>25</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="M2" s="23"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="29.25" spans="1:13">
       <c r="A3" s="5"/>
-      <c r="B3" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="22.5" spans="1:13">
       <c r="A4" s="5"/>
-      <c r="B4" s="40" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
       <c r="A5" s="5"/>
-      <c r="B5" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B5" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
       <c r="A6" s="5"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
       <c r="A7" s="5"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
       <c r="A8" s="5"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
       <c r="A9" s="5"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
       <c r="A10" s="5"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
       <c r="A11" s="5"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="171" customHeight="1" spans="1:13">
       <c r="A12" s="5"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="22.15" customHeight="1" spans="1:13">
       <c r="A13" s="5"/>
-      <c r="B13" s="40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="351" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="351" customHeight="1" spans="1:13">
       <c r="A14" s="5"/>
-      <c r="B14" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="8" t="s">
+      <c r="B14" s="17" t="s">
         <v>32</v>
       </c>
-      <c r="E14" s="43" t="s">
+      <c r="C14" s="18" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
+      <c r="D14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1764,59 +2355,60 @@
     <mergeCell ref="B5:C12"/>
     <mergeCell ref="D5:G12"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="18.6" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="2" ht="18.6" customHeight="1" spans="1:1">
       <c r="A2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -16,9 +16,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="43">
-  <si>
-    <t>龙辛柯-周报(2023年05月01日-2023年05月07日)5月第1周</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+  <si>
+    <t>龙辛柯-周报(2023年05月08日-2023年05月14日)5月第2周</t>
   </si>
   <si>
     <t>季度重点工作</t>
@@ -62,40 +62,31 @@
     <t>规划内工作</t>
   </si>
   <si>
-    <t>就业质量模型权重计算</t>
+    <t>37流程拆分</t>
   </si>
   <si>
     <t>完成</t>
   </si>
   <si>
-    <t>就业质量模型数据导入及交换机输出</t>
-  </si>
-  <si>
-    <t>教育行业分析数据打标签</t>
-  </si>
-  <si>
-    <t>教育行业分析搭建</t>
+    <t>宋凯文要的大屏</t>
+  </si>
+  <si>
+    <t>持续进行</t>
+  </si>
+  <si>
+    <t>临时事项</t>
+  </si>
+  <si>
+    <t>榆林就业数据取数</t>
+  </si>
+  <si>
+    <t>下周工作安排</t>
+  </si>
+  <si>
+    <t>预计达到的目标</t>
   </si>
   <si>
     <t>湖北省优化拆分</t>
-  </si>
-  <si>
-    <t>持续进行</t>
-  </si>
-  <si>
-    <t>临时事项</t>
-  </si>
-  <si>
-    <t>兰州理工数据收集</t>
-  </si>
-  <si>
-    <t>下周工作安排</t>
-  </si>
-  <si>
-    <t>预计达到的目标</t>
-  </si>
-  <si>
-    <t>宋凯文要的大屏</t>
   </si>
   <si>
     <t>西北师范报表</t>
@@ -350,9 +341,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
@@ -380,7 +371,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0" tint="-0.149693288979766"/>
+      <color theme="0" tint="-0.14966277047029"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -435,7 +426,46 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -448,8 +478,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -464,14 +503,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="0"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -485,21 +547,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -508,61 +555,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -570,11 +562,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="等线"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -648,7 +639,175 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149693288979766"/>
+        <fgColor theme="0" tint="-0.14966277047029"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -660,181 +819,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1117,6 +1108,65 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -1136,65 +1186,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1203,10 +1194,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1215,133 +1206,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="37" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="19" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="7" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1823,7 +1814,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.6" customHeight="1" outlineLevelCol="3"/>
@@ -1914,9 +1905,6 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>12</v>
-      </c>
       <c r="D8" s="36" t="s">
         <v>10</v>
       </c>
@@ -1927,9 +1915,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="35" t="s">
-        <v>13</v>
-      </c>
+      <c r="C9" s="35"/>
       <c r="D9" s="36" t="s">
         <v>10</v>
       </c>
@@ -1940,11 +1926,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="35" t="s">
-        <v>14</v>
-      </c>
+      <c r="C10" s="35"/>
       <c r="D10" s="36" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" customHeight="1" spans="1:4">
@@ -1966,14 +1950,14 @@
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="39" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B13" s="35">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D13" s="36" t="s">
         <v>10</v>
@@ -2008,7 +1992,7 @@
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" s="30" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B17" s="31"/>
       <c r="C17" s="31"/>
@@ -2021,7 +2005,7 @@
       <c r="B18" s="33"/>
       <c r="C18" s="33"/>
       <c r="D18" s="33" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
@@ -2032,7 +2016,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="35" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>10</v>
@@ -2045,7 +2029,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>10</v>
@@ -2058,7 +2042,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>10</v>
@@ -2075,7 +2059,7 @@
     </row>
     <row r="23" customHeight="1" spans="1:4">
       <c r="A23" s="27" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -2083,7 +2067,7 @@
     </row>
     <row r="24" ht="82.15" customHeight="1" spans="1:4">
       <c r="A24" s="41" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
@@ -2150,20 +2134,20 @@
       <c r="H2" s="6"/>
       <c r="I2" s="21"/>
       <c r="J2" s="22" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="M2" s="23"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="29.25" spans="1:13">
       <c r="A3" s="5"/>
       <c r="B3" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -2179,7 +2163,7 @@
     <row r="4" s="2" customFormat="1" ht="22.5" spans="1:13">
       <c r="A4" s="5"/>
       <c r="B4" s="10" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2195,11 +2179,11 @@
     <row r="5" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
       <c r="A5" s="5"/>
       <c r="B5" s="13" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -2311,7 +2295,7 @@
     <row r="13" s="2" customFormat="1" ht="22.15" customHeight="1" spans="1:13">
       <c r="A13" s="5"/>
       <c r="B13" s="10" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -2327,16 +2311,16 @@
     <row r="14" s="2" customFormat="1" ht="351" customHeight="1" spans="1:13">
       <c r="A14" s="5"/>
       <c r="B14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="19" t="s">
         <v>32</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>35</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="20"/>
@@ -2373,37 +2357,37 @@
   <sheetData>
     <row r="1" ht="18.6" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" ht="18.6" customHeight="1" spans="1:1">
       <c r="A2" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="14400" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="研究院周报" sheetId="2" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>龙辛柯-周报(2023年05月08日-2023年05月14日)5月第2周</t>
   </si>
@@ -68,10 +68,10 @@
     <t>完成</t>
   </si>
   <si>
-    <t>宋凯文要的大屏</t>
-  </si>
-  <si>
-    <t>持续进行</t>
+    <t>云就业的部分大屏的实现</t>
+  </si>
+  <si>
+    <t>兰州理工小程序取数部分</t>
   </si>
   <si>
     <t>临时事项</t>
@@ -86,18 +86,20 @@
     <t>预计达到的目标</t>
   </si>
   <si>
-    <t>湖北省优化拆分</t>
-  </si>
-  <si>
-    <t>西北师范报表</t>
+    <t>兰州理工小程序导出excel部分</t>
+  </si>
+  <si>
+    <t>37流程拆分验证</t>
+  </si>
+  <si>
+    <t>湖北省中心其他需求</t>
   </si>
   <si>
     <t>工作总结</t>
   </si>
   <si>
-    <t>1.用case when的时候出问题了，问题在于我把when True then 1 else 0写成了when Fasle then 0 else 1，看起来没什么区别，但是前者的空值也是0，而后者空值是1，这导致计算百分比的时候出现大于1的情况
-2.第二个问题是没有使用ifnull把空值处理为0，导致计算就业质量评分的时候有些指标算不出来，虽然不会报错但是没有值
-3.部分分析仪没考虑到下拉框的过滤，所以group by中没有添加相应的字段</t>
+    <t>1.做了几个大屏，目前数睿那边有bug过滤的时候会报错所以我先没过滤，数睿下周二更新会修到时候再过滤；
+2.小程序和以前的回收率导出是一个类型的，不过excel的格式不一样所以不能照搬，另外这个需求做的时候发现这个excel除了格式外数据都有很多个性化需求，比如MBA学院不能当做学院，而是算在经管学院研究生里面，我都不知道在数睿里怎么实现</t>
   </si>
   <si>
     <t>上周</t>
@@ -342,9 +344,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="36">
     <font>
@@ -432,6 +434,90 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -442,14 +528,6 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
@@ -457,13 +535,6 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="等线"/>
@@ -472,7 +543,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="等线"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -486,75 +557,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="等线"/>
@@ -645,6 +647,60 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -657,67 +713,79 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -729,91 +797,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1085,6 +1087,56 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1116,15 +1168,6 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -1145,47 +1188,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1194,10 +1196,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1206,133 +1208,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="7" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="21" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1814,7 +1816,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.6" customHeight="1" outlineLevelCol="3"/>
@@ -1905,6 +1907,9 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
+      <c r="C8" s="25" t="s">
+        <v>12</v>
+      </c>
       <c r="D8" s="36" t="s">
         <v>10</v>
       </c>
@@ -1916,9 +1921,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="35"/>
-      <c r="D9" s="36" t="s">
-        <v>10</v>
-      </c>
+      <c r="D9" s="36"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="37"/>
@@ -1927,9 +1930,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="35"/>
-      <c r="D10" s="36" t="s">
-        <v>12</v>
-      </c>
+      <c r="D10" s="36"/>
     </row>
     <row r="11" customHeight="1" spans="1:4">
       <c r="A11" s="37"/>
@@ -2015,8 +2016,8 @@
       <c r="B19" s="35">
         <v>1</v>
       </c>
-      <c r="C19" s="35" t="s">
-        <v>11</v>
+      <c r="C19" s="25" t="s">
+        <v>17</v>
       </c>
       <c r="D19" s="36" t="s">
         <v>10</v>
@@ -2029,7 +2030,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="35" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>10</v>
@@ -2042,7 +2043,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="25" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D21" s="36" t="s">
         <v>10</v>
@@ -2059,7 +2060,7 @@
     </row>
     <row r="23" customHeight="1" spans="1:4">
       <c r="A23" s="27" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B23" s="27"/>
       <c r="C23" s="27"/>
@@ -2067,7 +2068,7 @@
     </row>
     <row r="24" ht="82.15" customHeight="1" spans="1:4">
       <c r="A24" s="41" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B24" s="42"/>
       <c r="C24" s="42"/>
@@ -2134,20 +2135,20 @@
       <c r="H2" s="6"/>
       <c r="I2" s="21"/>
       <c r="J2" s="22" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" s="22" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" s="22" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" s="23"/>
     </row>
     <row r="3" s="2" customFormat="1" ht="29.25" spans="1:13">
       <c r="A3" s="5"/>
       <c r="B3" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C3" s="8"/>
       <c r="D3" s="8"/>
@@ -2163,7 +2164,7 @@
     <row r="4" s="2" customFormat="1" ht="22.5" spans="1:13">
       <c r="A4" s="5"/>
       <c r="B4" s="10" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C4" s="11"/>
       <c r="D4" s="11"/>
@@ -2179,11 +2180,11 @@
     <row r="5" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
       <c r="A5" s="5"/>
       <c r="B5" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="15" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E5" s="15"/>
       <c r="F5" s="15"/>
@@ -2295,7 +2296,7 @@
     <row r="13" s="2" customFormat="1" ht="22.15" customHeight="1" spans="1:13">
       <c r="A13" s="5"/>
       <c r="B13" s="10" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" s="11"/>
       <c r="D13" s="11"/>
@@ -2311,16 +2312,16 @@
     <row r="14" s="2" customFormat="1" ht="351" customHeight="1" spans="1:13">
       <c r="A14" s="5"/>
       <c r="B14" s="17" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C14" s="18" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F14" s="19"/>
       <c r="G14" s="20"/>
@@ -2357,37 +2358,37 @@
   <sheetData>
     <row r="1" ht="18.6" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" ht="18.6" customHeight="1" spans="1:1">
       <c r="A2" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20398"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\git_code\myCode\lib\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED109661-6982-41D2-B666-167411EF67E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="14400" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="研究院周报" sheetId="2" r:id="rId1"/>
     <sheet name="研究院专题周报-补充" sheetId="4" r:id="rId2"/>
     <sheet name="周报说明" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
-  <si>
-    <t>龙辛柯-周报(2023年05月08日-2023年05月14日)5月第2周</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
   <si>
     <t>季度重点工作</t>
   </si>
@@ -62,22 +65,31 @@
     <t>规划内工作</t>
   </si>
   <si>
-    <t>37流程拆分</t>
+    <t>37流程拆分验证可行</t>
   </si>
   <si>
     <t>完成</t>
   </si>
   <si>
-    <t>云就业的部分大屏的实现</t>
+    <t>兰州理工小程序打包完成</t>
   </si>
   <si>
     <t>兰州理工小程序取数部分</t>
   </si>
   <si>
+    <t>自动化代码重构完第一章</t>
+  </si>
+  <si>
     <t>临时事项</t>
   </si>
   <si>
-    <t>榆林就业数据取数</t>
+    <t>寻找湖北省快照缺少2023届数据的问题</t>
+  </si>
+  <si>
+    <t>新媒体取数需求</t>
+  </si>
+  <si>
+    <t>数睿需求小作文</t>
   </si>
   <si>
     <t>下周工作安排</t>
@@ -86,10 +98,13 @@
     <t>预计达到的目标</t>
   </si>
   <si>
-    <t>兰州理工小程序导出excel部分</t>
-  </si>
-  <si>
-    <t>37流程拆分验证</t>
+    <t>继续重构自动化代码</t>
+  </si>
+  <si>
+    <t>持续进行</t>
+  </si>
+  <si>
+    <t>湖北省增量清洗</t>
   </si>
   <si>
     <t>湖北省中心其他需求</t>
@@ -98,8 +113,7 @@
     <t>工作总结</t>
   </si>
   <si>
-    <t>1.做了几个大屏，目前数睿那边有bug过滤的时候会报错所以我先没过滤，数睿下周二更新会修到时候再过滤；
-2.小程序和以前的回收率导出是一个类型的，不过excel的格式不一样所以不能照搬，另外这个需求做的时候发现这个excel除了格式外数据都有很多个性化需求，比如MBA学院不能当做学院，而是算在经管学院研究生里面，我都不知道在数睿里怎么实现</t>
+    <t>1.自动化报告中的饼图百分比问题没有完全解决，除了33.33%的问题之外，如果需要同时显示百分比和数字的话没有两全之计，因为饼图是输入数字自己计算占比的，想要得到假的百分比就要输入对应的修改过的数据，目前的考虑是需要同时用到的地方不多，先设置一个提醒，需要修改的话可以p，用sinpaste很好p，建议人手一个。后面我可以考虑实现用程序p，或者再研究研究pyecharts的其他版本。不过升级版本可能就出问题了，比如格式可能会变，函数定义可能会修改，就看要不要为了这20%的提升空间去花时间吧。</t>
   </si>
   <si>
     <t>上周</t>
@@ -336,19 +350,17 @@
   </si>
   <si>
     <t>5、每周最后一个工作日（一般周五）晚上12点之前通过邮件发送到数据事业部，抄送孙柏，如本周及下周工作需要其他部门相关责任人知晓，请一并抄送。</t>
+  </si>
+  <si>
+    <t>龙辛柯-周报(2023年05月22日-2023年05月28日)5月第4周</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="36">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -373,7 +385,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0" tint="-0.14966277047029"/>
+      <color theme="0" tint="-0.14960173345133823"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -428,146 +440,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
+      <color theme="1"/>
       <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -607,8 +482,15 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -641,198 +523,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14966277047029"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.14960173345133823"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1090,254 +786,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="22" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -1347,14 +804,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1363,61 +820,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="50" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="50" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="50" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1">
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1426,16 +847,37 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="51" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1453,101 +895,82 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="5">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
-    <cellStyle name="常规 4" xfId="51"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1805,312 +1228,324 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="A24" sqref="A24:D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.6" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="50.375" style="25" customWidth="1"/>
-    <col min="4" max="4" width="52.75" style="25" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="25"/>
+    <col min="1" max="1" width="16.125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="50.375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="52.75" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.45" customHeight="1" spans="1:4">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+    </row>
+    <row r="2" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-    </row>
-    <row r="2" ht="26.45" customHeight="1" spans="1:4">
-      <c r="A2" s="27" t="s">
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" ht="36.6" customHeight="1" spans="1:4">
-      <c r="A3" s="29" t="s">
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="25" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="30" t="s">
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="33" t="s">
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
+      <c r="D5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="29" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="34" t="s">
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="35">
-        <v>1</v>
-      </c>
-      <c r="C6" s="35" t="s">
+      <c r="D6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="37"/>
-      <c r="B7" s="35">
+    </row>
+    <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="30"/>
+      <c r="B7" s="17">
         <f t="shared" ref="B7:B16" si="0">B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="36" t="s">
+      <c r="C7" s="13" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="37"/>
-      <c r="B8" s="35">
+      <c r="D7" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="30"/>
+      <c r="B8" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C8" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="37"/>
-      <c r="B9" s="35">
+      <c r="C8" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="30"/>
+      <c r="B9" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="35"/>
-      <c r="D9" s="36"/>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="37"/>
-      <c r="B10" s="35">
+      <c r="C9" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="30"/>
+      <c r="B10" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="37"/>
-      <c r="B11" s="35">
+      <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
+    </row>
+    <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="30"/>
+      <c r="B11" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D11" s="36"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="37"/>
-      <c r="B12" s="35">
+      <c r="D11" s="18"/>
+    </row>
+    <row r="12" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="30"/>
+      <c r="B12" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="35"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="39" t="s">
+      <c r="C12" s="19"/>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="B13" s="35">
+      <c r="B13" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="35" t="s">
+      <c r="C13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="39"/>
-      <c r="B14" s="35">
+      <c r="D13" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="31"/>
+      <c r="B14" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="39"/>
-      <c r="B15" s="35">
+      <c r="C14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="D14" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="31"/>
+      <c r="B15" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="40"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="39"/>
-      <c r="B16" s="35">
+      <c r="C15" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="31"/>
+      <c r="B16" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="35">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+    </row>
+    <row r="18" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="31" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="17">
         <v>1</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="39"/>
-      <c r="B20" s="35">
+      <c r="C19" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="31"/>
+      <c r="B20" s="17">
         <f>B19+1</f>
         <v>2</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>18</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="39"/>
-      <c r="B21" s="35">
+      <c r="C20" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="31"/>
+      <c r="B21" s="17">
         <f>B20+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="39"/>
-      <c r="B22" s="35">
+      <c r="C21" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="31"/>
+      <c r="B22" s="17">
         <f>B21+1</f>
         <v>4</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="40"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-    </row>
-    <row r="24" ht="82.15" customHeight="1" spans="1:4">
-      <c r="A24" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
-    </row>
-    <row r="25" ht="39" customHeight="1" spans="1:4">
-      <c r="A25" s="44"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
+      <c r="C22" s="19"/>
+      <c r="D22" s="21"/>
+    </row>
+    <row r="23" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+    </row>
+    <row r="24" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="32" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24" s="33"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="34"/>
+    </row>
+    <row r="25" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="35"/>
+      <c r="B25" s="36"/>
+      <c r="C25" s="36"/>
+      <c r="D25" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A24:D25"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="40.875" style="3" customWidth="1"/>
@@ -2124,7 +1559,7 @@
     <col min="14" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:13">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2133,203 +1568,203 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="M2" s="23"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="29.25" spans="1:13">
+      <c r="I2" s="9"/>
+      <c r="J2" s="10" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="22.5" spans="1:13">
+      <c r="B3" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
+      <c r="B4" s="41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="13" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
+      <c r="B5" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="47"/>
+      <c r="D5" s="48" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="49"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="171" customHeight="1" spans="1:13">
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="49"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="22.15" customHeight="1" spans="1:13">
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="49"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="351" customHeight="1" spans="1:13">
+      <c r="B13" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="351" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="B14" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="19" t="s">
+      <c r="B14" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
+      <c r="C14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2340,60 +1775,59 @@
     <mergeCell ref="B5:C12"/>
     <mergeCell ref="D5:G12"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="18.6" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="2" ht="18.6" customHeight="1" spans="1:1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -1,28 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20398"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\git_code\myCode\lib\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED109661-6982-41D2-B666-167411EF67E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="研究院周报" sheetId="2" r:id="rId1"/>
     <sheet name="研究院专题周报-补充" sheetId="4" r:id="rId2"/>
     <sheet name="周报说明" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
+  <si>
+    <t>龙辛柯-周报(2023年05月22日-2023年05月28日)5月第4周</t>
+  </si>
   <si>
     <t>季度重点工作</t>
   </si>
@@ -65,33 +62,18 @@
     <t>规划内工作</t>
   </si>
   <si>
-    <t>37流程拆分验证可行</t>
+    <t>调整湖北省流程命名</t>
   </si>
   <si>
     <t>完成</t>
   </si>
   <si>
-    <t>兰州理工小程序打包完成</t>
-  </si>
-  <si>
-    <t>兰州理工小程序取数部分</t>
-  </si>
-  <si>
-    <t>自动化代码重构完第一章</t>
+    <t>爱尔眼科取数</t>
   </si>
   <si>
     <t>临时事项</t>
   </si>
   <si>
-    <t>寻找湖北省快照缺少2023届数据的问题</t>
-  </si>
-  <si>
-    <t>新媒体取数需求</t>
-  </si>
-  <si>
-    <t>数睿需求小作文</t>
-  </si>
-  <si>
     <t>下周工作安排</t>
   </si>
   <si>
@@ -113,7 +95,8 @@
     <t>工作总结</t>
   </si>
   <si>
-    <t>1.自动化报告中的饼图百分比问题没有完全解决，除了33.33%的问题之外，如果需要同时显示百分比和数字的话没有两全之计，因为饼图是输入数字自己计算占比的，想要得到假的百分比就要输入对应的修改过的数据，目前的考虑是需要同时用到的地方不多，先设置一个提醒，需要修改的话可以p，用sinpaste很好p，建议人手一个。后面我可以考虑实现用程序p，或者再研究研究pyecharts的其他版本。不过升级版本可能就出问题了，比如格式可能会变，函数定义可能会修改，就看要不要为了这20%的提升空间去花时间吧。</t>
+    <t>1.用chatGPT查询学术问题的时候有个规律，问一个问题，如果它的回答是错的，再追问应该也没戏了，要么是21年以后的东西，要么是不通用的疑难杂症不如直接上网搜。当然这个是3.5的问题。
+2.取数的时候突然发现一个问题，我如果是临时取数，完全可以用python取，因为很多需求用sql实现起来很麻烦我用起来也不熟</t>
   </si>
   <si>
     <t>上周</t>
@@ -351,16 +334,18 @@
   <si>
     <t>5、每周最后一个工作日（一般周五）晚上12点之前通过邮件发送到数据事业部，抄送孙柏，如本周及下周工作需要其他部门相关责任人知晓，请一并抄送。</t>
   </si>
-  <si>
-    <t>龙辛柯-周报(2023年05月22日-2023年05月28日)5月第4周</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -385,7 +370,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0" tint="-0.14960173345133823"/>
+      <color theme="0" tint="-0.149601733451338"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -440,9 +425,146 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -482,15 +604,8 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -523,12 +638,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14960173345133823"/>
+        <fgColor theme="0" tint="-0.149601733451338"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -786,15 +1087,254 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="20" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -804,14 +1344,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -820,25 +1360,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="50" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="50" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="50" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -847,130 +1423,128 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="51" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="常规 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 4" xfId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1228,324 +1802,313 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:D25"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.6" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="50.375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="52.75" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="13"/>
+    <col min="1" max="1" width="16.125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="50.375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="52.75" style="25" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-    </row>
-    <row r="2" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+    <row r="1" ht="26.45" customHeight="1" spans="1:4">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="14" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" ht="26.45" customHeight="1" spans="1:4">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="15" t="s">
+    </row>
+    <row r="3" ht="36.6" customHeight="1" spans="1:4">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
-    </row>
-    <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="16" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="33" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="29" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="B6" s="17">
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="34" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="35">
         <v>1</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="35" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="30"/>
-      <c r="B7" s="17">
+      <c r="D6" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="37"/>
+      <c r="B7" s="35">
         <f t="shared" ref="B7:B16" si="0">B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="13" t="s">
+      <c r="C7" s="35" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="36" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="30"/>
-      <c r="B8" s="17">
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="37"/>
+      <c r="B8" s="35">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C8" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="30"/>
-      <c r="B9" s="17">
+      <c r="C8" s="35"/>
+      <c r="D8" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="37"/>
+      <c r="B9" s="35">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="17" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="30"/>
-      <c r="B10" s="17">
+      <c r="D9" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="37"/>
+      <c r="B10" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="30"/>
-      <c r="B11" s="17">
+      <c r="C10" s="35"/>
+      <c r="D10" s="36"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="37"/>
+      <c r="B11" s="35">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="30"/>
-      <c r="B12" s="17">
+      <c r="D11" s="36"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="37"/>
+      <c r="B12" s="35">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" s="17">
+      <c r="C12" s="38"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="35">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="31"/>
-      <c r="B14" s="17">
+      <c r="C13" s="35"/>
+      <c r="D13" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="39"/>
+      <c r="B14" s="35">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C14" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="31"/>
-      <c r="B15" s="17">
+      <c r="C14" s="35"/>
+      <c r="D14" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="39"/>
+      <c r="B15" s="35">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C15" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="31"/>
-      <c r="B16" s="17">
+      <c r="C15" s="35"/>
+      <c r="D15" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="39"/>
+      <c r="B16" s="35">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-    </row>
-    <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
-    </row>
-    <row r="18" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="31" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="17">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="33" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="39" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="35">
         <v>1</v>
       </c>
-      <c r="C19" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="31"/>
-      <c r="B20" s="17">
+      <c r="C19" s="25" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="39"/>
+      <c r="B20" s="35">
         <f>B19+1</f>
         <v>2</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="31"/>
-      <c r="B21" s="17">
+      <c r="C20" s="35" t="s">
+        <v>17</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="39"/>
+      <c r="B21" s="35">
         <f>B20+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="31"/>
-      <c r="B22" s="17">
+      <c r="C21" s="25" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21" s="36" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="39"/>
+      <c r="B22" s="35">
         <f>B21+1</f>
         <v>4</v>
       </c>
-      <c r="C22" s="19"/>
-      <c r="D22" s="21"/>
-    </row>
-    <row r="23" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>23</v>
-      </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-    </row>
-    <row r="24" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="32" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24" s="33"/>
-      <c r="C24" s="33"/>
-      <c r="D24" s="34"/>
-    </row>
-    <row r="25" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="35"/>
-      <c r="B25" s="36"/>
-      <c r="C25" s="36"/>
-      <c r="D25" s="37"/>
+      <c r="C22" s="38"/>
+      <c r="D22" s="40"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="27" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+    </row>
+    <row r="24" ht="82.15" customHeight="1" spans="1:4">
+      <c r="A24" s="41" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="42"/>
+      <c r="C24" s="42"/>
+      <c r="D24" s="43"/>
+    </row>
+    <row r="25" ht="39" customHeight="1" spans="1:4">
+      <c r="A25" s="44"/>
+      <c r="B25" s="45"/>
+      <c r="C25" s="45"/>
+      <c r="D25" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A24:D25"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="2.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="40.875" style="3" customWidth="1"/>
@@ -1559,7 +2122,7 @@
     <col min="14" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:13">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1568,203 +2131,203 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="22" t="s">
+        <v>21</v>
+      </c>
+      <c r="K2" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="L2" s="22" t="s">
+        <v>23</v>
+      </c>
+      <c r="M2" s="23"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="29.25" spans="1:13">
+      <c r="A3" s="5"/>
+      <c r="B3" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="22.5" spans="1:13">
+      <c r="A4" s="5"/>
+      <c r="B4" s="10" t="s">
         <v>25</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
+      <c r="A5" s="5"/>
+      <c r="B5" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="C5" s="14"/>
+      <c r="D5" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="29.25" x14ac:dyDescent="0.2">
-      <c r="A3" s="5"/>
-      <c r="B3" s="38" t="s">
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
+      <c r="A6" s="5"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
+      <c r="A7" s="5"/>
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
+      <c r="A8" s="5"/>
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
+      <c r="A9" s="5"/>
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
+      <c r="A10" s="5"/>
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
+      <c r="A11" s="5"/>
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="171" customHeight="1" spans="1:13">
+      <c r="A12" s="5"/>
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="22.15" customHeight="1" spans="1:13">
+      <c r="A13" s="5"/>
+      <c r="B13" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
-      <c r="A4" s="5"/>
-      <c r="B4" s="41" t="s">
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="351" customHeight="1" spans="1:13">
+      <c r="A14" s="5"/>
+      <c r="B14" s="17" t="s">
         <v>29</v>
       </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="5"/>
-      <c r="B5" s="46" t="s">
+      <c r="C14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48" t="s">
+      <c r="D14" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="5"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="5"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="5"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="5"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="49"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="5"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="5"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="49"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="5"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="5"/>
-      <c r="B13" s="41" t="s">
+      <c r="E14" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="351" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="5"/>
-      <c r="B14" s="7" t="s">
-        <v>33</v>
-      </c>
-      <c r="C14" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1775,59 +2338,60 @@
     <mergeCell ref="B5:C12"/>
     <mergeCell ref="D5:G12"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="18.6" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" ht="18.6" customHeight="1" spans="1:1">
+      <c r="A2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
+    <row r="7" spans="1:1">
+      <c r="A7" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
+    <row r="8" spans="1:1">
+      <c r="A8" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>43</v>
-      </c>
-    </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -1,25 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20398"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\git_code\myCode\lib\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87768CCD-B160-4506-96DB-893DA38811F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="研究院周报" sheetId="2" r:id="rId1"/>
     <sheet name="研究院专题周报-补充" sheetId="4" r:id="rId2"/>
     <sheet name="周报说明" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="191029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="40">
-  <si>
-    <t>龙辛柯-周报(2023年05月22日-2023年05月28日)5月第4周</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
   <si>
     <t>季度重点工作</t>
   </si>
@@ -71,6 +74,21 @@
     <t>爱尔眼科取数</t>
   </si>
   <si>
+    <t>新媒体取数调整</t>
+  </si>
+  <si>
+    <t>湖北省数据准备报错处理</t>
+  </si>
+  <si>
+    <t>企业和岗位数取数</t>
+  </si>
+  <si>
+    <t>大屏设置钻取和联动（未完成）</t>
+  </si>
+  <si>
+    <t>以前的交换机啥的都要加字段很麻烦</t>
+  </si>
+  <si>
     <t>临时事项</t>
   </si>
   <si>
@@ -80,16 +98,19 @@
     <t>预计达到的目标</t>
   </si>
   <si>
-    <t>继续重构自动化代码</t>
+    <t>爱尔眼科取数调整</t>
+  </si>
+  <si>
+    <t>湖北省增量清洗</t>
+  </si>
+  <si>
+    <t>自动化继续完善</t>
   </si>
   <si>
     <t>持续进行</t>
   </si>
   <si>
-    <t>湖北省增量清洗</t>
-  </si>
-  <si>
-    <t>湖北省中心其他需求</t>
+    <t>大屏设置钻取和联动</t>
   </si>
   <si>
     <t>工作总结</t>
@@ -333,19 +354,17 @@
   </si>
   <si>
     <t>5、每周最后一个工作日（一般周五）晚上12点之前通过邮件发送到数据事业部，抄送孙柏，如本周及下周工作需要其他部门相关责任人知晓，请一并抄送。</t>
+  </si>
+  <si>
+    <t>龙辛柯-周报(2023年05月29日-2023年06月04日)6月第1周</t>
+    <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="36">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="19" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -370,7 +389,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0" tint="-0.149601733451338"/>
+      <color theme="0" tint="-0.14957121494186223"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -425,146 +444,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -604,8 +486,15 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="38">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -638,198 +527,12 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149601733451338"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="0" tint="-0.14957121494186223"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1087,254 +790,15 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="52">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="21" borderId="26" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="20" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="24" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="23" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -1344,14 +808,14 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1360,61 +824,25 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="50" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="50" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1">
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="50" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1423,16 +851,34 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="51" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1450,101 +896,82 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="52">
+  <cellStyles count="5">
+    <cellStyle name="百分比" xfId="1" builtinId="5"/>
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
-    <cellStyle name="常规 2" xfId="49"/>
-    <cellStyle name="常规 3" xfId="50"/>
-    <cellStyle name="常规 4" xfId="51"/>
+    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="常规 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1802,313 +1229,325 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.6" customHeight="1" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="24" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="25" customWidth="1"/>
-    <col min="3" max="3" width="50.375" style="25" customWidth="1"/>
-    <col min="4" max="4" width="52.75" style="25" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="25"/>
+    <col min="1" max="1" width="16.125" style="12" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="50.375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="52.75" style="13" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" ht="26.45" customHeight="1" spans="1:4">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
+    </row>
+    <row r="2" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-    </row>
-    <row r="2" ht="26.45" customHeight="1" spans="1:4">
-      <c r="A2" s="27" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="28" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="23" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" ht="36.6" customHeight="1" spans="1:4">
-      <c r="A3" s="29" t="s">
+      <c r="B3" s="23"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="29"/>
-      <c r="C3" s="29"/>
-      <c r="D3" s="29" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="24" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" customHeight="1" spans="1:4">
-      <c r="A4" s="30" t="s">
+      <c r="B4" s="25"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="26"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="31"/>
-      <c r="C4" s="31"/>
-      <c r="D4" s="32"/>
-    </row>
-    <row r="5" customHeight="1" spans="1:4">
-      <c r="A5" s="33" t="s">
+      <c r="B5" s="27"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="33"/>
-      <c r="C5" s="33"/>
-      <c r="D5" s="33" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="28" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" customHeight="1" spans="1:4">
-      <c r="A6" s="34" t="s">
+      <c r="B6" s="17">
+        <v>1</v>
+      </c>
+      <c r="C6" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="35">
-        <v>1</v>
-      </c>
-      <c r="C6" s="35" t="s">
+      <c r="D6" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" customHeight="1" spans="1:4">
-      <c r="A7" s="37"/>
-      <c r="B7" s="35">
+    </row>
+    <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="29"/>
+      <c r="B7" s="17">
         <f t="shared" ref="B7:B16" si="0">B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="35" t="s">
-        <v>11</v>
-      </c>
-      <c r="D7" s="36" t="s">
+      <c r="C7" s="17" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="8" customHeight="1" spans="1:4">
-      <c r="A8" s="37"/>
-      <c r="B8" s="35">
+      <c r="D7" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="29"/>
+      <c r="B8" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C8" s="35"/>
-      <c r="D8" s="36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" customHeight="1" spans="1:4">
-      <c r="A9" s="37"/>
-      <c r="B9" s="35">
+      <c r="C8" s="17" t="s">
+        <v>11</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="29"/>
+      <c r="B9" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="10" customHeight="1" spans="1:4">
-      <c r="A10" s="37"/>
-      <c r="B10" s="35">
+      <c r="C9" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="29"/>
+      <c r="B10" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="35"/>
-      <c r="D10" s="36"/>
-    </row>
-    <row r="11" customHeight="1" spans="1:4">
-      <c r="A11" s="37"/>
-      <c r="B11" s="35">
+      <c r="C10" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="29"/>
+      <c r="B11" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D11" s="36"/>
-    </row>
-    <row r="12" customHeight="1" spans="1:4">
-      <c r="A12" s="37"/>
-      <c r="B12" s="35">
+      <c r="C11" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="18" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="29"/>
+      <c r="B12" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="38"/>
-      <c r="D12" s="35"/>
-    </row>
-    <row r="13" customHeight="1" spans="1:4">
-      <c r="A13" s="39" t="s">
-        <v>12</v>
-      </c>
-      <c r="B13" s="35">
+      <c r="C12" s="19"/>
+      <c r="D12" s="17"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="17">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="35"/>
-      <c r="D13" s="36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" customHeight="1" spans="1:4">
-      <c r="A14" s="39"/>
-      <c r="B14" s="35">
+      <c r="C13" s="17"/>
+      <c r="D13" s="18"/>
+    </row>
+    <row r="14" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="30"/>
+      <c r="B14" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C14" s="35"/>
-      <c r="D14" s="36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" customHeight="1" spans="1:4">
-      <c r="A15" s="39"/>
-      <c r="B15" s="35">
+      <c r="C14" s="17"/>
+      <c r="D14" s="18"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="30"/>
+      <c r="B15" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C15" s="35"/>
-      <c r="D15" s="36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" customHeight="1" spans="1:4">
-      <c r="A16" s="39"/>
-      <c r="B16" s="35">
+      <c r="C15" s="17"/>
+      <c r="D15" s="18"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="30"/>
+      <c r="B16" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C16" s="35"/>
-      <c r="D16" s="35"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:4">
-      <c r="A17" s="30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" s="31"/>
-      <c r="C17" s="31"/>
-      <c r="D17" s="32"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:4">
-      <c r="A18" s="33" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="33"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" customHeight="1" spans="1:4">
-      <c r="A19" s="39" t="s">
-        <v>8</v>
-      </c>
-      <c r="B19" s="35">
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" s="25"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="26"/>
+    </row>
+    <row r="18" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="27"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="16" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="30" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="17">
         <v>1</v>
       </c>
-      <c r="C19" s="25" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="20" customHeight="1" spans="1:4">
-      <c r="A20" s="39"/>
-      <c r="B20" s="35">
+      <c r="C19" s="17" t="s">
+        <v>19</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="30"/>
+      <c r="B20" s="17">
         <f>B19+1</f>
         <v>2</v>
       </c>
-      <c r="C20" s="35" t="s">
-        <v>17</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" customHeight="1" spans="1:4">
-      <c r="A21" s="39"/>
-      <c r="B21" s="35">
+      <c r="C20" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="D20" s="18" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="30"/>
+      <c r="B21" s="17">
         <f>B20+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="25" t="s">
-        <v>18</v>
-      </c>
-      <c r="D21" s="36" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" customHeight="1" spans="1:4">
-      <c r="A22" s="39"/>
-      <c r="B22" s="35">
+      <c r="C21" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="D21" s="18" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="30"/>
+      <c r="B22" s="17">
         <f>B21+1</f>
         <v>4</v>
       </c>
-      <c r="C22" s="38"/>
-      <c r="D22" s="40"/>
-    </row>
-    <row r="23" customHeight="1" spans="1:4">
-      <c r="A23" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B23" s="27"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="27"/>
-    </row>
-    <row r="24" ht="82.15" customHeight="1" spans="1:4">
-      <c r="A24" s="41" t="s">
-        <v>20</v>
-      </c>
-      <c r="B24" s="42"/>
-      <c r="C24" s="42"/>
-      <c r="D24" s="43"/>
-    </row>
-    <row r="25" ht="39" customHeight="1" spans="1:4">
-      <c r="A25" s="44"/>
-      <c r="B25" s="45"/>
-      <c r="C25" s="45"/>
-      <c r="D25" s="46"/>
+      <c r="C22" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="D22" s="20" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+    </row>
+    <row r="24" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" s="32"/>
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
+    </row>
+    <row r="25" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="34"/>
+      <c r="B25" s="35"/>
+      <c r="C25" s="35"/>
+      <c r="D25" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A24:D25"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="40.875" style="3" customWidth="1"/>
@@ -2122,7 +1561,7 @@
     <col min="14" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:13">
+    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -2131,203 +1570,203 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="21"/>
-      <c r="J2" s="22" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="22" t="s">
-        <v>22</v>
-      </c>
-      <c r="L2" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="23"/>
-    </row>
-    <row r="3" s="2" customFormat="1" ht="29.25" spans="1:13">
+      <c r="I2" s="9"/>
+      <c r="J2" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="M2" s="11"/>
+    </row>
+    <row r="3" spans="1:13" s="2" customFormat="1" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="9"/>
-      <c r="I3" s="23"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="23"/>
-      <c r="L3" s="23"/>
-      <c r="M3" s="23"/>
-    </row>
-    <row r="4" s="2" customFormat="1" ht="22.5" spans="1:13">
+      <c r="B3" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="C3" s="38"/>
+      <c r="D3" s="38"/>
+      <c r="E3" s="38"/>
+      <c r="F3" s="38"/>
+      <c r="G3" s="39"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="11"/>
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11"/>
+    </row>
+    <row r="4" spans="1:13" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="12"/>
-      <c r="I4" s="23"/>
-      <c r="J4" s="23"/>
-      <c r="K4" s="23"/>
-      <c r="L4" s="23"/>
-      <c r="M4" s="23"/>
-    </row>
-    <row r="5" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
+      <c r="B4" s="40" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="41"/>
+      <c r="D4" s="41"/>
+      <c r="E4" s="41"/>
+      <c r="F4" s="41"/>
+      <c r="G4" s="42"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="11"/>
+      <c r="K4" s="11"/>
+      <c r="L4" s="11"/>
+      <c r="M4" s="11"/>
+    </row>
+    <row r="5" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="16"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="23"/>
-      <c r="L5" s="23"/>
-      <c r="M5" s="23"/>
-    </row>
-    <row r="6" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
+      <c r="B5" s="45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C5" s="46"/>
+      <c r="D5" s="47" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="48"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+    </row>
+    <row r="6" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="15"/>
-      <c r="G6" s="16"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="23"/>
-      <c r="L6" s="23"/>
-      <c r="M6" s="23"/>
-    </row>
-    <row r="7" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
+      <c r="B6" s="45"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="47"/>
+      <c r="E6" s="47"/>
+      <c r="F6" s="47"/>
+      <c r="G6" s="48"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="11"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="11"/>
+      <c r="M6" s="11"/>
+    </row>
+    <row r="7" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="13"/>
-      <c r="C7" s="14"/>
-      <c r="D7" s="15"/>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="16"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="23"/>
-      <c r="K7" s="23"/>
-      <c r="L7" s="23"/>
-      <c r="M7" s="23"/>
-    </row>
-    <row r="8" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
+      <c r="B7" s="45"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="47"/>
+      <c r="E7" s="47"/>
+      <c r="F7" s="47"/>
+      <c r="G7" s="48"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
+      <c r="K7" s="11"/>
+      <c r="L7" s="11"/>
+      <c r="M7" s="11"/>
+    </row>
+    <row r="8" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="13"/>
-      <c r="C8" s="14"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="16"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="23"/>
-      <c r="K8" s="23"/>
-      <c r="L8" s="23"/>
-      <c r="M8" s="23"/>
-    </row>
-    <row r="9" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
+      <c r="B8" s="45"/>
+      <c r="C8" s="46"/>
+      <c r="D8" s="47"/>
+      <c r="E8" s="47"/>
+      <c r="F8" s="47"/>
+      <c r="G8" s="48"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+      <c r="K8" s="11"/>
+      <c r="L8" s="11"/>
+      <c r="M8" s="11"/>
+    </row>
+    <row r="9" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="13"/>
-      <c r="C9" s="14"/>
-      <c r="D9" s="15"/>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="16"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="23"/>
-      <c r="K9" s="23"/>
-      <c r="L9" s="23"/>
-      <c r="M9" s="23"/>
-    </row>
-    <row r="10" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
+      <c r="B9" s="45"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="47"/>
+      <c r="E9" s="47"/>
+      <c r="F9" s="47"/>
+      <c r="G9" s="48"/>
+      <c r="I9" s="11"/>
+      <c r="J9" s="11"/>
+      <c r="K9" s="11"/>
+      <c r="L9" s="11"/>
+      <c r="M9" s="11"/>
+    </row>
+    <row r="10" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="13"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="16"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="23"/>
-      <c r="K10" s="23"/>
-      <c r="L10" s="23"/>
-      <c r="M10" s="23"/>
-    </row>
-    <row r="11" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
+      <c r="B10" s="45"/>
+      <c r="C10" s="46"/>
+      <c r="D10" s="47"/>
+      <c r="E10" s="47"/>
+      <c r="F10" s="47"/>
+      <c r="G10" s="48"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
+      <c r="L10" s="11"/>
+      <c r="M10" s="11"/>
+    </row>
+    <row r="11" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="13"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="16"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="23"/>
-      <c r="K11" s="23"/>
-      <c r="L11" s="23"/>
-      <c r="M11" s="23"/>
-    </row>
-    <row r="12" s="2" customFormat="1" ht="171" customHeight="1" spans="1:13">
+      <c r="B11" s="45"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="48"/>
+      <c r="I11" s="11"/>
+      <c r="J11" s="11"/>
+      <c r="K11" s="11"/>
+      <c r="L11" s="11"/>
+      <c r="M11" s="11"/>
+    </row>
+    <row r="12" spans="1:13" s="2" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="13"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="16"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="23"/>
-      <c r="K12" s="23"/>
-      <c r="L12" s="23"/>
-      <c r="M12" s="23"/>
-    </row>
-    <row r="13" s="2" customFormat="1" ht="22.15" customHeight="1" spans="1:13">
+      <c r="B12" s="45"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="48"/>
+      <c r="I12" s="11"/>
+      <c r="J12" s="11"/>
+      <c r="K12" s="11"/>
+      <c r="L12" s="11"/>
+      <c r="M12" s="11"/>
+    </row>
+    <row r="13" spans="1:13" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="10" t="s">
-        <v>28</v>
-      </c>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
-      <c r="E13" s="11"/>
-      <c r="F13" s="11"/>
-      <c r="G13" s="12"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="23"/>
-      <c r="L13" s="23"/>
-      <c r="M13" s="23"/>
-    </row>
-    <row r="14" s="2" customFormat="1" ht="351" customHeight="1" spans="1:13">
+      <c r="B13" s="40" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="42"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
+      <c r="K13" s="11"/>
+      <c r="L13" s="11"/>
+      <c r="M13" s="11"/>
+    </row>
+    <row r="14" spans="1:13" s="2" customFormat="1" ht="351" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
-      <c r="B14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="18" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="F14" s="19"/>
-      <c r="G14" s="20"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
+      <c r="B14" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="43"/>
+      <c r="G14" s="44"/>
+      <c r="I14" s="11"/>
+      <c r="J14" s="11"/>
+      <c r="K14" s="11"/>
+      <c r="L14" s="11"/>
+      <c r="M14" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -2338,60 +1777,59 @@
     <mergeCell ref="B5:C12"/>
     <mergeCell ref="D5:G12"/>
   </mergeCells>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" ht="18.6" customHeight="1" spans="1:1">
+    <row r="1" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="2" ht="18.6" customHeight="1" spans="1:1">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
 </worksheet>
 </file>
--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\git_code\myCode\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87768CCD-B160-4506-96DB-893DA38811F4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C211F42-E260-4C45-90F9-669E02F823A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
   <si>
     <t>季度重点工作</t>
   </si>
@@ -65,28 +65,28 @@
     <t>规划内工作</t>
   </si>
   <si>
-    <t>调整湖北省流程命名</t>
+    <t>自动化报告重构</t>
+  </si>
+  <si>
+    <t>持续进行</t>
+  </si>
+  <si>
+    <t>小程序修bug</t>
   </si>
   <si>
     <t>完成</t>
   </si>
   <si>
-    <t>爱尔眼科取数</t>
-  </si>
-  <si>
-    <t>新媒体取数调整</t>
-  </si>
-  <si>
-    <t>湖北省数据准备报错处理</t>
-  </si>
-  <si>
-    <t>企业和岗位数取数</t>
-  </si>
-  <si>
-    <t>大屏设置钻取和联动（未完成）</t>
-  </si>
-  <si>
-    <t>以前的交换机啥的都要加字段很麻烦</t>
+    <t>爱尔眼科取数调整</t>
+  </si>
+  <si>
+    <t>增量清洗</t>
+  </si>
+  <si>
+    <t>线上协助驾驶舱优化</t>
+  </si>
+  <si>
+    <t>云南交通实时驾驶舱帆软实现</t>
   </si>
   <si>
     <t>临时事项</t>
@@ -98,26 +98,14 @@
     <t>预计达到的目标</t>
   </si>
   <si>
-    <t>爱尔眼科取数调整</t>
-  </si>
-  <si>
-    <t>湖北省增量清洗</t>
-  </si>
-  <si>
-    <t>自动化继续完善</t>
-  </si>
-  <si>
-    <t>持续进行</t>
-  </si>
-  <si>
-    <t>大屏设置钻取和联动</t>
+    <t>视频制作研究</t>
   </si>
   <si>
     <t>工作总结</t>
   </si>
   <si>
-    <t>1.用chatGPT查询学术问题的时候有个规律，问一个问题，如果它的回答是错的，再追问应该也没戏了，要么是21年以后的东西，要么是不通用的疑难杂症不如直接上网搜。当然这个是3.5的问题。
-2.取数的时候突然发现一个问题，我如果是临时取数，完全可以用python取，因为很多需求用sql实现起来很麻烦我用起来也不熟</t>
+    <t>1.自动化现在越写越难过，很多东西想要整合成一个函数很麻烦，虽然都是条形图，但是格式相差太大加上我对pyecharts不是很熟悉，很难用一个函数传不同的参数实现，到后面只能摆烂重新写一个函数了，其实对程序的运行倒是没什么影响，但代码中有太多重复的东西是经典的坏味道。不过好像也管不了这么多了，时间不够了
+2.小程序有两个bug，一个是-0.00%的问题，这个还不算严重，另一个是跑不出来的问题，其实就是遇到了字符串形式的百分比和数字运算报错了，老师当时还急着催我要，于是先没修bug给老师发了一版没把小数转化为百分数的excel，但以普遍理性而言写程序有bug很正常，锅应该甩给测试头上。但是这个程序是我单人开发的，没办法甩锅了</t>
   </si>
   <si>
     <t>上周</t>
@@ -356,7 +344,7 @@
     <t>5、每周最后一个工作日（一般周五）晚上12点之前通过邮件发送到数据事业部，抄送孙柏，如本周及下周工作需要其他部门相关责任人知晓，请一并抄送。</t>
   </si>
   <si>
-    <t>龙辛柯-周报(2023年05月29日-2023年06月04日)6月第1周</t>
+    <t>龙辛柯-周报(2023年06月05日-2023年06月11日)6月第2周</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -389,7 +377,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0" tint="-0.14957121494186223"/>
+      <color theme="0" tint="-0.14954069643238624"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -527,7 +515,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14957121494186223"/>
+        <fgColor theme="0" tint="-0.14954069643238624"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -808,7 +796,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -868,9 +856,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1241,7 +1226,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1254,53 +1239,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
+      <c r="A1" s="20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="25"/>
-      <c r="D4" s="26"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="27" t="s">
+      <c r="A5" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="27"/>
-      <c r="C5" s="27"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="17">
@@ -1314,7 +1299,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="29"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="17">
         <f t="shared" ref="B7:B16" si="0">B6+1</f>
         <v>2</v>
@@ -1323,63 +1308,63 @@
         <v>10</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="29"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C8" s="17" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="18" t="s">
         <v>11</v>
       </c>
-      <c r="D8" s="18" t="s">
-        <v>9</v>
-      </c>
     </row>
     <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="29"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C9" s="13" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="29"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C10" s="17" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="29"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
       <c r="C11" s="13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="29"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1388,7 +1373,7 @@
       <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="29" t="s">
         <v>16</v>
       </c>
       <c r="B13" s="17">
@@ -1399,7 +1384,7 @@
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="30"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1408,7 +1393,7 @@
       <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="30"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1417,7 +1402,7 @@
       <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="30"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1426,97 +1411,92 @@
       <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="24" t="s">
+      <c r="A17" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="B17" s="25"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
     </row>
     <row r="18" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="27" t="s">
+      <c r="A18" s="26" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="27"/>
-      <c r="C18" s="27"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="16" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="17">
         <v>1</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="30"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="17">
         <f>B19+1</f>
         <v>2</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>20</v>
+      <c r="C20" s="13" t="s">
+        <v>13</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="30"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="17">
         <f>B20+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="13" t="s">
-        <v>21</v>
+      <c r="C21" s="17" t="s">
+        <v>19</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="30"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="17">
         <f>B21+1</f>
         <v>4</v>
       </c>
-      <c r="C22" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D22" s="20" t="s">
-        <v>9</v>
-      </c>
+      <c r="D22" s="18"/>
     </row>
     <row r="23" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+      <c r="A23" s="21" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
     </row>
     <row r="24" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="31" t="s">
-        <v>25</v>
-      </c>
-      <c r="B24" s="32"/>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
+      <c r="A24" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="34"/>
-      <c r="B25" s="35"/>
-      <c r="C25" s="35"/>
-      <c r="D25" s="36"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1572,26 +1552,26 @@
       <c r="H2" s="6"/>
       <c r="I2" s="9"/>
       <c r="J2" s="10" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="C3" s="38"/>
-      <c r="D3" s="38"/>
-      <c r="E3" s="38"/>
-      <c r="F3" s="38"/>
-      <c r="G3" s="39"/>
+      <c r="B3" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -1600,14 +1580,14 @@
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="40" t="s">
-        <v>30</v>
-      </c>
-      <c r="C4" s="41"/>
-      <c r="D4" s="41"/>
-      <c r="E4" s="41"/>
-      <c r="F4" s="41"/>
-      <c r="G4" s="42"/>
+      <c r="B4" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -1616,16 +1596,16 @@
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="45" t="s">
-        <v>31</v>
-      </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="47" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="48"/>
+      <c r="B5" s="44" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -1634,12 +1614,12 @@
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="45"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="48"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -1648,12 +1628,12 @@
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="45"/>
-      <c r="C7" s="46"/>
-      <c r="D7" s="47"/>
-      <c r="E7" s="47"/>
-      <c r="F7" s="47"/>
-      <c r="G7" s="48"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -1662,12 +1642,12 @@
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="45"/>
-      <c r="C8" s="46"/>
-      <c r="D8" s="47"/>
-      <c r="E8" s="47"/>
-      <c r="F8" s="47"/>
-      <c r="G8" s="48"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -1676,12 +1656,12 @@
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="45"/>
-      <c r="C9" s="46"/>
-      <c r="D9" s="47"/>
-      <c r="E9" s="47"/>
-      <c r="F9" s="47"/>
-      <c r="G9" s="48"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
@@ -1690,12 +1670,12 @@
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="45"/>
-      <c r="C10" s="46"/>
-      <c r="D10" s="47"/>
-      <c r="E10" s="47"/>
-      <c r="F10" s="47"/>
-      <c r="G10" s="48"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -1704,12 +1684,12 @@
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="46"/>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="47"/>
-      <c r="G11" s="48"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
@@ -1718,12 +1698,12 @@
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="45"/>
-      <c r="C12" s="46"/>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="47"/>
-      <c r="G12" s="48"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -1732,14 +1712,14 @@
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="40" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="42"/>
+      <c r="B13" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -1749,19 +1729,19 @@
     <row r="14" spans="1:13" s="2" customFormat="1" ht="351" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="43"/>
-      <c r="G14" s="44"/>
+        <v>32</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -1794,37 +1774,37 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\git_code\myCode\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C211F42-E260-4C45-90F9-669E02F823A1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06D3875-61CE-46C7-9989-9FA94514A775}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
   <si>
     <t>季度重点工作</t>
   </si>
@@ -71,24 +71,9 @@
     <t>持续进行</t>
   </si>
   <si>
-    <t>小程序修bug</t>
-  </si>
-  <si>
     <t>完成</t>
   </si>
   <si>
-    <t>爱尔眼科取数调整</t>
-  </si>
-  <si>
-    <t>增量清洗</t>
-  </si>
-  <si>
-    <t>线上协助驾驶舱优化</t>
-  </si>
-  <si>
-    <t>云南交通实时驾驶舱帆软实现</t>
-  </si>
-  <si>
     <t>临时事项</t>
   </si>
   <si>
@@ -98,14 +83,7 @@
     <t>预计达到的目标</t>
   </si>
   <si>
-    <t>视频制作研究</t>
-  </si>
-  <si>
     <t>工作总结</t>
-  </si>
-  <si>
-    <t>1.自动化现在越写越难过，很多东西想要整合成一个函数很麻烦，虽然都是条形图，但是格式相差太大加上我对pyecharts不是很熟悉，很难用一个函数传不同的参数实现，到后面只能摆烂重新写一个函数了，其实对程序的运行倒是没什么影响，但代码中有太多重复的东西是经典的坏味道。不过好像也管不了这么多了，时间不够了
-2.小程序有两个bug，一个是-0.00%的问题，这个还不算严重，另一个是跑不出来的问题，其实就是遇到了字符串形式的百分比和数字运算报错了，老师当时还急着催我要，于是先没修bug给老师发了一版没把小数转化为百分数的excel，但以普遍理性而言写程序有bug很正常，锅应该甩给测试头上。但是这个程序是我单人开发的，没办法甩锅了</t>
   </si>
   <si>
     <t>上周</t>
@@ -345,6 +323,31 @@
   </si>
   <si>
     <t>龙辛柯-周报(2023年06月05日-2023年06月11日)6月第2周</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.记录一个粗心导致的错误，实时招聘会的校外签到人数因为没看到要该学校名称导致数据有误
+2.重构自动化代码暂时搁置，本以为是顺手整理一下，其实做了才发现工作量很大，做了很久才重构了一章的内容。先暂且在原来的代码上做修改吧。</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北省增量清洗</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>全国岗位发布信息取数在阿里云实现</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北省同步错误</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>ai制作视频探讨</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化代码讲解</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -352,7 +355,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="19" x14ac:knownFonts="1">
+  <fonts count="20" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -480,6 +483,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="7">
@@ -796,7 +806,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -857,54 +867,51 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -940,6 +947,15 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1226,7 +1242,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="A24" sqref="A24:D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1239,53 +1255,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
-        <v>41</v>
-      </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
+      <c r="A1" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
     </row>
     <row r="2" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="A2" s="29" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
       <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+      <c r="A3" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
       <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+      <c r="A6" s="30" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="17">
@@ -1295,76 +1311,66 @@
         <v>8</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
+      <c r="A7" s="31"/>
       <c r="B7" s="17">
         <f t="shared" ref="B7:B16" si="0">B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="48" t="s">
+        <v>36</v>
+      </c>
+      <c r="D7" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D7" s="18" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
+      <c r="A8" s="31"/>
       <c r="B8" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>12</v>
+      <c r="C8" s="48" t="s">
+        <v>37</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
+      <c r="A9" s="31"/>
       <c r="B9" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>13</v>
+      <c r="C9" s="49" t="s">
+        <v>38</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
+      <c r="A10" s="31"/>
       <c r="B10" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D10" s="18" t="s">
-        <v>11</v>
-      </c>
+      <c r="C10" s="17"/>
     </row>
     <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
+      <c r="A11" s="31"/>
       <c r="B11" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="13" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="18" t="s">
-        <v>11</v>
-      </c>
+      <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
+      <c r="A12" s="31"/>
       <c r="B12" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1373,8 +1379,8 @@
       <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
-        <v>16</v>
+      <c r="A13" s="32" t="s">
+        <v>11</v>
       </c>
       <c r="B13" s="17">
         <f t="shared" si="0"/>
@@ -1384,7 +1390,7 @@
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
+      <c r="A14" s="32"/>
       <c r="B14" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1393,7 +1399,7 @@
       <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
+      <c r="A15" s="32"/>
       <c r="B15" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1402,7 +1408,7 @@
       <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
+      <c r="A16" s="32"/>
       <c r="B16" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1411,65 +1417,65 @@
       <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>17</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
+      <c r="A17" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
     </row>
     <row r="18" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="A18" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
       <c r="D18" s="16" t="s">
-        <v>18</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="32" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="17">
         <v>1</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>8</v>
+      <c r="C19" s="48" t="s">
+        <v>36</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
+      <c r="A20" s="32"/>
       <c r="B20" s="17">
         <f>B19+1</f>
         <v>2</v>
       </c>
-      <c r="C20" s="13" t="s">
-        <v>13</v>
+      <c r="C20" s="48" t="s">
+        <v>39</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
+      <c r="A21" s="32"/>
       <c r="B21" s="17">
         <f>B20+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>19</v>
+      <c r="C21" s="48" t="s">
+        <v>40</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
+      <c r="A22" s="32"/>
       <c r="B22" s="17">
         <f>B21+1</f>
         <v>4</v>
@@ -1477,29 +1483,34 @@
       <c r="D22" s="18"/>
     </row>
     <row r="23" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
+      <c r="A23" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
+      <c r="A24" s="47" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A24:D25"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:C18"/>
@@ -1507,11 +1518,6 @@
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1552,26 +1558,26 @@
       <c r="H2" s="6"/>
       <c r="I2" s="9"/>
       <c r="J2" s="10" t="s">
-        <v>22</v>
+        <v>15</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="36" t="s">
-        <v>25</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
+      <c r="B3" s="35" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="37"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -1580,14 +1586,14 @@
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
+      <c r="B4" s="38" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="40"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -1596,16 +1602,16 @@
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="44" t="s">
-        <v>27</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46" t="s">
-        <v>28</v>
-      </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47"/>
+      <c r="B5" s="43" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="44"/>
+      <c r="D5" s="45" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" s="45"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="46"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -1614,12 +1620,12 @@
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="44"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="46"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -1628,12 +1634,12 @@
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="44"/>
+      <c r="D7" s="45"/>
+      <c r="E7" s="45"/>
+      <c r="F7" s="45"/>
+      <c r="G7" s="46"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -1642,12 +1648,12 @@
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
+      <c r="B8" s="43"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="45"/>
+      <c r="G8" s="46"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -1656,12 +1662,12 @@
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
+      <c r="B9" s="43"/>
+      <c r="C9" s="44"/>
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+      <c r="F9" s="45"/>
+      <c r="G9" s="46"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
@@ -1670,12 +1676,12 @@
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
+      <c r="B10" s="43"/>
+      <c r="C10" s="44"/>
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+      <c r="F10" s="45"/>
+      <c r="G10" s="46"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -1684,12 +1690,12 @@
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
+      <c r="B11" s="43"/>
+      <c r="C11" s="44"/>
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+      <c r="F11" s="45"/>
+      <c r="G11" s="46"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
@@ -1698,12 +1704,12 @@
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
+      <c r="B12" s="43"/>
+      <c r="C12" s="44"/>
+      <c r="D12" s="45"/>
+      <c r="E12" s="45"/>
+      <c r="F12" s="45"/>
+      <c r="G12" s="46"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -1712,14 +1718,14 @@
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
+      <c r="B13" s="38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="39"/>
+      <c r="D13" s="39"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="40"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -1729,19 +1735,19 @@
     <row r="14" spans="1:13" s="2" customFormat="1" ht="351" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E14" s="42" t="s">
-        <v>33</v>
-      </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
+        <v>25</v>
+      </c>
+      <c r="E14" s="41" t="s">
+        <v>26</v>
+      </c>
+      <c r="F14" s="41"/>
+      <c r="G14" s="42"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -1774,37 +1780,37 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
     </row>
   </sheetData>

--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20398"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20399"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\git_code\myCode\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B06D3875-61CE-46C7-9989-9FA94514A775}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4082655-1280-4DFB-86B7-4FFC8A9BF4DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -322,10 +322,6 @@
     <t>5、每周最后一个工作日（一般周五）晚上12点之前通过邮件发送到数据事业部，抄送孙柏，如本周及下周工作需要其他部门相关责任人知晓，请一并抄送。</t>
   </si>
   <si>
-    <t>龙辛柯-周报(2023年06月05日-2023年06月11日)6月第2周</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>1.记录一个粗心导致的错误，实时招聘会的校外签到人数因为没看到要该学校名称导致数据有误
 2.重构自动化代码暂时搁置，本以为是顺手整理一下，其实做了才发现工作量很大，做了很久才重构了一章的内容。先暂且在原来的代码上做修改吧。</t>
     <phoneticPr fontId="18" type="noConversion"/>
@@ -348,6 +344,10 @@
   </si>
   <si>
     <t>自动化代码讲解</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙辛柯-周报(2023年06月12日-2023年06月18日)6月第3周</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -867,6 +867,15 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -947,15 +956,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1255,53 +1255,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
-        <v>34</v>
-      </c>
-      <c r="B1" s="33"/>
-      <c r="C1" s="33"/>
-      <c r="D1" s="33"/>
+      <c r="A1" s="36" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
     </row>
     <row r="2" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
       <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="34" t="s">
+      <c r="A3" s="37" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
+      <c r="B3" s="37"/>
+      <c r="C3" s="37"/>
       <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
+      <c r="B4" s="29"/>
+      <c r="C4" s="29"/>
+      <c r="D4" s="30"/>
     </row>
     <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
+      <c r="A5" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="B5" s="31"/>
+      <c r="C5" s="31"/>
       <c r="D5" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="33" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="17">
@@ -1315,46 +1315,46 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="31"/>
+      <c r="A7" s="34"/>
       <c r="B7" s="17">
         <f t="shared" ref="B7:B16" si="0">B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="48" t="s">
-        <v>36</v>
+      <c r="C7" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="31"/>
+      <c r="A8" s="34"/>
       <c r="B8" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C8" s="48" t="s">
-        <v>37</v>
+      <c r="C8" s="20" t="s">
+        <v>36</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="31"/>
+      <c r="A9" s="34"/>
       <c r="B9" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="49" t="s">
-        <v>38</v>
+      <c r="C9" s="21" t="s">
+        <v>37</v>
       </c>
       <c r="D9" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="31"/>
+      <c r="A10" s="34"/>
       <c r="B10" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1362,7 +1362,7 @@
       <c r="C10" s="17"/>
     </row>
     <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="31"/>
+      <c r="A11" s="34"/>
       <c r="B11" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1370,7 +1370,7 @@
       <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="31"/>
+      <c r="A12" s="34"/>
       <c r="B12" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1379,7 +1379,7 @@
       <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="35" t="s">
         <v>11</v>
       </c>
       <c r="B13" s="17">
@@ -1390,7 +1390,7 @@
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="32"/>
+      <c r="A14" s="35"/>
       <c r="B14" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1399,7 +1399,7 @@
       <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="32"/>
+      <c r="A15" s="35"/>
       <c r="B15" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1408,7 +1408,7 @@
       <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="32"/>
+      <c r="A16" s="35"/>
       <c r="B16" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1417,65 +1417,65 @@
       <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
     </row>
     <row r="18" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="31" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
+      <c r="B18" s="31"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="16" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="32" t="s">
+      <c r="A19" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="17">
         <v>1</v>
       </c>
-      <c r="C19" s="48" t="s">
-        <v>36</v>
+      <c r="C19" s="20" t="s">
+        <v>35</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="32"/>
+      <c r="A20" s="35"/>
       <c r="B20" s="17">
         <f>B19+1</f>
         <v>2</v>
       </c>
-      <c r="C20" s="48" t="s">
-        <v>39</v>
+      <c r="C20" s="20" t="s">
+        <v>38</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="32"/>
+      <c r="A21" s="35"/>
       <c r="B21" s="17">
         <f>B20+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="48" t="s">
-        <v>40</v>
+      <c r="C21" s="20" t="s">
+        <v>39</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="32"/>
+      <c r="A22" s="35"/>
       <c r="B22" s="17">
         <f>B21+1</f>
         <v>4</v>
@@ -1483,26 +1483,26 @@
       <c r="D22" s="18"/>
     </row>
     <row r="23" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="29" t="s">
+      <c r="A23" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="47" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
+      <c r="A24" s="22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B24" s="23"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="24"/>
     </row>
     <row r="25" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="27"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1570,14 +1570,14 @@
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="35" t="s">
+      <c r="B3" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="36"/>
-      <c r="D3" s="36"/>
-      <c r="E3" s="36"/>
-      <c r="F3" s="36"/>
-      <c r="G3" s="37"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="40"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -1586,14 +1586,14 @@
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="38" t="s">
+      <c r="B4" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39"/>
-      <c r="F4" s="39"/>
-      <c r="G4" s="40"/>
+      <c r="C4" s="42"/>
+      <c r="D4" s="42"/>
+      <c r="E4" s="42"/>
+      <c r="F4" s="42"/>
+      <c r="G4" s="43"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -1602,16 +1602,16 @@
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="46" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="44"/>
-      <c r="D5" s="45" t="s">
+      <c r="C5" s="47"/>
+      <c r="D5" s="48" t="s">
         <v>21</v>
       </c>
-      <c r="E5" s="45"/>
-      <c r="F5" s="45"/>
-      <c r="G5" s="46"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="49"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -1620,12 +1620,12 @@
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="44"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="46"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="47"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="49"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -1634,12 +1634,12 @@
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="44"/>
-      <c r="D7" s="45"/>
-      <c r="E7" s="45"/>
-      <c r="F7" s="45"/>
-      <c r="G7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="47"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="49"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -1648,12 +1648,12 @@
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="43"/>
-      <c r="C8" s="44"/>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="45"/>
-      <c r="G8" s="46"/>
+      <c r="B8" s="46"/>
+      <c r="C8" s="47"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="49"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -1662,12 +1662,12 @@
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="43"/>
-      <c r="C9" s="44"/>
-      <c r="D9" s="45"/>
-      <c r="E9" s="45"/>
-      <c r="F9" s="45"/>
-      <c r="G9" s="46"/>
+      <c r="B9" s="46"/>
+      <c r="C9" s="47"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="49"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
@@ -1676,12 +1676,12 @@
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="43"/>
-      <c r="C10" s="44"/>
-      <c r="D10" s="45"/>
-      <c r="E10" s="45"/>
-      <c r="F10" s="45"/>
-      <c r="G10" s="46"/>
+      <c r="B10" s="46"/>
+      <c r="C10" s="47"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="49"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -1690,12 +1690,12 @@
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="43"/>
-      <c r="C11" s="44"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="49"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
@@ -1704,12 +1704,12 @@
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="43"/>
-      <c r="C12" s="44"/>
-      <c r="D12" s="45"/>
-      <c r="E12" s="45"/>
-      <c r="F12" s="45"/>
-      <c r="G12" s="46"/>
+      <c r="B12" s="46"/>
+      <c r="C12" s="47"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="49"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -1718,14 +1718,14 @@
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="38" t="s">
+      <c r="B13" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="40"/>
+      <c r="C13" s="42"/>
+      <c r="D13" s="42"/>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="43"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -1743,11 +1743,11 @@
       <c r="D14" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E14" s="41" t="s">
+      <c r="E14" s="44" t="s">
         <v>26</v>
       </c>
-      <c r="F14" s="41"/>
-      <c r="G14" s="42"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="45"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>

--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\git_code\myCode\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4082655-1280-4DFB-86B7-4FFC8A9BF4DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D5DA61-6504-41CA-885B-E73417C32D47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
   <si>
     <t>季度重点工作</t>
   </si>
@@ -63,9 +63,6 @@
   </si>
   <si>
     <t>规划内工作</t>
-  </si>
-  <si>
-    <t>自动化报告重构</t>
   </si>
   <si>
     <t>持续进行</t>
@@ -322,23 +319,10 @@
     <t>5、每周最后一个工作日（一般周五）晚上12点之前通过邮件发送到数据事业部，抄送孙柏，如本周及下周工作需要其他部门相关责任人知晓，请一并抄送。</t>
   </si>
   <si>
-    <t>1.记录一个粗心导致的错误，实时招聘会的校外签到人数因为没看到要该学校名称导致数据有误
-2.重构自动化代码暂时搁置，本以为是顺手整理一下，其实做了才发现工作量很大，做了很久才重构了一章的内容。先暂且在原来的代码上做修改吧。</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>湖北省增量清洗</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>全国岗位发布信息取数在阿里云实现</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖北省同步错误</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>ai制作视频探讨</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
@@ -348,6 +332,26 @@
   </si>
   <si>
     <t>龙辛柯-周报(2023年06月12日-2023年06月18日)6月第3周</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>熟悉剪映制作视频的流程</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.市面上的视频制作软件已经很成熟了，剪映也可以实现输入文字自动生成视频，没必要自己搞代码去自动化（主要是我也写不出来），但可以在使用剪辑软件的时候总结一下哪些地方是重复性的工作可以用代码自动化实现</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖北省回退增量同步与增量清洗并验证</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>设置数睿交换机调度为一天一次</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -806,7 +810,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -873,6 +877,27 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -891,21 +916,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -915,12 +925,6 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -956,6 +960,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="19" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1242,7 +1249,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:D25"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1255,114 +1262,113 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
+      <c r="A1" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
     </row>
     <row r="2" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="32" t="s">
+      <c r="A2" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="32"/>
-      <c r="C2" s="32"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
       <c r="D2" s="14" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
       <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="29"/>
-      <c r="C4" s="29"/>
-      <c r="D4" s="30"/>
+      <c r="B4" s="26"/>
+      <c r="C4" s="26"/>
+      <c r="D4" s="27"/>
     </row>
     <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="31" t="s">
+      <c r="A5" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="31"/>
-      <c r="C5" s="31"/>
+      <c r="B5" s="28"/>
+      <c r="C5" s="28"/>
       <c r="D5" s="16" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="33" t="s">
+      <c r="A6" s="35" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="17">
         <v>1</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="18" t="s">
-        <v>10</v>
+      <c r="C6" s="20" t="s">
+        <v>37</v>
+      </c>
+      <c r="D6" s="50" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="34"/>
+      <c r="A7" s="36"/>
       <c r="B7" s="17">
         <f t="shared" ref="B7:B16" si="0">B6+1</f>
         <v>2</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="34"/>
+      <c r="A8" s="36"/>
       <c r="B8" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34"/>
+      <c r="A9" s="36"/>
       <c r="B9" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="21" t="s">
-        <v>37</v>
-      </c>
+      <c r="C9" s="21"/>
       <c r="D9" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34"/>
+      <c r="A10" s="36"/>
       <c r="B10" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C10" s="17"/>
+      <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34"/>
+      <c r="A11" s="36"/>
       <c r="B11" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1370,7 +1376,7 @@
       <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34"/>
+      <c r="A12" s="36"/>
       <c r="B12" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1379,8 +1385,8 @@
       <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="35" t="s">
-        <v>11</v>
+      <c r="A13" s="37" t="s">
+        <v>10</v>
       </c>
       <c r="B13" s="17">
         <f t="shared" si="0"/>
@@ -1390,7 +1396,7 @@
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="35"/>
+      <c r="A14" s="37"/>
       <c r="B14" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1399,7 +1405,7 @@
       <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="35"/>
+      <c r="A15" s="37"/>
       <c r="B15" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1408,7 +1414,7 @@
       <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="35"/>
+      <c r="A16" s="37"/>
       <c r="B16" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1417,65 +1423,65 @@
       <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="27"/>
+    </row>
+    <row r="18" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="28" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-    </row>
-    <row r="18" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="31"/>
-      <c r="C18" s="31"/>
-      <c r="D18" s="16" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="19" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="37" t="s">
         <v>7</v>
       </c>
       <c r="B19" s="17">
         <v>1</v>
       </c>
       <c r="C19" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="35"/>
+      <c r="A20" s="37"/>
       <c r="B20" s="17">
         <f>B19+1</f>
         <v>2</v>
       </c>
       <c r="C20" s="20" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="35"/>
+      <c r="A21" s="37"/>
       <c r="B21" s="17">
         <f>B20+1</f>
         <v>3</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="35"/>
+      <c r="A22" s="37"/>
       <c r="B22" s="17">
         <f>B21+1</f>
         <v>4</v>
@@ -1483,34 +1489,29 @@
       <c r="D22" s="18"/>
     </row>
     <row r="23" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="32" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
+      <c r="A23" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
     </row>
     <row r="24" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="24"/>
+      <c r="A24" s="29" t="s">
+        <v>38</v>
+      </c>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="31"/>
     </row>
     <row r="25" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="25"/>
-      <c r="B25" s="26"/>
-      <c r="C25" s="26"/>
-      <c r="D25" s="27"/>
+      <c r="A25" s="32"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A24:D25"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:C18"/>
@@ -1518,6 +1519,11 @@
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1558,20 +1564,20 @@
       <c r="H2" s="6"/>
       <c r="I2" s="9"/>
       <c r="J2" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="L2" s="10" t="s">
         <v>16</v>
-      </c>
-      <c r="L2" s="10" t="s">
-        <v>17</v>
       </c>
       <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
       <c r="B3" s="38" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" s="39"/>
       <c r="D3" s="39"/>
@@ -1587,7 +1593,7 @@
     <row r="4" spans="1:13" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
       <c r="B4" s="41" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" s="42"/>
       <c r="D4" s="42"/>
@@ -1603,11 +1609,11 @@
     <row r="5" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
       <c r="B5" s="46" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" s="47"/>
       <c r="D5" s="48" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E5" s="48"/>
       <c r="F5" s="48"/>
@@ -1719,7 +1725,7 @@
     <row r="13" spans="1:13" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
       <c r="B13" s="41" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C13" s="42"/>
       <c r="D13" s="42"/>
@@ -1735,16 +1741,16 @@
     <row r="14" spans="1:13" s="2" customFormat="1" ht="351" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C14" s="8" t="s">
+      <c r="D14" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="E14" s="44" t="s">
         <v>25</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>26</v>
       </c>
       <c r="F14" s="44"/>
       <c r="G14" s="45"/>
@@ -1780,37 +1786,37 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
   </sheetData>

--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\git_code\myCode\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{94D5DA61-6504-41CA-885B-E73417C32D47}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABC7228-1800-4588-8A2C-5CE7B55A6615}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
   <si>
     <t>季度重点工作</t>
   </si>
@@ -47,6 +47,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>工作完成情况及</t>
@@ -56,6 +57,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>未完成工作原因</t>
@@ -104,6 +106,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>客户动态宏观分析：</t>
@@ -114,6 +117,7 @@
         <sz val="11"/>
         <color theme="1" tint="0.499984740745262"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">（对客户行为进行综合分析，禁止流水账）
@@ -123,6 +127,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -133,6 +138,7 @@
         <b/>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>标杆客户动态：</t>
@@ -141,6 +147,7 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -151,6 +158,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -164,6 +172,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>部门动态：</t>
@@ -174,6 +183,7 @@
         <sz val="12"/>
         <color theme="1" tint="0.499984740745262"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>（如：工作进展、人员压力、学习与分享、内部创新、价值观案例等）</t>
@@ -184,6 +194,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -195,6 +206,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -206,6 +218,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">报告工作
@@ -216,6 +229,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -227,6 +241,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他</t>
@@ -236,6 +251,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -251,6 +267,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>政府动态：（如：教育部、就业指导中心、省人社、市人社等）</t>
@@ -261,6 +278,7 @@
         <sz val="12"/>
         <color theme="1" tint="0.499984740745262"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -278,6 +296,7 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>竞争动态：</t>
@@ -287,6 +306,7 @@
         <b/>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">（如：麦可思、新锦成、才立方等）
@@ -319,39 +339,45 @@
     <t>5、每周最后一个工作日（一般周五）晚上12点之前通过邮件发送到数据事业部，抄送孙柏，如本周及下周工作需要其他部门相关责任人知晓，请一并抄送。</t>
   </si>
   <si>
-    <t>湖北省增量清洗</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>ai制作视频探讨</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>自动化代码讲解</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>龙辛柯-周报(2023年06月12日-2023年06月18日)6月第3周</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>熟悉剪映制作视频的流程</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.市面上的视频制作软件已经很成熟了，剪映也可以实现输入文字自动生成视频，没必要自己搞代码去自动化（主要是我也写不出来），但可以在使用剪辑软件的时候总结一下哪些地方是重复性的工作可以用代码自动化实现</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖北省回退增量同步与增量清洗并验证</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
     <t>完成</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>设置数睿交换机调度为一天一次</t>
+    <t>自动化其他bug修复</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙辛柯-周报(2023年06月26日-2023年07月02日)6月第5周</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>大表加入自动化报告，表格样式可能需要朱黎加一下</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰州理工重点单位近三届校招情况取数</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>汇总行不显示特殊格式问题解决</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰州理工小程序匹配优化</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.python对于word的支持不是很完善，有些功能用代码实现不了，比如添加表格的时候特殊样式不显示汇总行需要手动勾选，我也找不到能用代码解决的方法，可能需要另辟蹊径研究一下自动点击脚本了
+2.啊不对不对，代码里用style设置不了最后一行的话，我直接去改最后一行的格式不就行了吗
+3.在研究怎么改词云图颜色的时候老是报错没有这个参数，后来才发现自己查到的方法不是pyecharts 的词云图，是一个wordcloud 库的词云图——然后发现pyecharts根本就设置不了颜色，我转头就pip了一个wordcloud库</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>调研系统</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -372,6 +398,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -379,6 +406,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -386,6 +414,7 @@
       <sz val="12"/>
       <color theme="0" tint="-0.14954069643238624"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -394,6 +423,7 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -402,6 +432,7 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -409,6 +440,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -416,6 +448,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -423,24 +456,28 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -449,17 +486,20 @@
       <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -467,18 +507,21 @@
       <sz val="12"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -810,7 +853,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -874,8 +917,8 @@
     <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="9" fontId="19" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -898,7 +941,7 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -960,9 +1003,6 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1249,7 +1289,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1314,11 +1354,11 @@
       <c r="B6" s="17">
         <v>1</v>
       </c>
-      <c r="C6" s="20" t="s">
+      <c r="C6" s="17" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="50" t="s">
-        <v>40</v>
+      <c r="D6" s="21" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -1327,8 +1367,8 @@
         <f t="shared" ref="B7:B16" si="0">B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="20" t="s">
-        <v>39</v>
+      <c r="C7" s="17" t="s">
+        <v>38</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>9</v>
@@ -1340,8 +1380,8 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>41</v>
+      <c r="C8" s="17" t="s">
+        <v>39</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>9</v>
@@ -1353,7 +1393,9 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="21"/>
+      <c r="C9" s="13" t="s">
+        <v>40</v>
+      </c>
       <c r="D9" s="18" t="s">
         <v>9</v>
       </c>
@@ -1447,8 +1489,8 @@
       <c r="B19" s="17">
         <v>1</v>
       </c>
-      <c r="C19" s="20" t="s">
-        <v>33</v>
+      <c r="C19" s="17" t="s">
+        <v>42</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>9</v>
@@ -1460,8 +1502,8 @@
         <f>B19+1</f>
         <v>2</v>
       </c>
-      <c r="C20" s="20" t="s">
-        <v>34</v>
+      <c r="C20" s="17" t="s">
+        <v>35</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>9</v>
@@ -1474,7 +1516,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D21" s="18" t="s">
         <v>8</v>
@@ -1498,7 +1540,7 @@
     </row>
     <row r="24" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="29" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B24" s="30"/>
       <c r="C24" s="30"/>

--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\git_code\myCode\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AABC7228-1800-4588-8A2C-5CE7B55A6615}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E70251A-4758-47F8-B801-7B643E5D8F04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
+  <si>
+    <t>龙辛柯-周报(2023年06月26日-2023年07月02日)6月第5周</t>
+  </si>
   <si>
     <t>季度重点工作</t>
   </si>
@@ -47,7 +50,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>工作完成情况及</t>
@@ -57,7 +59,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>未完成工作原因</t>
@@ -67,22 +68,36 @@
     <t>规划内工作</t>
   </si>
   <si>
+    <t>完成</t>
+  </si>
+  <si>
+    <t>临时事项</t>
+  </si>
+  <si>
+    <t>下周工作安排</t>
+  </si>
+  <si>
+    <t>预计达到的目标</t>
+  </si>
+  <si>
+    <t>调研系统</t>
+  </si>
+  <si>
+    <t>自动化其他bug修复</t>
+  </si>
+  <si>
+    <t>自动化代码讲解</t>
+  </si>
+  <si>
     <t>持续进行</t>
   </si>
   <si>
-    <t>完成</t>
-  </si>
-  <si>
-    <t>临时事项</t>
-  </si>
-  <si>
-    <t>下周工作安排</t>
-  </si>
-  <si>
-    <t>预计达到的目标</t>
-  </si>
-  <si>
     <t>工作总结</t>
+  </si>
+  <si>
+    <t>1.python对于word的支持不是很完善，有些功能用代码实现不了，比如添加表格的时候特殊样式不显示汇总行需要手动勾选，我也找不到能用代码解决的方法，可能需要另辟蹊径研究一下自动点击脚本了
+2.啊不对不对，代码里用style设置不了最后一行的话，我直接去改最后一行的格式不就行了吗
+3.在研究怎么改词云图颜色的时候老是报错没有这个参数，后来才发现自己查到的方法不是pyecharts 的词云图，是一个wordcloud 库的词云图——然后发现pyecharts根本就设置不了颜色，我转头就pip了一个wordcloud库</t>
   </si>
   <si>
     <t>上周</t>
@@ -106,7 +121,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>客户动态宏观分析：</t>
@@ -117,7 +131,6 @@
         <sz val="11"/>
         <color theme="1" tint="0.499984740745262"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">（对客户行为进行综合分析，禁止流水账）
@@ -127,7 +140,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -138,7 +150,6 @@
         <b/>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>标杆客户动态：</t>
@@ -147,7 +158,6 @@
       <rPr>
         <sz val="11"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve"> </t>
@@ -158,7 +168,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -172,7 +181,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>部门动态：</t>
@@ -183,7 +191,6 @@
         <sz val="12"/>
         <color theme="1" tint="0.499984740745262"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>（如：工作进展、人员压力、学习与分享、内部创新、价值观案例等）</t>
@@ -194,7 +201,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -206,7 +212,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -218,7 +223,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">报告工作
@@ -229,7 +233,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -241,7 +244,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>其他</t>
@@ -251,7 +253,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -267,7 +268,6 @@
         <b/>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>政府动态：（如：教育部、就业指导中心、省人社、市人社等）</t>
@@ -278,7 +278,6 @@
         <sz val="12"/>
         <color theme="1" tint="0.499984740745262"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">
@@ -296,7 +295,6 @@
         <sz val="12"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>竞争动态：</t>
@@ -306,7 +304,6 @@
         <b/>
         <sz val="12"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">（如：麦可思、新锦成、才立方等）
@@ -339,45 +336,15 @@
     <t>5、每周最后一个工作日（一般周五）晚上12点之前通过邮件发送到数据事业部，抄送孙柏，如本周及下周工作需要其他部门相关责任人知晓，请一并抄送。</t>
   </si>
   <si>
-    <t>自动化代码讲解</t>
+    <t>天津校招取数</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>完成</t>
+    <t>校招屏加筛选框</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
   <si>
-    <t>自动化其他bug修复</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙辛柯-周报(2023年06月26日-2023年07月02日)6月第5周</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>大表加入自动化报告，表格样式可能需要朱黎加一下</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰州理工重点单位近三届校招情况取数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>汇总行不显示特殊格式问题解决</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰州理工小程序匹配优化</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.python对于word的支持不是很完善，有些功能用代码实现不了，比如添加表格的时候特殊样式不显示汇总行需要手动勾选，我也找不到能用代码解决的方法，可能需要另辟蹊径研究一下自动点击脚本了
-2.啊不对不对，代码里用style设置不了最后一行的话，我直接去改最后一行的格式不就行了吗
-3.在研究怎么改词云图颜色的时候老是报错没有这个参数，后来才发现自己查到的方法不是pyecharts 的词云图，是一个wordcloud 库的词云图——然后发现pyecharts根本就设置不了颜色，我转头就pip了一个wordcloud库</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>调研系统</t>
+    <t>补充师范生非师范生等分析仪</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -398,7 +365,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -406,15 +372,13 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0" tint="-0.14954069643238624"/>
+      <color theme="0" tint="-0.14951017792291024"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -423,7 +387,6 @@
       <sz val="9"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -432,7 +395,6 @@
       <sz val="20"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -440,7 +402,6 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -448,7 +409,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -456,28 +416,24 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="12"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -486,20 +442,17 @@
       <sz val="11"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -507,21 +460,18 @@
       <sz val="12"/>
       <color theme="1" tint="0.499984740745262"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -572,7 +522,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14954069643238624"/>
+        <fgColor theme="0" tint="-0.14951017792291024"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -853,7 +803,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -914,12 +864,6 @@
     <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="19" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -941,6 +885,15 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -959,15 +912,6 @@
     <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1003,6 +947,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -1289,7 +1236,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1302,106 +1249,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
-        <v>36</v>
-      </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="A1" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
     </row>
     <row r="2" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
+      <c r="A2" s="21" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
       <c r="D2" s="14" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="A3" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="15" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="27"/>
+      <c r="A4" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="25"/>
     </row>
     <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" s="28"/>
-      <c r="C5" s="28"/>
+      <c r="A5" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="26"/>
+      <c r="C5" s="26"/>
       <c r="D5" s="16" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="35" t="s">
-        <v>7</v>
+      <c r="A6" s="27" t="s">
+        <v>8</v>
       </c>
       <c r="B6" s="17">
         <v>1</v>
       </c>
-      <c r="C6" s="17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="21" t="s">
-        <v>34</v>
+      <c r="C6" s="48" t="s">
+        <v>38</v>
+      </c>
+      <c r="D6" s="18" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="36"/>
+      <c r="A7" s="28"/>
       <c r="B7" s="17">
         <f t="shared" ref="B7:B16" si="0">B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="17" t="s">
-        <v>38</v>
+      <c r="C7" s="48" t="s">
+        <v>39</v>
       </c>
       <c r="D7" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="36"/>
+      <c r="A8" s="28"/>
       <c r="B8" s="17">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C8" s="17" t="s">
-        <v>39</v>
+      <c r="C8" s="48" t="s">
+        <v>40</v>
       </c>
       <c r="D8" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="36"/>
+      <c r="A9" s="28"/>
       <c r="B9" s="17">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>40</v>
-      </c>
       <c r="D9" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="36"/>
+      <c r="A10" s="28"/>
       <c r="B10" s="17">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -1410,7 +1354,7 @@
       <c r="D10" s="18"/>
     </row>
     <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="36"/>
+      <c r="A11" s="28"/>
       <c r="B11" s="17">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -1418,7 +1362,7 @@
       <c r="D11" s="18"/>
     </row>
     <row r="12" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="36"/>
+      <c r="A12" s="28"/>
       <c r="B12" s="17">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -1427,7 +1371,7 @@
       <c r="D12" s="17"/>
     </row>
     <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="37" t="s">
+      <c r="A13" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B13" s="17">
@@ -1438,7 +1382,7 @@
       <c r="D13" s="18"/>
     </row>
     <row r="14" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="37"/>
+      <c r="A14" s="29"/>
       <c r="B14" s="17">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -1447,7 +1391,7 @@
       <c r="D14" s="18"/>
     </row>
     <row r="15" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="37"/>
+      <c r="A15" s="29"/>
       <c r="B15" s="17">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -1456,7 +1400,7 @@
       <c r="D15" s="18"/>
     </row>
     <row r="16" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="37"/>
+      <c r="A16" s="29"/>
       <c r="B16" s="17">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -1465,65 +1409,65 @@
       <c r="D16" s="17"/>
     </row>
     <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="27"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="25"/>
     </row>
     <row r="18" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="28" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
+      <c r="A18" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="26"/>
+      <c r="C18" s="26"/>
       <c r="D18" s="16" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
-        <v>7</v>
+      <c r="A19" s="29" t="s">
+        <v>8</v>
       </c>
       <c r="B19" s="17">
         <v>1</v>
       </c>
       <c r="C19" s="17" t="s">
-        <v>42</v>
+        <v>13</v>
       </c>
       <c r="D19" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="37"/>
+      <c r="A20" s="29"/>
       <c r="B20" s="17">
         <f>B19+1</f>
         <v>2</v>
       </c>
       <c r="C20" s="17" t="s">
-        <v>35</v>
+        <v>14</v>
       </c>
       <c r="D20" s="18" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="37"/>
+      <c r="A21" s="29"/>
       <c r="B21" s="17">
         <f>B20+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="20" t="s">
-        <v>33</v>
+      <c r="C21" s="17" t="s">
+        <v>15</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37"/>
+      <c r="A22" s="29"/>
       <c r="B22" s="17">
         <f>B21+1</f>
         <v>4</v>
@@ -1531,26 +1475,26 @@
       <c r="D22" s="18"/>
     </row>
     <row r="23" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
+      <c r="A23" s="21" t="s">
+        <v>17</v>
+      </c>
+      <c r="B23" s="21"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="21"/>
     </row>
     <row r="24" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="29" t="s">
-        <v>41</v>
-      </c>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="31"/>
+      <c r="A24" s="30" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="31"/>
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
     </row>
     <row r="25" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="32"/>
-      <c r="B25" s="33"/>
-      <c r="C25" s="33"/>
-      <c r="D25" s="34"/>
+      <c r="A25" s="33"/>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="12">
@@ -1606,26 +1550,26 @@
       <c r="H2" s="6"/>
       <c r="I2" s="9"/>
       <c r="J2" s="10" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="L2" s="10" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="M2" s="11"/>
     </row>
     <row r="3" spans="1:13" s="2" customFormat="1" ht="29.25" x14ac:dyDescent="0.2">
       <c r="A3" s="5"/>
-      <c r="B3" s="38" t="s">
-        <v>17</v>
-      </c>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="40"/>
+      <c r="B3" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" s="37"/>
+      <c r="D3" s="37"/>
+      <c r="E3" s="37"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="38"/>
       <c r="I3" s="11"/>
       <c r="J3" s="11"/>
       <c r="K3" s="11"/>
@@ -1634,14 +1578,14 @@
     </row>
     <row r="4" spans="1:13" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A4" s="5"/>
-      <c r="B4" s="41" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="42"/>
-      <c r="D4" s="42"/>
-      <c r="E4" s="42"/>
-      <c r="F4" s="42"/>
-      <c r="G4" s="43"/>
+      <c r="B4" s="39" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="40"/>
+      <c r="D4" s="40"/>
+      <c r="E4" s="40"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="41"/>
       <c r="I4" s="11"/>
       <c r="J4" s="11"/>
       <c r="K4" s="11"/>
@@ -1650,16 +1594,16 @@
     </row>
     <row r="5" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="5"/>
-      <c r="B5" s="46" t="s">
-        <v>19</v>
-      </c>
-      <c r="C5" s="47"/>
-      <c r="D5" s="48" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="49"/>
+      <c r="B5" s="44" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" s="45"/>
+      <c r="D5" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="47"/>
       <c r="I5" s="11"/>
       <c r="J5" s="11"/>
       <c r="K5" s="11"/>
@@ -1668,12 +1612,12 @@
     </row>
     <row r="6" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="5"/>
-      <c r="B6" s="46"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="49"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="47"/>
       <c r="I6" s="11"/>
       <c r="J6" s="11"/>
       <c r="K6" s="11"/>
@@ -1682,12 +1626,12 @@
     </row>
     <row r="7" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="5"/>
-      <c r="B7" s="46"/>
-      <c r="C7" s="47"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="49"/>
+      <c r="B7" s="44"/>
+      <c r="C7" s="45"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="47"/>
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
       <c r="K7" s="11"/>
@@ -1696,12 +1640,12 @@
     </row>
     <row r="8" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="5"/>
-      <c r="B8" s="46"/>
-      <c r="C8" s="47"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="49"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="45"/>
+      <c r="D8" s="46"/>
+      <c r="E8" s="46"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="47"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
       <c r="K8" s="11"/>
@@ -1710,12 +1654,12 @@
     </row>
     <row r="9" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="5"/>
-      <c r="B9" s="46"/>
-      <c r="C9" s="47"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="49"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="45"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="47"/>
       <c r="I9" s="11"/>
       <c r="J9" s="11"/>
       <c r="K9" s="11"/>
@@ -1724,12 +1668,12 @@
     </row>
     <row r="10" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="5"/>
-      <c r="B10" s="46"/>
-      <c r="C10" s="47"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="49"/>
+      <c r="B10" s="44"/>
+      <c r="C10" s="45"/>
+      <c r="D10" s="46"/>
+      <c r="E10" s="46"/>
+      <c r="F10" s="46"/>
+      <c r="G10" s="47"/>
       <c r="I10" s="11"/>
       <c r="J10" s="11"/>
       <c r="K10" s="11"/>
@@ -1738,12 +1682,12 @@
     </row>
     <row r="11" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="5"/>
-      <c r="B11" s="46"/>
-      <c r="C11" s="47"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="49"/>
+      <c r="B11" s="44"/>
+      <c r="C11" s="45"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="47"/>
       <c r="I11" s="11"/>
       <c r="J11" s="11"/>
       <c r="K11" s="11"/>
@@ -1752,12 +1696,12 @@
     </row>
     <row r="12" spans="1:13" s="2" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="5"/>
-      <c r="B12" s="46"/>
-      <c r="C12" s="47"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="49"/>
+      <c r="B12" s="44"/>
+      <c r="C12" s="45"/>
+      <c r="D12" s="46"/>
+      <c r="E12" s="46"/>
+      <c r="F12" s="46"/>
+      <c r="G12" s="47"/>
       <c r="I12" s="11"/>
       <c r="J12" s="11"/>
       <c r="K12" s="11"/>
@@ -1766,14 +1710,14 @@
     </row>
     <row r="13" spans="1:13" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="5"/>
-      <c r="B13" s="41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C13" s="42"/>
-      <c r="D13" s="42"/>
-      <c r="E13" s="42"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="43"/>
+      <c r="B13" s="39" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" s="40"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="41"/>
       <c r="I13" s="11"/>
       <c r="J13" s="11"/>
       <c r="K13" s="11"/>
@@ -1783,19 +1727,19 @@
     <row r="14" spans="1:13" s="2" customFormat="1" ht="351" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="5"/>
       <c r="B14" s="7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="44" t="s">
-        <v>25</v>
-      </c>
-      <c r="F14" s="44"/>
-      <c r="G14" s="45"/>
+        <v>29</v>
+      </c>
+      <c r="E14" s="42" t="s">
+        <v>30</v>
+      </c>
+      <c r="F14" s="42"/>
+      <c r="G14" s="43"/>
       <c r="I14" s="11"/>
       <c r="J14" s="11"/>
       <c r="K14" s="11"/>
@@ -1828,37 +1772,37 @@
   <sheetData>
     <row r="1" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -1,30 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20399"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\git_code\myCode\lib\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E70251A-4758-47F8-B801-7B643E5D8F04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="研究院周报" sheetId="2" r:id="rId1"/>
     <sheet name="研究院专题周报-补充" sheetId="4" r:id="rId2"/>
     <sheet name="周报说明" sheetId="1" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="41">
-  <si>
-    <t>龙辛柯-周报(2023年06月26日-2023年07月02日)6月第5周</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="39">
+  <si>
+    <t>龙辛柯-周报(2023年07月03日-2023年07月09日)7月第2周</t>
   </si>
   <si>
     <t>季度重点工作</t>
@@ -68,9 +62,15 @@
     <t>规划内工作</t>
   </si>
   <si>
+    <t>自动化聚集度重新取数</t>
+  </si>
+  <si>
     <t>完成</t>
   </si>
   <si>
+    <t>持续进行</t>
+  </si>
+  <si>
     <t>临时事项</t>
   </si>
   <si>
@@ -80,24 +80,20 @@
     <t>预计达到的目标</t>
   </si>
   <si>
-    <t>调研系统</t>
-  </si>
-  <si>
-    <t>自动化其他bug修复</t>
-  </si>
-  <si>
-    <t>自动化代码讲解</t>
-  </si>
-  <si>
-    <t>持续进行</t>
+    <t>湖南省自动化就业简报</t>
+  </si>
+  <si>
+    <t>自动化新需求完成</t>
+  </si>
+  <si>
+    <t>完善报告下载流程</t>
   </si>
   <si>
     <t>工作总结</t>
   </si>
   <si>
-    <t>1.python对于word的支持不是很完善，有些功能用代码实现不了，比如添加表格的时候特殊样式不显示汇总行需要手动勾选，我也找不到能用代码解决的方法，可能需要另辟蹊径研究一下自动点击脚本了
-2.啊不对不对，代码里用style设置不了最后一行的话，我直接去改最后一行的格式不就行了吗
-3.在研究怎么改词云图颜色的时候老是报错没有这个参数，后来才发现自己查到的方法不是pyecharts 的词云图，是一个wordcloud 库的词云图——然后发现pyecharts根本就设置不了颜色，我转头就pip了一个wordcloud库</t>
+    <t xml:space="preserve">1.兰州理工又出问题了，这次是往届的就业率有’/‘导致在计算就业率差值的时候报错，测试的时候没有想到这个问题是因为/的出现不符合逻辑，因为表里有人数和就业人数，但是就是不算就业率，就是要写/；
+</t>
   </si>
   <si>
     <t>上周</t>
@@ -335,24 +331,18 @@
   <si>
     <t>5、每周最后一个工作日（一般周五）晚上12点之前通过邮件发送到数据事业部，抄送孙柏，如本周及下周工作需要其他部门相关责任人知晓，请一并抄送。</t>
   </si>
-  <si>
-    <t>天津校招取数</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>校招屏加筛选框</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
-  <si>
-    <t>补充师范生非师范生等分析仪</t>
-    <phoneticPr fontId="18" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="20" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="37">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -377,7 +367,7 @@
     </font>
     <font>
       <sz val="12"/>
-      <color theme="0" tint="-0.14951017792291024"/>
+      <color theme="0" tint="-0.14951017792291"/>
       <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -433,8 +423,151 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
       <name val="等线"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -474,22 +607,8 @@
       <name val="微软雅黑"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="38">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -522,12 +641,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14951017792291024"/>
+        <fgColor theme="0" tint="-0.14951017792291"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="21">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -785,15 +1090,254 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="11" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="27" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="26" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0">
@@ -810,7 +1354,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="3">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="50">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -819,25 +1363,61 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="3" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="50" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="50" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="50" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="3" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="7" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="50" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="0" xfId="11" applyNumberFormat="1" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="50" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="50" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -846,127 +1426,134 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="51" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="10" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="11" fillId="5" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="16" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="16" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="17" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="18" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="19" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="10" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="4" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="20" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="5">
-    <cellStyle name="百分比" xfId="1" builtinId="5"/>
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 3" xfId="3" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="常规 4" xfId="4" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 4" xfId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1224,308 +1811,307 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.6" customHeight="1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="12" customWidth="1"/>
-    <col min="2" max="2" width="5.625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="50.375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="52.75" style="13" customWidth="1"/>
-    <col min="5" max="16384" width="8.875" style="13"/>
+    <col min="1" max="1" width="16.125" style="24" customWidth="1"/>
+    <col min="2" max="2" width="5.625" style="25" customWidth="1"/>
+    <col min="3" max="3" width="50.375" style="25" customWidth="1"/>
+    <col min="4" max="4" width="52.75" style="25" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="25"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="20" t="s">
+    <row r="1" ht="26.45" customHeight="1" spans="1:4">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20"/>
-      <c r="C1" s="20"/>
-      <c r="D1" s="20"/>
-    </row>
-    <row r="2" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="21" t="s">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" ht="26.45" customHeight="1" spans="1:4">
+      <c r="A2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="21"/>
-      <c r="C2" s="21"/>
-      <c r="D2" s="14" t="s">
+      <c r="B2" s="27"/>
+      <c r="C2" s="27"/>
+      <c r="D2" s="28" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="22" t="s">
+    <row r="3" ht="36.6" customHeight="1" spans="1:4">
+      <c r="A3" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="22"/>
-      <c r="C3" s="22"/>
-      <c r="D3" s="15" t="s">
+      <c r="B3" s="29"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="23" t="s">
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="24"/>
-      <c r="D4" s="25"/>
-    </row>
-    <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="26" t="s">
+      <c r="B4" s="31"/>
+      <c r="C4" s="31"/>
+      <c r="D4" s="32"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="26"/>
-      <c r="D5" s="16" t="s">
+      <c r="B5" s="33"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="27" t="s">
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="17">
+      <c r="B6" s="35">
         <v>1</v>
       </c>
-      <c r="C6" s="48" t="s">
-        <v>38</v>
-      </c>
-      <c r="D6" s="18" t="s">
+      <c r="C6" s="36" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="28"/>
-      <c r="B7" s="17">
+      <c r="D6" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="38"/>
+      <c r="B7" s="35">
         <f t="shared" ref="B7:B16" si="0">B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="28"/>
-      <c r="B8" s="17">
+      <c r="C7" s="36"/>
+      <c r="D7" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="38"/>
+      <c r="B8" s="35">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C8" s="48" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="28"/>
-      <c r="B9" s="17">
+      <c r="C8" s="36"/>
+      <c r="D8" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="38"/>
+      <c r="B9" s="35">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="D9" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="28"/>
-      <c r="B10" s="17">
+      <c r="C9" s="39"/>
+      <c r="D9" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="38"/>
+      <c r="B10" s="35">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="17"/>
-      <c r="D10" s="18"/>
-    </row>
-    <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="28"/>
-      <c r="B11" s="17">
+      <c r="C10" s="36"/>
+      <c r="D10" s="40" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="38"/>
+      <c r="B11" s="35">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D11" s="18"/>
-    </row>
-    <row r="12" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="28"/>
-      <c r="B12" s="17">
+      <c r="D11" s="37"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="38"/>
+      <c r="B12" s="35">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="19"/>
-      <c r="D12" s="17"/>
-    </row>
-    <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="29" t="s">
-        <v>10</v>
-      </c>
-      <c r="B13" s="17">
+      <c r="C12" s="41"/>
+      <c r="D12" s="35"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="42" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="35">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="17"/>
-      <c r="D13" s="18"/>
-    </row>
-    <row r="14" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="29"/>
-      <c r="B14" s="17">
+      <c r="C13" s="35"/>
+      <c r="D13" s="37"/>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="42"/>
+      <c r="B14" s="35">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C14" s="17"/>
-      <c r="D14" s="18"/>
-    </row>
-    <row r="15" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="29"/>
-      <c r="B15" s="17">
+      <c r="C14" s="35"/>
+      <c r="D14" s="37"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="42"/>
+      <c r="B15" s="35">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C15" s="17"/>
-      <c r="D15" s="18"/>
-    </row>
-    <row r="16" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="29"/>
-      <c r="B16" s="17">
+      <c r="C15" s="35"/>
+      <c r="D15" s="37"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="42"/>
+      <c r="B16" s="35">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C16" s="17"/>
-      <c r="D16" s="17"/>
-    </row>
-    <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="B17" s="24"/>
-      <c r="C17" s="24"/>
-      <c r="D17" s="25"/>
-    </row>
-    <row r="18" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="26" t="s">
+      <c r="C16" s="35"/>
+      <c r="D16" s="35"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B17" s="31"/>
+      <c r="C17" s="31"/>
+      <c r="D17" s="32"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="26"/>
-      <c r="D18" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="29" t="s">
+      <c r="B18" s="33"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="42" t="s">
         <v>8</v>
       </c>
-      <c r="B19" s="17">
+      <c r="B19" s="35">
         <v>1</v>
       </c>
-      <c r="C19" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="D19" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="29"/>
-      <c r="B20" s="17">
+      <c r="C19" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="42"/>
+      <c r="B20" s="35">
         <f>B19+1</f>
         <v>2</v>
       </c>
-      <c r="C20" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="29"/>
-      <c r="B21" s="17">
+      <c r="C20" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="37" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="42"/>
+      <c r="B21" s="35">
         <f>B20+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="18" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="29"/>
-      <c r="B22" s="17">
+      <c r="C21" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="42"/>
+      <c r="B22" s="35">
         <f>B21+1</f>
         <v>4</v>
       </c>
-      <c r="D22" s="18"/>
-    </row>
-    <row r="23" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="21" t="s">
-        <v>17</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-    </row>
-    <row r="24" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="30" t="s">
+      <c r="D22" s="37"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="32"/>
-    </row>
-    <row r="25" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="33"/>
-      <c r="B25" s="34"/>
-      <c r="C25" s="34"/>
-      <c r="D25" s="35"/>
+      <c r="B23" s="27"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+    </row>
+    <row r="24" ht="82.15" customHeight="1" spans="1:4">
+      <c r="A24" s="43" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24" s="44"/>
+      <c r="C24" s="44"/>
+      <c r="D24" s="45"/>
+    </row>
+    <row r="25" ht="39" customHeight="1" spans="1:4">
+      <c r="A25" s="46"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A24:D25"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A2:M14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="2.75" style="3" customWidth="1"/>
     <col min="2" max="2" width="40.875" style="3" customWidth="1"/>
@@ -1539,7 +2125,7 @@
     <col min="14" max="16384" width="9.125" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:13" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="2" s="2" customFormat="1" ht="16.5" spans="1:13">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
@@ -1548,203 +2134,203 @@
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
-      <c r="I2" s="9"/>
-      <c r="J2" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="10" t="s">
+      <c r="I2" s="21"/>
+      <c r="J2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="L2" s="10" t="s">
+      <c r="K2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="11"/>
-    </row>
-    <row r="3" spans="1:13" s="2" customFormat="1" ht="29.25" x14ac:dyDescent="0.2">
+      <c r="L2" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="M2" s="23"/>
+    </row>
+    <row r="3" s="2" customFormat="1" ht="29.25" spans="1:13">
       <c r="A3" s="5"/>
-      <c r="B3" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-      <c r="F3" s="37"/>
-      <c r="G3" s="38"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="11"/>
-      <c r="K3" s="11"/>
-      <c r="L3" s="11"/>
-      <c r="M3" s="11"/>
-    </row>
-    <row r="4" spans="1:13" s="2" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+      <c r="B3" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="8"/>
+      <c r="F3" s="8"/>
+      <c r="G3" s="9"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+    </row>
+    <row r="4" s="2" customFormat="1" ht="22.5" spans="1:13">
       <c r="A4" s="5"/>
-      <c r="B4" s="39" t="s">
-        <v>23</v>
-      </c>
-      <c r="C4" s="40"/>
-      <c r="D4" s="40"/>
-      <c r="E4" s="40"/>
-      <c r="F4" s="40"/>
-      <c r="G4" s="41"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="11"/>
-      <c r="K4" s="11"/>
-      <c r="L4" s="11"/>
-      <c r="M4" s="11"/>
-    </row>
-    <row r="5" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="12"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+    </row>
+    <row r="5" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
       <c r="A5" s="5"/>
-      <c r="B5" s="44" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="45"/>
-      <c r="D5" s="46" t="s">
+      <c r="B5" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="47"/>
-      <c r="I5" s="11"/>
-      <c r="J5" s="11"/>
-      <c r="K5" s="11"/>
-      <c r="L5" s="11"/>
-      <c r="M5" s="11"/>
-    </row>
-    <row r="6" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="14"/>
+      <c r="D5" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="16"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="23"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="23"/>
+    </row>
+    <row r="6" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
       <c r="A6" s="5"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="47"/>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
-      <c r="K6" s="11"/>
-      <c r="L6" s="11"/>
-      <c r="M6" s="11"/>
-    </row>
-    <row r="7" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="16"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="23"/>
+      <c r="L6" s="23"/>
+      <c r="M6" s="23"/>
+    </row>
+    <row r="7" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
       <c r="A7" s="5"/>
-      <c r="B7" s="44"/>
-      <c r="C7" s="45"/>
-      <c r="D7" s="46"/>
-      <c r="E7" s="46"/>
-      <c r="F7" s="46"/>
-      <c r="G7" s="47"/>
-      <c r="I7" s="11"/>
-      <c r="J7" s="11"/>
-      <c r="K7" s="11"/>
-      <c r="L7" s="11"/>
-      <c r="M7" s="11"/>
-    </row>
-    <row r="8" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="13"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="16"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="23"/>
+      <c r="K7" s="23"/>
+      <c r="L7" s="23"/>
+      <c r="M7" s="23"/>
+    </row>
+    <row r="8" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
       <c r="A8" s="5"/>
-      <c r="B8" s="44"/>
-      <c r="C8" s="45"/>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-      <c r="F8" s="46"/>
-      <c r="G8" s="47"/>
-      <c r="I8" s="11"/>
-      <c r="J8" s="11"/>
-      <c r="K8" s="11"/>
-      <c r="L8" s="11"/>
-      <c r="M8" s="11"/>
-    </row>
-    <row r="9" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="13"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="16"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="23"/>
+      <c r="K8" s="23"/>
+      <c r="L8" s="23"/>
+      <c r="M8" s="23"/>
+    </row>
+    <row r="9" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
       <c r="A9" s="5"/>
-      <c r="B9" s="44"/>
-      <c r="C9" s="45"/>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-      <c r="F9" s="46"/>
-      <c r="G9" s="47"/>
-      <c r="I9" s="11"/>
-      <c r="J9" s="11"/>
-      <c r="K9" s="11"/>
-      <c r="L9" s="11"/>
-      <c r="M9" s="11"/>
-    </row>
-    <row r="10" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="13"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="16"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="23"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="23"/>
+    </row>
+    <row r="10" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
       <c r="A10" s="5"/>
-      <c r="B10" s="44"/>
-      <c r="C10" s="45"/>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-      <c r="F10" s="46"/>
-      <c r="G10" s="47"/>
-      <c r="I10" s="11"/>
-      <c r="J10" s="11"/>
-      <c r="K10" s="11"/>
-      <c r="L10" s="11"/>
-      <c r="M10" s="11"/>
-    </row>
-    <row r="11" spans="1:13" s="2" customFormat="1" ht="15.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="13"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="16"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+    </row>
+    <row r="11" s="2" customFormat="1" ht="15.6" customHeight="1" spans="1:13">
       <c r="A11" s="5"/>
-      <c r="B11" s="44"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-      <c r="F11" s="46"/>
-      <c r="G11" s="47"/>
-      <c r="I11" s="11"/>
-      <c r="J11" s="11"/>
-      <c r="K11" s="11"/>
-      <c r="L11" s="11"/>
-      <c r="M11" s="11"/>
-    </row>
-    <row r="12" spans="1:13" s="2" customFormat="1" ht="171" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="13"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="16"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+    </row>
+    <row r="12" s="2" customFormat="1" ht="171" customHeight="1" spans="1:13">
       <c r="A12" s="5"/>
-      <c r="B12" s="44"/>
-      <c r="C12" s="45"/>
-      <c r="D12" s="46"/>
-      <c r="E12" s="46"/>
-      <c r="F12" s="46"/>
-      <c r="G12" s="47"/>
-      <c r="I12" s="11"/>
-      <c r="J12" s="11"/>
-      <c r="K12" s="11"/>
-      <c r="L12" s="11"/>
-      <c r="M12" s="11"/>
-    </row>
-    <row r="13" spans="1:13" s="2" customFormat="1" ht="22.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="13"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="16"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+    </row>
+    <row r="13" s="2" customFormat="1" ht="22.15" customHeight="1" spans="1:13">
       <c r="A13" s="5"/>
-      <c r="B13" s="39" t="s">
-        <v>26</v>
-      </c>
-      <c r="C13" s="40"/>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="40"/>
-      <c r="G13" s="41"/>
-      <c r="I13" s="11"/>
-      <c r="J13" s="11"/>
-      <c r="K13" s="11"/>
-      <c r="L13" s="11"/>
-      <c r="M13" s="11"/>
-    </row>
-    <row r="14" spans="1:13" s="2" customFormat="1" ht="351" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
+      <c r="G13" s="12"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="23"/>
+      <c r="K13" s="23"/>
+      <c r="L13" s="23"/>
+      <c r="M13" s="23"/>
+    </row>
+    <row r="14" s="2" customFormat="1" ht="351" customHeight="1" spans="1:13">
       <c r="A14" s="5"/>
-      <c r="B14" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="C14" s="8" t="s">
+      <c r="B14" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="42" t="s">
+      <c r="D14" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="F14" s="42"/>
-      <c r="G14" s="43"/>
-      <c r="I14" s="11"/>
-      <c r="J14" s="11"/>
-      <c r="K14" s="11"/>
-      <c r="L14" s="11"/>
-      <c r="M14" s="11"/>
+      <c r="E14" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="F14" s="19"/>
+      <c r="G14" s="20"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="23"/>
+      <c r="L14" s="23"/>
+      <c r="M14" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1755,59 +2341,60 @@
     <mergeCell ref="B5:C12"/>
     <mergeCell ref="D5:G12"/>
   </mergeCells>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelRow="7"/>
   <sheetData>
-    <row r="1" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" ht="18.6" customHeight="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2" ht="18.6" customHeight="1" spans="1:1">
       <c r="A2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1">
       <c r="A3" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1">
       <c r="A4" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
       <c r="A5" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
       <c r="A7" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="18" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\git_code\myCode\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62274F88-2C4C-4463-85DA-6D9647AA8314}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E77D5D-0CB2-48C5-ACC8-F442E90AC849}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,9 +21,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
-  <si>
-    <t>龙辛柯-周报(2023年07月10日-2023年07月16日)7月第3周</t>
-  </si>
   <si>
     <t>季度重点工作</t>
   </si>
@@ -115,6 +112,10 @@
   </si>
   <si>
     <t>完成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙辛柯-周报(2023年07月17日-2023年07月23日)7月第4周</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -406,62 +407,62 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -760,119 +761,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+    </row>
+    <row r="2" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="22"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="27" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="B3" s="27"/>
+      <c r="C3" s="27"/>
+      <c r="D3" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="4" t="s">
+    </row>
+    <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="B4" s="19"/>
+      <c r="C4" s="19"/>
+      <c r="D4" s="20"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="21" t="s">
         <v>5</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="23" t="s">
         <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>8</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="6">
         <f t="shared" ref="B7:B16" si="0">B6+1</f>
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -880,7 +881,7 @@
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -889,8 +890,8 @@
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>15</v>
+      <c r="A13" s="25" t="s">
+        <v>14</v>
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
@@ -900,7 +901,7 @@
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -909,7 +910,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -918,7 +919,7 @@
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -927,100 +928,105 @@
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
+      <c r="A17" s="18" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" s="19"/>
+      <c r="C17" s="19"/>
+      <c r="D17" s="20"/>
+    </row>
+    <row r="18" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="21"/>
+      <c r="C18" s="21"/>
+      <c r="D18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
-    </row>
-    <row r="18" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>6</v>
-      </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="5" t="s">
-        <v>17</v>
-      </c>
     </row>
     <row r="19" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
-        <v>8</v>
+      <c r="A19" s="25" t="s">
+        <v>7</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="6">
         <f>B19+1</f>
         <v>2</v>
       </c>
-      <c r="C20" s="25" t="s">
-        <v>22</v>
+      <c r="C20" s="9" t="s">
+        <v>21</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="6">
         <f>B20+1</f>
         <v>3</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="6">
         <f>B21+1</f>
         <v>4</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="27" t="s">
-        <v>24</v>
-      </c>
     </row>
     <row r="23" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="22" t="s">
+        <v>19</v>
+      </c>
+      <c r="B23" s="22"/>
+      <c r="C23" s="22"/>
+      <c r="D23" s="22"/>
+    </row>
+    <row r="24" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
+      <c r="B24" s="13"/>
+      <c r="C24" s="13"/>
+      <c r="D24" s="14"/>
     </row>
     <row r="25" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
+      <c r="A25" s="15"/>
+      <c r="B25" s="16"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A24:D25"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:C18"/>
@@ -1028,11 +1034,6 @@
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\git_code\myCode\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55E77D5D-0CB2-48C5-ACC8-F442E90AC849}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C754120-DE83-47C7-88B7-2D0A025F30E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="551" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="研究院周报" sheetId="2" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
   <si>
     <t>季度重点工作</t>
   </si>
@@ -63,24 +63,9 @@
     <t>规划内工作</t>
   </si>
   <si>
-    <t>湖南省校招部分小程序</t>
-  </si>
-  <si>
     <t>完成</t>
   </si>
   <si>
-    <t>湖南省自动点击部分小程序</t>
-  </si>
-  <si>
-    <t>驻场测试</t>
-  </si>
-  <si>
-    <t>处理bug：分辨率问题，测试库数据和正式环境部分数据不一样</t>
-  </si>
-  <si>
-    <t>自动化还有一点点需求没弄完</t>
-  </si>
-  <si>
     <t>临时事项</t>
   </si>
   <si>
@@ -93,29 +78,35 @@
     <t>根据报告组反馈修改自动化代码</t>
   </si>
   <si>
-    <t>完善报告下载流程</t>
-  </si>
-  <si>
     <t>工作总结</t>
-  </si>
-  <si>
-    <t>1.以前我觉得程序的bug是一定能解决的，因为以前写的都是逻辑，从来都不导包，出bug那肯定是自己的代码逻辑有问题；现在用python天天导包，能做的功能确实多了很多，但这个包本身有bug或者实现不了的功能确实就没什么办法了，但是不意味着这种bug修不了一点，有些还是可以曲线救国的，比如现在每次做word表格都需要手动勾选汇总行的格式，这个勾选的功能模块里肯定没有，但是我完全可以直接在代码里去修改最后一行的字体底纹边框啥的。
-2.一开始刚到省中心测试的时候直接就报错连不上数据库的时候我马上就和陈冬说了，但是陈冬下午才有时间给我解决，我感觉我有点急了，似乎能理解销售为什么那么急着催我们，我坐在那等陈冬给我解决问题的时候其实老师一点都没有催我，但是我反倒觉得很急，单纯觉得她不催我是不是对我有点太好了，我不能接受，我得多干点活平衡一下，如果我是销售我就拼命催陈冬了，还好我不是。</t>
-  </si>
-  <si>
-    <t>西北农林二期的学生成长档案模型</t>
-    <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
     <t>新媒体大屏</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>完成</t>
+    <t>湖南省小程序处理男女数据相同小bug</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>龙辛柯-周报(2023年07月17日-2023年07月23日)7月第4周</t>
+    <t>研究sql优化相关</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北农林清洗数据</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>调研系统升级研究</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">1.sql优化还是有很多东西需要学，比如索引需要建立在合适的字段上而不是直接建在id上，这些东西以前也只是听过，但是没有实际使用的需求就没有去学，现在要两三天的时间内了解掌握并且运用，确实是有点抱佛脚的感觉。不过之后和诚睿开会讨论了一下也有了很多思路，一个诸葛亮确实不如三个臭皮匠
+</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙辛柯-周报(2023年07月24日-2023年07月30日)7月第5周</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -416,7 +407,7 @@
     <xf numFmtId="9" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -748,7 +739,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -762,7 +753,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="26" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="B1" s="26"/>
       <c r="C1" s="26"/>
@@ -814,10 +805,10 @@
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>8</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -826,11 +817,11 @@
         <f t="shared" ref="B7:B16" si="0">B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>10</v>
+      <c r="C7" s="9" t="s">
+        <v>15</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -839,11 +830,11 @@
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C8" s="6" t="s">
-        <v>11</v>
+      <c r="C8" s="10" t="s">
+        <v>14</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -852,11 +843,11 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>12</v>
+      <c r="C9" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -865,12 +856,8 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>9</v>
-      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="24"/>
@@ -891,7 +878,7 @@
     </row>
     <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="25" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
@@ -929,7 +916,7 @@
     </row>
     <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="18" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="B17" s="19"/>
       <c r="C17" s="19"/>
@@ -942,7 +929,7 @@
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -952,11 +939,11 @@
       <c r="B19" s="6">
         <v>1</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>17</v>
+      <c r="C19" s="9" t="s">
+        <v>16</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -966,10 +953,10 @@
         <v>2</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -978,11 +965,11 @@
         <f>B20+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="6" t="s">
+      <c r="C21" s="9" t="s">
         <v>18</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -991,16 +978,12 @@
         <f>B21+1</f>
         <v>4</v>
       </c>
-      <c r="C22" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="D22" s="11" t="s">
-        <v>23</v>
-      </c>
+      <c r="C22" s="10"/>
+      <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="22" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B23" s="22"/>
       <c r="C23" s="22"/>
@@ -1008,7 +991,7 @@
     </row>
     <row r="24" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B24" s="13"/>
       <c r="C24" s="13"/>

--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\git_code\myCode\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C754120-DE83-47C7-88B7-2D0A025F30E0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01013FFC-D8B8-46BB-AB31-6B93D5E3EA79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="551" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
   <si>
     <t>季度重点工作</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>自动化需求</t>
-  </si>
-  <si>
-    <t>湖南省小程序</t>
   </si>
   <si>
     <t>本周工作完成情况</t>
@@ -45,6 +42,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>工作完成情况及</t>
@@ -54,6 +52,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>未完成工作原因</t>
@@ -81,18 +80,6 @@
     <t>工作总结</t>
   </si>
   <si>
-    <t>新媒体大屏</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖南省小程序处理男女数据相同小bug</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>研究sql优化相关</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>西北农林清洗数据</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -101,12 +88,44 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t xml:space="preserve">1.sql优化还是有很多东西需要学，比如索引需要建立在合适的字段上而不是直接建在id上，这些东西以前也只是听过，但是没有实际使用的需求就没有去学，现在要两三天的时间内了解掌握并且运用，确实是有点抱佛脚的感觉。不过之后和诚睿开会讨论了一下也有了很多思路，一个诸葛亮确实不如三个臭皮匠
-</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>龙辛柯-周报(2023年07月24日-2023年07月30日)7月第5周</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>能力模型短评</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>进行中</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告下载流程研究</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北农林相关对接与配合</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>西北农林</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>第二轮自动化修改</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.就算有chatGPT写文字也很累，因为你需要想怎么表达给chatGPT你想要的是什么，不像问代码直接告诉他要实现什么功能就可以了，万一出来的不是自己想要的心态更爆炸
+2.关于自动生成周报ppt的功能诚睿倒是写着玩了。我没写，客观原因是上周写周报ppt的时候太忙了没时间写，主观原因是我对重复性工作的忍耐程度变高了，也许是因为做了很多没办法或者说代码不太好写的重复性工作，感觉已经习惯了</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataworks设置依赖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -126,6 +145,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -133,6 +153,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -140,12 +161,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -153,6 +176,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -160,6 +184,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -370,7 +395,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -407,8 +432,26 @@
     <xf numFmtId="9" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -425,21 +468,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -449,10 +477,10 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -739,7 +767,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -752,115 +780,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="26" t="s">
-        <v>20</v>
-      </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
+      <c r="A1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
     </row>
     <row r="2" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="22"/>
-      <c r="C2" s="22"/>
+      <c r="B2" s="13"/>
+      <c r="C2" s="13"/>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="14" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
       <c r="D3" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="18" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="19"/>
-      <c r="C4" s="19"/>
-      <c r="D4" s="20"/>
-    </row>
-    <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="21" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="21"/>
-      <c r="C5" s="21"/>
-      <c r="D5" s="5" t="s">
+    </row>
+    <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="24" t="s">
         <v>6</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
-        <v>7</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
+      <c r="A7" s="25"/>
       <c r="B7" s="6">
         <f t="shared" ref="B7:B16" si="0">B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="9" t="s">
-        <v>15</v>
+      <c r="C7" s="6" t="s">
+        <v>13</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
+      <c r="A8" s="25"/>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C8" s="10" t="s">
-        <v>14</v>
+      <c r="C8" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
+      <c r="A9" s="25"/>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
+      <c r="A10" s="25"/>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
+      <c r="C10" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
+      <c r="A11" s="25"/>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -868,7 +900,7 @@
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
+      <c r="A12" s="25"/>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -877,8 +909,8 @@
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
-        <v>9</v>
+      <c r="A13" s="26" t="s">
+        <v>8</v>
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
@@ -888,7 +920,7 @@
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
+      <c r="A14" s="26"/>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -897,7 +929,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
+      <c r="A15" s="26"/>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -906,7 +938,7 @@
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
+      <c r="A16" s="26"/>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -915,65 +947,65 @@
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="18" t="s">
+      <c r="A17" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="18" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="20"/>
-    </row>
-    <row r="18" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="21" t="s">
-        <v>5</v>
-      </c>
-      <c r="B18" s="21"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="5" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="19" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
-        <v>7</v>
+      <c r="A19" s="26" t="s">
+        <v>6</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
       </c>
-      <c r="C19" s="9" t="s">
-        <v>16</v>
+      <c r="C19" s="6" t="s">
+        <v>19</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
+      <c r="A20" s="26"/>
       <c r="B20" s="6">
         <f>B19+1</f>
         <v>2</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
+      <c r="A21" s="26"/>
       <c r="B21" s="6">
         <f>B20+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="9" t="s">
-        <v>18</v>
+      <c r="C21" s="27" t="s">
+        <v>21</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
+      <c r="A22" s="26"/>
       <c r="B22" s="6">
         <f>B21+1</f>
         <v>4</v>
@@ -982,34 +1014,29 @@
       <c r="D22" s="11"/>
     </row>
     <row r="23" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="22"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
+      <c r="A23" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="13"/>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="13"/>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
+      <c r="A24" s="28" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
     </row>
     <row r="25" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16"/>
-      <c r="C25" s="16"/>
-      <c r="D25" s="17"/>
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A24:D25"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:C18"/>
@@ -1017,6 +1044,11 @@
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20401"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\git_code\myCode\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01013FFC-D8B8-46BB-AB31-6B93D5E3EA79}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8140C2-4327-4C3E-9318-48BD0B6A2486}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="551" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,15 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
   <si>
     <t>季度重点工作</t>
   </si>
   <si>
     <t>本月重点工作</t>
-  </si>
-  <si>
-    <t>自动化需求</t>
   </si>
   <si>
     <t>本周工作完成情况</t>
@@ -74,25 +71,43 @@
     <t>预计达到的目标</t>
   </si>
   <si>
-    <t>根据报告组反馈修改自动化代码</t>
-  </si>
-  <si>
     <t>工作总结</t>
   </si>
   <si>
-    <t>西北农林清洗数据</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>调研系统升级研究</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙辛柯-周报(2023年07月24日-2023年07月30日)7月第5周</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>能力模型短评</t>
+    <t>第二轮自动化修改</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙辛柯-周报(2023年07月31日-2023年08月06日)8月第1周</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>调研系统升级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>调研系统升级</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>dataworks的s2一天一次设置依赖</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>调研系统多级下拉研究</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.最近开始着手调研系统的升级了，难点主要在于项目代码不像自动化的代码就一个ipynb文件杵在那，一个文件里用到了一个变量，但是这个变量我甚至不知道从哪里来的，最后还是看f12源代码找到请求的地址才找到是哪个文件。这里面应该是有一套映射规则的，研发没告诉我我也不好去问，只能从以前和浩军聊天记录中自己找规律。
+2.不过有个问题上网找半天实在没找到问题出在哪，我憋了一上午然后问了一下杨威，确实是一字千金最后发现是域名的问题。我突然发现一个问问题的寄巧，可以在中午饭点之前这种人心涣散的时候问，感觉人家可能更愿意回一点。大家觉得怎么样</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>职业分类和行业分类数据提取</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -100,32 +115,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>报告下载流程研究</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>西北农林相关对接与配合</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>西北农林</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>第二轮自动化修改</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.就算有chatGPT写文字也很累，因为你需要想怎么表达给chatGPT你想要的是什么，不像问代码直接告诉他要实现什么功能就可以了，万一出来的不是自己想要的心态更爆炸
-2.关于自动生成周报ppt的功能诚睿倒是写着玩了。我没写，客观原因是上周写周报ppt的时候太忙了没时间写，主观原因是我对重复性工作的忍耐程度变高了，也许是因为做了很多没办法或者说代码不太好写的重复性工作，感觉已经习惯了</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataworks设置依赖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
+    <t>调研系统其他部分升级研究</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>第三轮自动化修改</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>调研系统多级下拉功能升级完成</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -395,7 +393,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -423,15 +421,15 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -453,6 +451,9 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -476,12 +477,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -767,7 +762,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="J24" sqref="J24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -781,7 +776,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="12" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B1" s="12"/>
       <c r="C1" s="12"/>
@@ -799,17 +794,17 @@
     </row>
     <row r="3" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="14" t="s">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="B3" s="14"/>
       <c r="C3" s="14"/>
       <c r="D3" s="4" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="15" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="16"/>
       <c r="C4" s="16"/>
@@ -817,43 +812,43 @@
     </row>
     <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="18"/>
       <c r="C5" s="18"/>
       <c r="D5" s="5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
         <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
-        <v>6</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="11" t="s">
         <v>11</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="25"/>
+      <c r="A7" s="26"/>
       <c r="B7" s="6">
         <f t="shared" ref="B7:B16" si="0">B6+1</f>
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="25"/>
+      <c r="A8" s="26"/>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -862,37 +857,33 @@
         <v>16</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="25"/>
+      <c r="A9" s="26"/>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="25"/>
+      <c r="A10" s="26"/>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>24</v>
-      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="25"/>
+      <c r="A11" s="26"/>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -900,7 +891,7 @@
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="25"/>
+      <c r="A12" s="26"/>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -909,18 +900,22 @@
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="26" t="s">
-        <v>8</v>
+      <c r="A13" s="27" t="s">
+        <v>7</v>
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
+      <c r="C13" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="26"/>
+      <c r="A14" s="27"/>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -929,7 +924,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="26"/>
+      <c r="A15" s="27"/>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -938,7 +933,7 @@
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="26"/>
+      <c r="A16" s="27"/>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -948,7 +943,7 @@
     </row>
     <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="15" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B17" s="16"/>
       <c r="C17" s="16"/>
@@ -956,84 +951,84 @@
     </row>
     <row r="18" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="18" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B18" s="18"/>
       <c r="C18" s="18"/>
       <c r="D18" s="5" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="26" t="s">
-        <v>6</v>
+      <c r="A19" s="27" t="s">
+        <v>5</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
       </c>
-      <c r="C19" s="6" t="s">
-        <v>19</v>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="26"/>
+      <c r="A20" s="27"/>
       <c r="B20" s="6">
         <f>B19+1</f>
         <v>2</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>14</v>
+      <c r="C20" s="6" t="s">
+        <v>21</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="26"/>
+      <c r="A21" s="27"/>
       <c r="B21" s="6">
         <f>B20+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="27" t="s">
-        <v>21</v>
+      <c r="C21" s="11" t="s">
+        <v>22</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="26"/>
+      <c r="A22" s="27"/>
       <c r="B22" s="6">
         <f>B21+1</f>
         <v>4</v>
       </c>
-      <c r="C22" s="10"/>
-      <c r="D22" s="11"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="10"/>
     </row>
     <row r="23" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B23" s="13"/>
       <c r="C23" s="13"/>
       <c r="D23" s="13"/>
     </row>
     <row r="24" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
+      <c r="A24" s="19" t="s">
+        <v>17</v>
+      </c>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
     </row>
     <row r="25" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -1,31 +1,31 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20401"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\git_code\myCode\lib\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA8140C2-4327-4C3E-9318-48BD0B6A2486}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="551" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540" tabRatio="551"/>
   </bookViews>
   <sheets>
     <sheet name="研究院周报" sheetId="2" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
+  <si>
+    <t>龙辛柯-周报(2023年07月31日-2023年08月06日)8月第1周</t>
+  </si>
   <si>
     <t>季度重点工作</t>
   </si>
   <si>
     <t>本月重点工作</t>
+  </si>
+  <si>
+    <t>调研系统升级</t>
   </si>
   <si>
     <t>本周工作完成情况</t>
@@ -39,7 +39,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>工作完成情况及</t>
@@ -49,7 +48,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>未完成工作原因</t>
@@ -59,79 +57,59 @@
     <t>规划内工作</t>
   </si>
   <si>
+    <t>调研系统多级下拉功能升级完成</t>
+  </si>
+  <si>
     <t>完成</t>
   </si>
   <si>
+    <t>调研系统多项填空</t>
+  </si>
+  <si>
+    <t>第4轮自动化修改</t>
+  </si>
+  <si>
+    <t>调研系统其他部分升级研究</t>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
     <t>临时事项</t>
   </si>
   <si>
+    <t>帆软校招取数新增薪资清洗</t>
+  </si>
+  <si>
     <t>下周工作安排</t>
   </si>
   <si>
     <t>预计达到的目标</t>
   </si>
   <si>
+    <t>调研系统矩阵题格式调整</t>
+  </si>
+  <si>
+    <t>第五轮自动化修改</t>
+  </si>
+  <si>
     <t>工作总结</t>
   </si>
   <si>
-    <t>第二轮自动化修改</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙辛柯-周报(2023年07月31日-2023年08月06日)8月第1周</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>调研系统升级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>调研系统升级</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>dataworks的s2一天一次设置依赖</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>调研系统多级下拉研究</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.最近开始着手调研系统的升级了，难点主要在于项目代码不像自动化的代码就一个ipynb文件杵在那，一个文件里用到了一个变量，但是这个变量我甚至不知道从哪里来的，最后还是看f12源代码找到请求的地址才找到是哪个文件。这里面应该是有一套映射规则的，研发没告诉我我也不好去问，只能从以前和浩军聊天记录中自己找规律。
-2.不过有个问题上网找半天实在没找到问题出在哪，我憋了一上午然后问了一下杨威，确实是一字千金最后发现是域名的问题。我突然发现一个问问题的寄巧，可以在中午饭点之前这种人心涣散的时候问，感觉人家可能更愿意回一点。大家觉得怎么样</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>职业分类和行业分类数据提取</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>进行中</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>调研系统其他部分升级研究</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>第三轮自动化修改</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>调研系统多级下拉功能升级完成</t>
-    <phoneticPr fontId="7" type="noConversion"/>
+    <t>1.上回说到如何找要改哪份代码，那么在代码中如何锁定要改的是哪一句呢？可以通过函数的英文名先找到一批可能的函数，之后用二分法注释看跑出来的网页结果，只需要logn的时间复杂度就可以锁定到具体是哪一句了。</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -143,7 +121,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -151,7 +128,6 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -159,14 +135,156 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -174,7 +292,6 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -182,25 +299,10 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="6">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -227,12 +329,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14944914090395825"/>
+        <fgColor theme="0" tint="-0.149449140903958"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -378,22 +666,264 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="4">
+  <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -403,96 +933,125 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="51" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="4">
+  <cellStyles count="52">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
-    <cellStyle name="常规 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
-    <cellStyle name="常规 4" xfId="3" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
+    <cellStyle name="常规 4" xfId="51"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -750,22 +1309,21 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.6" customHeight="1" outlineLevelCol="3"/>
   <cols>
     <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
     <col min="2" max="2" width="5.625" style="2" customWidth="1"/>
@@ -774,279 +1332,278 @@
     <col min="5" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="12"/>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-    </row>
-    <row r="2" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="13" t="s">
+    <row r="1" ht="26.45" customHeight="1" spans="1:4">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13"/>
-      <c r="D2" s="3" t="s">
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" ht="26.45" customHeight="1" spans="1:4">
+      <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-    </row>
-    <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+    </row>
+    <row r="3" ht="36.6" customHeight="1" spans="1:4">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="5" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" customHeight="1" spans="1:4">
+      <c r="A4" s="7" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="9"/>
+    </row>
+    <row r="5" customHeight="1" spans="1:4">
+      <c r="A5" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B5" s="10"/>
+      <c r="C5" s="10"/>
+      <c r="D5" s="10" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" customHeight="1" spans="1:4">
+      <c r="A6" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="B6" s="12">
         <v>1</v>
       </c>
-      <c r="C6" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="6">
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" customHeight="1" spans="1:4">
+      <c r="A7" s="14"/>
+      <c r="B7" s="12">
         <f t="shared" ref="B7:B16" si="0">B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="6">
+      <c r="C7" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8" customHeight="1" spans="1:4">
+      <c r="A8" s="14"/>
+      <c r="B8" s="12">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="6">
+        <v>11</v>
+      </c>
+      <c r="D8" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" customHeight="1" spans="1:4">
+      <c r="A9" s="14"/>
+      <c r="B9" s="12">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
-      <c r="B10" s="6">
+      <c r="C9" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" customHeight="1" spans="1:4">
+      <c r="A10" s="14"/>
+      <c r="B10" s="12">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="6">
+      <c r="C10" s="12"/>
+      <c r="D10" s="13"/>
+    </row>
+    <row r="11" customHeight="1" spans="1:4">
+      <c r="A11" s="14"/>
+      <c r="B11" s="12">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12" s="6">
+      <c r="D11" s="13"/>
+    </row>
+    <row r="12" customHeight="1" spans="1:4">
+      <c r="A12" s="14"/>
+      <c r="B12" s="12">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="8"/>
-      <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="6">
+      <c r="C12" s="15"/>
+      <c r="D12" s="12"/>
+    </row>
+    <row r="13" customHeight="1" spans="1:4">
+      <c r="A13" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="6">
+      <c r="C13" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14" customHeight="1" spans="1:4">
+      <c r="A14" s="16"/>
+      <c r="B14" s="12">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="6">
+      <c r="C14" s="12"/>
+      <c r="D14" s="13"/>
+    </row>
+    <row r="15" customHeight="1" spans="1:4">
+      <c r="A15" s="16"/>
+      <c r="B15" s="12">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="6">
+      <c r="C15" s="12"/>
+      <c r="D15" s="13"/>
+    </row>
+    <row r="16" customHeight="1" spans="1:4">
+      <c r="A16" s="16"/>
+      <c r="B16" s="12">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
-    </row>
-    <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-    </row>
-    <row r="18" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="5" t="s">
+      <c r="C16" s="12"/>
+      <c r="D16" s="12"/>
+    </row>
+    <row r="17" customHeight="1" spans="1:4">
+      <c r="A17" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="9"/>
+    </row>
+    <row r="18" customHeight="1" spans="1:4">
+      <c r="A18" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="10"/>
+      <c r="C18" s="10"/>
+      <c r="D18" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" customHeight="1" spans="1:4">
+      <c r="A19" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="B19" s="12">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D19" s="13" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="6">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="6">
+    <row r="20" customHeight="1" spans="1:4">
+      <c r="A20" s="16"/>
+      <c r="B20" s="12">
         <f>B19+1</f>
         <v>2</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
-      <c r="B21" s="6">
+      <c r="C20" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D20" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" customHeight="1" spans="1:4">
+      <c r="A21" s="16"/>
+      <c r="B21" s="12">
         <f>B20+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
-      <c r="B22" s="6">
+      <c r="C21" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D21" s="13" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" customHeight="1" spans="1:4">
+      <c r="A22" s="16"/>
+      <c r="B22" s="12">
         <f>B21+1</f>
         <v>4</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="10"/>
-    </row>
-    <row r="23" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="13"/>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
-    </row>
-    <row r="24" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>17</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-    </row>
-    <row r="25" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
+      <c r="D22" s="13"/>
+    </row>
+    <row r="23" customHeight="1" spans="1:4">
+      <c r="A23" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" ht="82.15" customHeight="1" spans="1:4">
+      <c r="A24" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
+    </row>
+    <row r="25" ht="39" customHeight="1" spans="1:4">
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A24:D25"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:C18"/>
     <mergeCell ref="A23:D23"/>
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="A24:D25"/>
   </mergeCells>
-  <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -14,9 +14,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="22">
-  <si>
-    <t>龙辛柯-周报(2023年07月31日-2023年08月06日)8月第1周</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="21">
+  <si>
+    <t>龙辛柯-周报(2023年08月21日-2023年08月27日)8月第4周</t>
   </si>
   <si>
     <t>季度重点工作</t>
@@ -57,28 +57,22 @@
     <t>规划内工作</t>
   </si>
   <si>
-    <t>调研系统多级下拉功能升级完成</t>
+    <t>自动化收尾</t>
   </si>
   <si>
     <t>完成</t>
   </si>
   <si>
-    <t>调研系统多项填空</t>
-  </si>
-  <si>
-    <t>第4轮自动化修改</t>
-  </si>
-  <si>
-    <t>调研系统其他部分升级研究</t>
-  </si>
-  <si>
-    <t>进行中</t>
+    <t>调研系统条件题逻辑控制</t>
+  </si>
+  <si>
+    <t>双学历自动化初步修改</t>
   </si>
   <si>
     <t>临时事项</t>
   </si>
   <si>
-    <t>帆软校招取数新增薪资清洗</t>
+    <t>就业简报自动点击识别出问题</t>
   </si>
   <si>
     <t>下周工作安排</t>
@@ -87,16 +81,19 @@
     <t>预计达到的目标</t>
   </si>
   <si>
-    <t>调研系统矩阵题格式调整</t>
-  </si>
-  <si>
-    <t>第五轮自动化修改</t>
+    <t>双学历自动化修改</t>
+  </si>
+  <si>
+    <t>调研系统标准问题入库</t>
+  </si>
+  <si>
+    <t>小程序问题跟进</t>
   </si>
   <si>
     <t>工作总结</t>
   </si>
   <si>
-    <t>1.上回说到如何找要改哪份代码，那么在代码中如何锁定要改的是哪一句呢？可以通过函数的英文名先找到一批可能的函数，之后用二分法注释看跑出来的网页结果，只需要logn的时间复杂度就可以锁定到具体是哪一句了。</t>
+    <t>条件题的逻辑控制比想象的要复杂，首先我没太搞清楚题目的数据结构是否在新建问题的时候就生成了，也就没办法绑定条件题的跳转到题目的id上，我目前的实现逻辑是，在点击删除题目的时候用代码算一下，比如当前有个条件是选择a则展示4-6题以及第8题，删掉第3题则展示3-5题和第7题，如果删掉第4题则展示4-5题以及第7题，如果删掉第8题则展示4-6题，反正就是用脑子算一下。不过算好了之后我需要写进去html里，然后还要设置展示的时候用写在html里的数据拿出来赋值给展示的框里，按理来说不应该实现起来这么麻烦，但代码跑起来了就不管是怎么跑的了</t>
   </si>
 </sst>
 </file>
@@ -105,11 +102,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -138,6 +135,127 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -146,146 +264,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="等线"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
       <name val="等线"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="等线"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="等线"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -329,7 +319,97 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.149449140903958"/>
+        <fgColor theme="0" tint="-0.149418622394482"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -341,7 +421,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -353,114 +493,6 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -468,48 +500,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -663,6 +653,32 @@
       <top/>
       <bottom style="thin">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -672,6 +688,21 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -691,17 +722,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -729,41 +754,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -772,154 +762,154 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="16" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="9" borderId="20" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="18" borderId="19" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="17" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1320,7 +1310,7 @@
   <dimension ref="A1:D25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.6" customHeight="1" outlineLevelCol="3"/>
@@ -1424,12 +1414,8 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>13</v>
-      </c>
+      <c r="C9" s="12"/>
+      <c r="D9" s="13"/>
     </row>
     <row r="10" customHeight="1" spans="1:4">
       <c r="A10" s="14"/>
@@ -1459,14 +1445,14 @@
     </row>
     <row r="13" customHeight="1" spans="1:4">
       <c r="A13" s="16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="12">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
       <c r="C13" s="12" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D13" s="13" t="s">
         <v>9</v>
@@ -1501,7 +1487,7 @@
     </row>
     <row r="17" customHeight="1" spans="1:4">
       <c r="A17" s="7" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B17" s="8"/>
       <c r="C17" s="8"/>
@@ -1514,7 +1500,7 @@
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
       <c r="D18" s="10" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" customHeight="1" spans="1:4">
@@ -1525,7 +1511,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D19" s="13" t="s">
         <v>9</v>
@@ -1538,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="12" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D20" s="13" t="s">
         <v>9</v>
@@ -1551,7 +1537,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="12" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="D21" s="13" t="s">
         <v>9</v>
@@ -1567,7 +1553,7 @@
     </row>
     <row r="23" customHeight="1" spans="1:4">
       <c r="A23" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -1575,7 +1561,7 @@
     </row>
     <row r="24" ht="82.15" customHeight="1" spans="1:4">
       <c r="A24" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>

--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20402"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\git_code\myCode\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31CCA17C-2DD7-457A-9941-8D35EC795926}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9619DC96-323B-4EAE-96CC-35C432AA2786}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="551" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
   <si>
     <t>季度重点工作</t>
   </si>
@@ -74,54 +74,63 @@
     <t>预计达到的目标</t>
   </si>
   <si>
-    <t>调研系统标准问题入库</t>
-  </si>
-  <si>
     <t>工作总结</t>
   </si>
   <si>
-    <t>龙辛柯-周报(2023年08月28日-2023年09月03日)9月第1周</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>单学历自动化收尾</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>持续进行</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>继续修改双学历自动化</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>标准问题入库需等待研发配合</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>开会讨论重庆理工建模</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>完成</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>mysql优化考试</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>准备下一次mysql考试</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>双学历自动化初步修改</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.周一做标准问题入库的时候想的是加一个字段叫是否是标准调研，但是不想和研发沟通，上午的时候我就想要不改一下题目类型，现在是0代表普通题1代表条件题2代表矩阵题啥的，如果是标准问题我加个10，0代表普通题10代表标准普通题，但后面做到一半发现不行啊，这样其他地方要用到题目类型的时候就报错了，还是得找研发
-2.双学历主要工作量在于我不能把原来的双学历的代码复制然后贴过来，因为单学历改了很多东西，而且原来的代码是写死的双学历，我得拓展成n学历，或者说nxx，把这套做完的话什么三学历或者分师范生非师范生也能用，所以新的代码不能写死，单学历的代码也要改，原来用sql取数的得改成从取出来的data里取，不然不好统一</t>
+    <t>与研发开会讨论方案可行性</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙辛柯-周报(2023年09月11日-2023年09月17日)9月第3周</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>双学历代码初步完成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试23年数据运行情况</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试单双学历合并代码运行情况</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>回收率自动化导出代码修改</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰州理工小程序老师的问题解决</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.最近在做天津海运和湖南涉外的报告用最新的代码跑了一下有些小问题但是问题不大，我是觉得可以直接用了，校稿的时候有问题我直接改代码
+2.在形式上代码和佳凡版本的有很多不一样，最主要的不同是我把一部分代码放在了py文件中作为模块导入，这样自动化代码的长度就足够把派遣和调研合在一份代码里了。代价是，这个py文件需要获取变量数据，而在当前目录下可能有好几份不同学校的自动化代码，我只能设置py文件去读最新的自动化代码。也就是说如果要同时运行两个学校的代码，在启动代码的时候需要先保存一下刷新更新时间。</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>测试双学历自动化修改bug</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>标准问题入库研发</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>兰州石化模型</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -412,6 +421,27 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -430,21 +460,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -453,12 +468,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -743,8 +752,8 @@
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -757,119 +766,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
+      <c r="A1" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="19" t="s">
+      <c r="A2" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="19"/>
-      <c r="C2" s="19"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="20" t="s">
+      <c r="A6" s="22" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21"/>
+      <c r="A7" s="23"/>
       <c r="B7" s="6">
         <f t="shared" ref="B7:B16" si="0">B6+1</f>
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="21"/>
+      <c r="A8" s="23"/>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="21"/>
+      <c r="A9" s="23"/>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="21"/>
+      <c r="A10" s="23"/>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>19</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="21"/>
+      <c r="A11" s="23"/>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -877,7 +886,7 @@
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="21"/>
+      <c r="A12" s="23"/>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -886,18 +895,22 @@
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="24" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="6"/>
-      <c r="D13" s="7"/>
+      <c r="C13" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="7" t="s">
+        <v>20</v>
+      </c>
     </row>
     <row r="14" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="22"/>
+      <c r="A14" s="24"/>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -906,7 +919,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="22"/>
+      <c r="A15" s="24"/>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -915,7 +928,7 @@
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="22"/>
+      <c r="A16" s="24"/>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -924,65 +937,65 @@
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
     </row>
     <row r="18" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
+      <c r="A18" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="22" t="s">
+      <c r="A19" s="24" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="22"/>
+      <c r="A20" s="24"/>
       <c r="B20" s="6">
         <f>B19+1</f>
         <v>2</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>17</v>
+        <v>24</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="22"/>
+      <c r="A21" s="24"/>
       <c r="B21" s="6">
         <f>B20+1</f>
         <v>3</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="22"/>
+      <c r="A22" s="24"/>
       <c r="B22" s="6">
         <f>B21+1</f>
         <v>4</v>
@@ -990,34 +1003,29 @@
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="19" t="s">
-        <v>12</v>
-      </c>
-      <c r="B23" s="19"/>
-      <c r="C23" s="19"/>
-      <c r="D23" s="19"/>
+      <c r="A23" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
     </row>
     <row r="24" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="B24" s="10"/>
-      <c r="C24" s="10"/>
-      <c r="D24" s="11"/>
+      <c r="A24" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="18"/>
     </row>
     <row r="25" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="14"/>
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="20"/>
+      <c r="D25" s="21"/>
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A24:D25"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:C18"/>
@@ -1025,6 +1033,11 @@
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A19:A22"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\git_code\myCode\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9619DC96-323B-4EAE-96CC-35C432AA2786}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C852674-74E7-4CAC-887A-5B817E9E2540}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="551" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
   <si>
     <t>季度重点工作</t>
   </si>
@@ -81,10 +81,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>与研发开会讨论方案可行性</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>完成</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -93,27 +89,7 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>双学历代码初步完成</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试23年数据运行情况</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>测试单双学历合并代码运行情况</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>回收率自动化导出代码修改</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>完成</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰州理工小程序老师的问题解决</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -122,15 +98,15 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>测试双学历自动化修改bug</t>
+    <t>协助取数等工作</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>标准问题入库研发</t>
+    <t>双学历bug修改</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>兰州石化模型</t>
+    <t>部分代码函数优化</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -752,8 +728,8 @@
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J22" sqref="J22"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -767,7 +743,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B1" s="9"/>
       <c r="C1" s="9"/>
@@ -819,7 +795,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>7</v>
@@ -832,7 +808,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>7</v>
@@ -845,7 +821,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>12</v>
@@ -857,9 +833,7 @@
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>19</v>
-      </c>
+      <c r="C9" s="6"/>
       <c r="D9" s="7" t="s">
         <v>12</v>
       </c>
@@ -870,11 +844,9 @@
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="6" t="s">
+      <c r="C10" s="6"/>
+      <c r="D10" s="7" t="s">
         <v>13</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -902,11 +874,8 @@
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>21</v>
-      </c>
       <c r="D13" s="7" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -961,9 +930,6 @@
       <c r="B19" s="6">
         <v>1</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D19" s="7" t="s">
         <v>7</v>
       </c>
@@ -974,9 +940,7 @@
         <f>B19+1</f>
         <v>2</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>24</v>
-      </c>
+      <c r="C20" s="6"/>
       <c r="D20" s="7" t="s">
         <v>7</v>
       </c>
@@ -987,9 +951,7 @@
         <f>B20+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>25</v>
-      </c>
+      <c r="C21" s="6"/>
       <c r="D21" s="7" t="s">
         <v>7</v>
       </c>
@@ -1012,7 +974,7 @@
     </row>
     <row r="24" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="16" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B24" s="17"/>
       <c r="C24" s="17"/>

--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\git_code\myCode\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C852674-74E7-4CAC-887A-5B817E9E2540}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F7061B-B225-44C0-8E1C-CBEB5362A988}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="551" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
   <si>
     <t>季度重点工作</t>
   </si>
@@ -68,6 +68,15 @@
     <t>临时事项</t>
   </si>
   <si>
+    <t>天津市教委问卷分析图导出</t>
+  </si>
+  <si>
+    <t>邮箱发送代码修改</t>
+  </si>
+  <si>
+    <t>回收率导出代码修改</t>
+  </si>
+  <si>
     <t>下周工作安排</t>
   </si>
   <si>
@@ -77,36 +86,44 @@
     <t>工作总结</t>
   </si>
   <si>
-    <t>完成</t>
+    <t>回收率代码重构</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>完成</t>
+    <t>1.最近报告组反馈双学历合并之后出现了一些单学历已经修正过的问题，这使得朱黎愈加的烦躁，高玉建议先用回原来的单学历的代码，现在边做边校对代码问题的话会增加报告组的校对工作量，但我不想浪费这么多测试我的双学历代码的样本，况且之后双学历又要单独测试太麻烦了，关于增加了校对工作量的问题我每次跑完先检查一遍吧，但是高玉说我校不出来，我确实校不出来，但是我想，可以用单学历和双学历的分别跑一遍，找不同我还是会的
+2.校验py文件导出的etl表的时候我稍微花了点时间写了个代码，这样就不用去excel里弄透视表了，后面想着干嘛不搞个一条龙呢，把清洗小程序用python实现，再把py文件当做模块导入进来，导数据库也是代码导，朱黎说高峰期没时间校对也没必要，但是我思路上来了就很想写出来，我周末加个班写出来以后不忙的时候再用吧。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>龙辛柯-周报(2023年09月11日-2023年09月17日)9月第3周</t>
+    <t>龙辛柯-周报(2023年10月09日-2023年10月15日)10月第3周</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>完成</t>
+    <t>双学历男女就业比例数据错误等bug修改</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1.最近在做天津海运和湖南涉外的报告用最新的代码跑了一下有些小问题但是问题不大，我是觉得可以直接用了，校稿的时候有问题我直接改代码
-2.在形式上代码和佳凡版本的有很多不一样，最主要的不同是我把一部分代码放在了py文件中作为模块导入，这样自动化代码的长度就足够把派遣和调研合在一份代码里了。代价是，这个py文件需要获取变量数据，而在当前目录下可能有好几份不同学校的自动化代码，我只能设置py文件去读最新的自动化代码。也就是说如果要同时运行两个学校的代码，在启动代码的时候需要先保存一下刷新更新时间。</t>
+    <t>清洗湖师大2014-2020数据</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>协助取数等工作</t>
+    <t>写etl数据清洗小程序校验代码</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>双学历bug修改</t>
+    <t>跑长沙理工大学等3个学校的就业质量代码</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>部分代码函数优化</t>
+    <t>兰州石化权重加入就业分数指标</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>协助高玉完成重庆理工建模</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>待发现的双学历bug修改</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +131,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -146,7 +163,7 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -154,7 +171,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
@@ -174,6 +191,13 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -203,7 +227,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14938810388500626"/>
+        <fgColor theme="0" tint="-0.14935758537553026"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,17 +383,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -395,6 +419,9 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -728,8 +755,8 @@
   </sheetPr>
   <dimension ref="A1:D25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H17" sqref="H17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -742,115 +769,119 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
+      <c r="A1" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="10"/>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
     </row>
     <row r="2" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
+      <c r="B2" s="11"/>
+      <c r="C2" s="11"/>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="23" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>17</v>
+      <c r="C6" s="6" t="s">
+        <v>18</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="23"/>
+      <c r="A7" s="24"/>
       <c r="B7" s="6">
         <f t="shared" ref="B7:B16" si="0">B6+1</f>
         <v>2</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="23"/>
+      <c r="A8" s="24"/>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="23"/>
+      <c r="A9" s="24"/>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="6" t="s">
+        <v>21</v>
+      </c>
       <c r="D9" s="7" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="23"/>
+      <c r="A10" s="24"/>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="6" t="s">
+        <v>22</v>
+      </c>
       <c r="D10" s="7" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="23"/>
+      <c r="A11" s="24"/>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -858,7 +889,7 @@
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="23"/>
+      <c r="A12" s="24"/>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -867,37 +898,48 @@
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="24" t="s">
+      <c r="A13" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
+      <c r="C13" s="2" t="s">
+        <v>9</v>
+      </c>
       <c r="D13" s="7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="24"/>
+      <c r="A14" s="25"/>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="15" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="24"/>
+      <c r="A15" s="25"/>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
+      <c r="C15" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>7</v>
+      </c>
     </row>
     <row r="16" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="24"/>
+      <c r="A16" s="25"/>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -906,58 +948,65 @@
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
+      <c r="A17" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="5" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="24" t="s">
+      <c r="A19" s="25" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
       </c>
+      <c r="C19" s="2" t="s">
+        <v>23</v>
+      </c>
       <c r="D19" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="24"/>
+      <c r="A20" s="25"/>
       <c r="B20" s="6">
         <f>B19+1</f>
         <v>2</v>
       </c>
-      <c r="C20" s="6"/>
+      <c r="C20" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="D20" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="24"/>
+      <c r="A21" s="25"/>
       <c r="B21" s="6">
         <f>B20+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="6"/>
+      <c r="C21" s="6" t="s">
+        <v>24</v>
+      </c>
       <c r="D21" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="24"/>
+      <c r="A22" s="25"/>
       <c r="B22" s="6">
         <f>B21+1</f>
         <v>4</v>
@@ -965,26 +1014,26 @@
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
+      <c r="A23" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="B23" s="11"/>
+      <c r="C23" s="11"/>
+      <c r="D23" s="11"/>
     </row>
     <row r="24" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="17"/>
-      <c r="C24" s="17"/>
-      <c r="D24" s="18"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="19"/>
     </row>
     <row r="25" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="19"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="20"/>
-      <c r="D25" s="21"/>
+      <c r="A25" s="20"/>
+      <c r="B25" s="21"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\git_code\myCode\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82F7061B-B225-44C0-8E1C-CBEB5362A988}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C0062B-BEF3-48D8-BD93-C8D7F9E86FA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="551" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,10 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
+  <si>
+    <t>龙辛柯-周报(2023年11月20日-2023年11月26日)11月第4周</t>
+  </si>
   <si>
     <t>季度重点工作</t>
   </si>
@@ -42,7 +45,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>工作完成情况及</t>
@@ -52,7 +54,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>未完成工作原因</t>
@@ -62,68 +63,56 @@
     <t>规划内工作</t>
   </si>
   <si>
+    <t>爬取校招数据</t>
+  </si>
+  <si>
     <t>完成</t>
   </si>
   <si>
+    <t>自动化代码升级</t>
+  </si>
+  <si>
     <t>临时事项</t>
   </si>
   <si>
-    <t>天津市教委问卷分析图导出</t>
-  </si>
-  <si>
-    <t>邮箱发送代码修改</t>
-  </si>
-  <si>
-    <t>回收率导出代码修改</t>
-  </si>
-  <si>
     <t>下周工作安排</t>
   </si>
   <si>
     <t>预计达到的目标</t>
   </si>
   <si>
+    <t>调研系统的升级</t>
+  </si>
+  <si>
+    <t>校招数据爬取</t>
+  </si>
+  <si>
     <t>工作总结</t>
   </si>
   <si>
-    <t>回收率代码重构</t>
+    <t>临时取数陕西回收情况以及学生调研详细信息</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1.最近报告组反馈双学历合并之后出现了一些单学历已经修正过的问题，这使得朱黎愈加的烦躁，高玉建议先用回原来的单学历的代码，现在边做边校对代码问题的话会增加报告组的校对工作量，但我不想浪费这么多测试我的双学历代码的样本，况且之后双学历又要单独测试太麻烦了，关于增加了校对工作量的问题我每次跑完先检查一遍吧，但是高玉说我校不出来，我确实校不出来，但是我想，可以用单学历和双学历的分别跑一遍，找不同我还是会的
-2.校验py文件导出的etl表的时候我稍微花了点时间写了个代码，这样就不用去excel里弄透视表了，后面想着干嘛不搞个一条龙呢，把清洗小程序用python实现，再把py文件当做模块导入进来，导数据库也是代码导，朱黎说高峰期没时间校对也没必要，但是我思路上来了就很想写出来，我周末加个班写出来以后不忙的时候再用吧。</t>
+    <t>完成</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>龙辛柯-周报(2023年10月09日-2023年10月15日)10月第3周</t>
+    <t>自动化代码升级（增加专业固定排序</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>双学历男女就业比例数据错误等bug修改</t>
+    <t>调研系统升级收尾</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>清洗湖师大2014-2020数据</t>
+    <t>跑西安科技大学的自动化</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>写etl数据清洗小程序校验代码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>跑长沙理工大学等3个学校的就业质量代码</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>兰州石化权重加入就业分数指标</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>协助高玉完成重庆理工建模</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>待发现的双学历bug修改</t>
+    <t>1.关于代码的个性化我想了一下，还是这样比较好：没什么问题的就把参数导出来就行，有个别图需要个性化调整的就单独写一个if xxmc==的代码块调整，最后再把这份复制出来的代码存共享盘（到时候可以写个程序把代码按照xxmc去掉其他学校的，批量导出到每个学校的文件夹下）
+2.畅畅跑发送邮箱的时候问我为什么单位问卷导出来的是学生的邮箱，我才发现我没导单位问卷的邮箱，但同时也发现一个可能出错的点，就是单位邮箱不是程序导的，可能会贴错，如果贴的是学生的邮箱，由于都是这个学校的id做测试邮箱，所以测不出来错误。得把单位问卷的邮箱也改成程序导出，然后在测试邮箱里加上dw或者sx来区分
+3.调研系统差不多升级完了，跨系统的技术支持最费劲的地方就是看懂别人的代码，修bug的时候往往是找一上午问题在哪，最后找到了一句代码就解决了。学习成本太高。</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -143,7 +132,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -151,7 +139,6 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -159,22 +146,19 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -182,7 +166,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -227,7 +210,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14935758537553026"/>
+        <fgColor theme="0" tint="-0.14917447431867428"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,17 +366,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -421,56 +404,62 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -753,10 +742,10 @@
   <sheetPr>
     <tabColor theme="7"/>
   </sheetPr>
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -769,119 +758,115 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="10" t="s">
-        <v>17</v>
-      </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
+      <c r="A1" s="9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="9"/>
+      <c r="C1" s="9"/>
+      <c r="D1" s="9"/>
     </row>
     <row r="2" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
+      <c r="A2" s="10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
       <c r="D2" s="3" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
+      <c r="A3" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
       <c r="D3" s="4" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="14"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
+      <c r="A4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="16"/>
-      <c r="C5" s="16"/>
+      <c r="A5" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
       <c r="D5" s="5" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="23" t="s">
-        <v>6</v>
+      <c r="A6" s="16" t="s">
+        <v>7</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="24"/>
+      <c r="A7" s="17"/>
       <c r="B7" s="6">
         <f t="shared" ref="B7:B16" si="0">B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="6" t="s">
+      <c r="C7" s="25" t="s">
         <v>19</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="24"/>
+      <c r="A8" s="17"/>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
+      <c r="C8" s="27" t="s">
         <v>20</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="24"/>
+      <c r="A9" s="17"/>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="6" t="s">
+      <c r="C9" s="27" t="s">
         <v>21</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="24"/>
+      <c r="A10" s="17"/>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="7"/>
     </row>
     <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="24"/>
+      <c r="A11" s="17"/>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
@@ -889,7 +874,7 @@
       <c r="D11" s="7"/>
     </row>
     <row r="12" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="24"/>
+      <c r="A12" s="17"/>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -898,48 +883,40 @@
       <c r="D12" s="6"/>
     </row>
     <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="25" t="s">
-        <v>8</v>
+      <c r="A13" s="18" t="s">
+        <v>11</v>
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D13" s="7" t="s">
-        <v>7</v>
+      <c r="C13" s="25" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13" s="26" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="25"/>
+      <c r="A14" s="18"/>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D14" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="25"/>
+      <c r="A15" s="18"/>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="25"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -947,93 +924,94 @@
       <c r="C16" s="6"/>
       <c r="D16" s="6"/>
     </row>
-    <row r="17" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="13" t="s">
+    <row r="17" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12" t="s">
         <v>12</v>
       </c>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="15"/>
-    </row>
-    <row r="18" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
-        <v>4</v>
-      </c>
-      <c r="B18" s="16"/>
-      <c r="C18" s="16"/>
+      <c r="B17" s="13"/>
+      <c r="C17" s="13"/>
+      <c r="D17" s="14"/>
+    </row>
+    <row r="18" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
       <c r="D18" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="25" t="s">
-        <v>6</v>
+    <row r="19" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="18" t="s">
+        <v>7</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="25"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="18"/>
       <c r="B20" s="6">
         <f>B19+1</f>
         <v>2</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>15</v>
+      <c r="C20" s="6" t="s">
+        <v>14</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="25"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="18"/>
       <c r="B21" s="6">
         <f>B20+1</f>
         <v>3</v>
       </c>
       <c r="C21" s="6" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="25"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="18"/>
       <c r="B22" s="6">
         <f>B21+1</f>
         <v>4</v>
       </c>
       <c r="D22" s="7"/>
     </row>
-    <row r="23" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" s="11"/>
-      <c r="C23" s="11"/>
-      <c r="D23" s="11"/>
-    </row>
-    <row r="24" spans="1:4" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="17" t="s">
+    <row r="23" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="B24" s="18"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="19"/>
-    </row>
-    <row r="25" spans="1:4" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="20"/>
-      <c r="B25" s="21"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
+      <c r="B23" s="10"/>
+      <c r="C23" s="10"/>
+      <c r="D23" s="10"/>
+    </row>
+    <row r="24" spans="1:6" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
+      <c r="F24" s="1"/>
+    </row>
+    <row r="25" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20402"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20404"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\git_code\myCode\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8C0062B-BEF3-48D8-BD93-C8D7F9E86FA6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE0DAA1-CEB2-439D-90B5-0E14E13F2B6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="551" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,18 +20,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="23">
-  <si>
-    <t>龙辛柯-周报(2023年11月20日-2023年11月26日)11月第4周</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t>季度重点工作</t>
   </si>
   <si>
     <t>本月重点工作</t>
-  </si>
-  <si>
-    <t>调研系统升级</t>
   </si>
   <si>
     <t>本周工作完成情况</t>
@@ -45,6 +39,7 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>工作完成情况及</t>
@@ -54,6 +49,7 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>未完成工作原因</t>
@@ -63,15 +59,9 @@
     <t>规划内工作</t>
   </si>
   <si>
-    <t>爬取校招数据</t>
-  </si>
-  <si>
     <t>完成</t>
   </si>
   <si>
-    <t>自动化代码升级</t>
-  </si>
-  <si>
     <t>临时事项</t>
   </si>
   <si>
@@ -81,16 +71,31 @@
     <t>预计达到的目标</t>
   </si>
   <si>
-    <t>调研系统的升级</t>
-  </si>
-  <si>
-    <t>校招数据爬取</t>
-  </si>
-  <si>
     <t>工作总结</t>
   </si>
   <si>
-    <t>临时取数陕西回收情况以及学生调研详细信息</t>
+    <t>持续跑自动化代码并跟进bug</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南省校招简报</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化报错优化</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>西京学院等学校自动化</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖南省校招简报自动化完成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.优化自动化代码报错的时候想到，其实我没办法区分一个字段是真的没有人填还是因为字段洗错了导致都是空的，但如果每次跑自动化的时候每次报错都要问一下数据清洗的同事是不是真的没有又很浪费时间，但把自动化优化成一个无脑运行的程序之后也不需要专人负责了，从清洗到排版都可以一个人负责，减少沟通成本。
+2.陕西省就业质量报告跑起来和普通的学校自动化的区别在于数据量大，平时秒出的现在要等几秒钟，其他地方区别不大，已有的代码基本上都用的上，不过工作量也不小，因为有些部分没有现成的代码，还是要自己写</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -98,21 +103,19 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>自动化代码升级（增加专业固定排序</t>
+    <t>湖南省简报操作excel导出图片等部分功能探索</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>调研系统升级收尾</t>
+    <t>陕西省就业质量调研部分自动化</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>跑西安科技大学的自动化</t>
+    <t>陕西省就业质量报告派遣部分自动化</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>1.关于代码的个性化我想了一下，还是这样比较好：没什么问题的就把参数导出来就行，有个别图需要个性化调整的就单独写一个if xxmc==的代码块调整，最后再把这份复制出来的代码存共享盘（到时候可以写个程序把代码按照xxmc去掉其他学校的，批量导出到每个学校的文件夹下）
-2.畅畅跑发送邮箱的时候问我为什么单位问卷导出来的是学生的邮箱，我才发现我没导单位问卷的邮箱，但同时也发现一个可能出错的点，就是单位邮箱不是程序导的，可能会贴错，如果贴的是学生的邮箱，由于都是这个学校的id做测试邮箱，所以测不出来错误。得把单位问卷的邮箱也改成程序导出，然后在测试邮箱里加上dw或者sx来区分
-3.调研系统差不多升级完了，跨系统的技术支持最费劲的地方就是看懂别人的代码，修bug的时候往往是找一上午问题在哪，最后找到了一句代码就解决了。学习成本太高。</t>
+    <t>龙辛柯-周报(2023年12月18日-2023年12月24日)12月第4周</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -120,7 +123,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -132,6 +135,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -139,6 +143,7 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -146,12 +151,14 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -159,6 +166,7 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="等线"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -166,6 +174,7 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -177,6 +186,14 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
       <family val="2"/>
@@ -389,41 +406,68 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -433,33 +477,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -745,7 +762,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -757,261 +774,271 @@
     <col min="5" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="9" t="s">
+    <row r="1" spans="1:6" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+    </row>
+    <row r="2" spans="1:6" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="12" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9"/>
-      <c r="C1" s="9"/>
-      <c r="D1" s="9"/>
-    </row>
-    <row r="2" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="10" t="s">
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="10"/>
-      <c r="C2" s="10"/>
-      <c r="D2" s="3" t="s">
+    </row>
+    <row r="3" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B3" s="14"/>
+      <c r="C3" s="14"/>
+      <c r="D3" s="10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="11" t="s">
+      <c r="B4" s="16"/>
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="12" t="s">
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="15" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="15"/>
-      <c r="C5" s="15"/>
-      <c r="D5" s="5" t="s">
+      <c r="B6" s="5">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="17"/>
-      <c r="B7" s="6">
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+    </row>
+    <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="26"/>
+      <c r="B7" s="5">
         <f t="shared" ref="B7:B16" si="0">B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="25" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17"/>
-      <c r="B8" s="6">
+      <c r="C7" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F7" s="7"/>
+    </row>
+    <row r="8" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="26"/>
+      <c r="B8" s="5">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C8" s="27" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="17"/>
-      <c r="B9" s="6">
+      <c r="C8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="F8" s="7"/>
+    </row>
+    <row r="9" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="26"/>
+      <c r="B9" s="5">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="17"/>
-      <c r="B10" s="6">
+      <c r="C9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="7"/>
+      <c r="F9" s="7"/>
+    </row>
+    <row r="10" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="26"/>
+      <c r="B10" s="5">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="6"/>
-      <c r="D10" s="7"/>
-    </row>
-    <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="17"/>
-      <c r="B11" s="6">
+      <c r="C10" s="5"/>
+      <c r="D10" s="6"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="7"/>
+    </row>
+    <row r="11" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="26"/>
+      <c r="B11" s="5">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="D11" s="7"/>
-    </row>
-    <row r="12" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="17"/>
-      <c r="B12" s="6">
+      <c r="C11" s="5"/>
+      <c r="D11" s="6"/>
+      <c r="E11" s="7"/>
+      <c r="F11" s="7"/>
+    </row>
+    <row r="12" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="26"/>
+      <c r="B12" s="5">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="8"/>
+      <c r="C12" s="5"/>
       <c r="D12" s="6"/>
-    </row>
-    <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="18" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="6">
+      <c r="E12" s="7"/>
+      <c r="F12" s="7"/>
+    </row>
+    <row r="13" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="5">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="25" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="26" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18"/>
-      <c r="B14" s="6">
+      <c r="C13" s="7"/>
+      <c r="D13" s="8"/>
+    </row>
+    <row r="14" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="27"/>
+      <c r="B14" s="5">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
-    </row>
-    <row r="15" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
-      <c r="B15" s="6">
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="27"/>
+      <c r="B15" s="5">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C15" s="6"/>
-      <c r="D15" s="7"/>
-    </row>
-    <row r="16" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="18"/>
-      <c r="B16" s="6">
+      <c r="C15" s="5"/>
+      <c r="D15" s="6"/>
+    </row>
+    <row r="16" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="27"/>
+      <c r="B16" s="5">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C16" s="6"/>
-      <c r="D16" s="6"/>
+      <c r="C16" s="5"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="13"/>
-      <c r="C17" s="13"/>
-      <c r="D17" s="14"/>
+      <c r="A17" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="16"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="17"/>
     </row>
     <row r="18" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
+      <c r="A18" s="18" t="s">
+        <v>3</v>
+      </c>
+      <c r="B18" s="18"/>
+      <c r="C18" s="18"/>
+      <c r="D18" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" s="6">
+      <c r="B19" s="5">
         <v>1</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D19" s="7" t="s">
-        <v>9</v>
+        <v>15</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="18"/>
-      <c r="B20" s="6">
+      <c r="A20" s="27"/>
+      <c r="B20" s="5">
         <f>B19+1</f>
         <v>2</v>
       </c>
-      <c r="C20" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="D20" s="7" t="s">
-        <v>9</v>
+      <c r="C20" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="18"/>
-      <c r="B21" s="6">
+      <c r="A21" s="27"/>
+      <c r="B21" s="5">
         <f>B20+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="D21" s="7" t="s">
-        <v>9</v>
+      <c r="C21" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="18"/>
-      <c r="B22" s="6">
+      <c r="A22" s="27"/>
+      <c r="B22" s="5">
         <f>B21+1</f>
         <v>4</v>
       </c>
-      <c r="D22" s="7"/>
+      <c r="D22" s="6"/>
     </row>
     <row r="23" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="10" t="s">
+      <c r="A23" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="B23" s="12"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
+    </row>
+    <row r="24" spans="1:6" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="19" t="s">
         <v>16</v>
       </c>
-      <c r="B23" s="10"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="10"/>
-    </row>
-    <row r="24" spans="1:6" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="24" t="s">
-        <v>22</v>
-      </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
+      <c r="A25" s="22"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="23"/>
+      <c r="D25" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20404"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20405"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\git_code\myCode\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAE0DAA1-CEB2-439D-90B5-0E14E13F2B6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782DB186-652E-4E21-AE5F-3D8258C2FEE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12540" tabRatio="551" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="551" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="研究院周报" sheetId="2" r:id="rId1"/>
@@ -20,12 +20,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
   <si>
     <t>季度重点工作</t>
   </si>
   <si>
     <t>本月重点工作</t>
+  </si>
+  <si>
+    <t>湖南省校招简报</t>
   </si>
   <si>
     <t>本周工作完成情况</t>
@@ -39,7 +42,6 @@
         <sz val="11"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>工作完成情况及</t>
@@ -49,7 +51,6 @@
         <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>未完成工作原因</t>
@@ -59,9 +60,30 @@
     <t>规划内工作</t>
   </si>
   <si>
+    <t>自动化全体毕业生排前面的功能bug优化</t>
+  </si>
+  <si>
     <t>完成</t>
   </si>
   <si>
+    <t>湘中幼儿师范高等专科学校等学校自动化</t>
+  </si>
+  <si>
+    <t>陕西省报告部分数据重跑</t>
+  </si>
+  <si>
+    <t>帆软表格滚动插件开发</t>
+  </si>
+  <si>
+    <t>DOM树不更新原因探究</t>
+  </si>
+  <si>
+    <t>进行中</t>
+  </si>
+  <si>
+    <t>湖师大等个性化</t>
+  </si>
+  <si>
     <t>临时事项</t>
   </si>
   <si>
@@ -71,51 +93,20 @@
     <t>预计达到的目标</t>
   </si>
   <si>
+    <t>持续跑自动化代码并跟进bug</t>
+  </si>
+  <si>
+    <t>湖南省简报自动化优化</t>
+  </si>
+  <si>
     <t>工作总结</t>
   </si>
   <si>
-    <t>持续跑自动化代码并跟进bug</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖南省校招简报</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>自动化报错优化</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>西京学院等学校自动化</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖南省校招简报自动化完成</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>1.优化自动化代码报错的时候想到，其实我没办法区分一个字段是真的没有人填还是因为字段洗错了导致都是空的，但如果每次跑自动化的时候每次报错都要问一下数据清洗的同事是不是真的没有又很浪费时间，但把自动化优化成一个无脑运行的程序之后也不需要专人负责了，从清洗到排版都可以一个人负责，减少沟通成本。
-2.陕西省就业质量报告跑起来和普通的学校自动化的区别在于数据量大，平时秒出的现在要等几秒钟，其他地方区别不大，已有的代码基本上都用的上，不过工作量也不小，因为有些部分没有现成的代码，还是要自己写</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>湖南省简报操作excel导出图片等部分功能探索</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>陕西省就业质量调研部分自动化</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>陕西省就业质量报告派遣部分自动化</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙辛柯-周报(2023年12月18日-2023年12月24日)12月第4周</t>
+    <t>1.之前困扰了我很久的自动化跑出来word有时候打不开的问题终于解决了，一开始我以为是我环境有问题一直不知道怎么处理，后面延春也跑出这个问题来了，并且只跑了派遣部分。这下范围就小多了，二分法跑了几次最后发现是第二章基层就业添加图片的时候参数传了个Cm(14),其实应该传14的，这个案子总算结了；
+2.仅仅是想要在帆软的驾驶舱里加一个用来控制表格的开关，按f12一看全是各种看不懂的高深底层代码。我想起来好像写个浏览器插件可以帮助我解决这个问题。插件写好之后发现还是没办法解决帆软从目录进去找不到表格元素的问题，一开始以为是动态加载的问题，但动态加载也会更新DOM树啊，现在是DOM树都没更新。我百度了一天也不知道为什么，录了个视频发给思远了不知道啥时候思远有没有空看。目前只有两种解决办法，一个是传统的往控制台灌代码的方法，一个是把要展示的大屏另存为然后点插件滚动。</t>
+  </si>
+  <si>
+    <t>龙辛柯-周报(2024年01月01日-2024年01月07日)1月第1周</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -123,7 +114,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -135,7 +126,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -143,7 +133,6 @@
       <sz val="16"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -151,22 +140,19 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="等线"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="等线"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -174,7 +160,6 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -183,21 +168,6 @@
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="6">
@@ -227,7 +197,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14917447431867428"/>
+        <fgColor theme="0" tint="-0.14914395580919829"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -383,17 +353,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -406,6 +376,9 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -415,27 +388,12 @@
     <xf numFmtId="9" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -451,6 +409,15 @@
     <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -468,15 +435,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -762,7 +720,7 @@
   <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -774,271 +732,266 @@
     <col min="5" max="16384" width="8.875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-    </row>
-    <row r="2" spans="1:6" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="12" t="s">
+    <row r="1" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="8"/>
+      <c r="C1" s="8"/>
+      <c r="D1" s="8"/>
+    </row>
+    <row r="2" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="15" t="s">
+    <row r="3" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="16"/>
-      <c r="C4" s="16"/>
-      <c r="D4" s="17"/>
-    </row>
-    <row r="5" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="18" t="s">
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="18"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="4" t="s">
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+    </row>
+    <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="25" t="s">
+      <c r="B5" s="14"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="5">
+    </row>
+    <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" s="6">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="26"/>
-      <c r="B7" s="5">
+        <v>7</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="16"/>
+      <c r="B7" s="6">
         <f t="shared" ref="B7:B16" si="0">B6+1</f>
         <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="26"/>
-      <c r="B8" s="5">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="26"/>
-      <c r="B9" s="5">
+        <v>10</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="16"/>
+      <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="D9" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="26"/>
-      <c r="B10" s="5">
+        <v>11</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="16"/>
+      <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="5"/>
-      <c r="D10" s="6"/>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="26"/>
-      <c r="B11" s="5">
+      <c r="C10" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="16"/>
+      <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="5"/>
-      <c r="D11" s="6"/>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="26"/>
-      <c r="B12" s="5">
+      <c r="C11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D11" s="7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="16"/>
+      <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
       </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="6"/>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="27" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="5">
+      <c r="C12" s="6"/>
+      <c r="D12" s="7"/>
+    </row>
+    <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13" s="6">
         <f t="shared" si="0"/>
         <v>8</v>
       </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="8"/>
-    </row>
-    <row r="14" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="27"/>
-      <c r="B14" s="5">
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="17"/>
+      <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
       </c>
-      <c r="C14" s="5"/>
-      <c r="D14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="27"/>
-      <c r="B15" s="5">
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="17"/>
+      <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
       </c>
-      <c r="C15" s="5"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="27"/>
-      <c r="B16" s="5">
+      <c r="C15" s="6"/>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="17"/>
+      <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
       </c>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="15" t="s">
+      <c r="A17" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B17" s="12"/>
+      <c r="C17" s="12"/>
+      <c r="D17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="17" t="s">
+        <v>6</v>
+      </c>
+      <c r="B19" s="6">
+        <v>1</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D19" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B17" s="16"/>
-      <c r="C17" s="16"/>
-      <c r="D17" s="17"/>
-    </row>
-    <row r="18" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="18" t="s">
-        <v>3</v>
-      </c>
-      <c r="B18" s="18"/>
-      <c r="C18" s="18"/>
-      <c r="D18" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="27" t="s">
-        <v>5</v>
-      </c>
-      <c r="B19" s="5">
-        <v>1</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D19" s="6" t="s">
-        <v>6</v>
-      </c>
     </row>
     <row r="20" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="27"/>
-      <c r="B20" s="5">
+      <c r="A20" s="17"/>
+      <c r="B20" s="6">
         <f>B19+1</f>
         <v>2</v>
       </c>
-      <c r="C20" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="D20" s="6" t="s">
-        <v>6</v>
+      <c r="C20" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D20" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="27"/>
-      <c r="B21" s="5">
+      <c r="A21" s="17"/>
+      <c r="B21" s="6">
         <f>B20+1</f>
         <v>3</v>
       </c>
-      <c r="C21" s="5" t="s">
+      <c r="C21" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="D21" s="6" t="s">
-        <v>6</v>
+      <c r="D21" s="7" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="27"/>
-      <c r="B22" s="5">
+      <c r="A22" s="17"/>
+      <c r="B22" s="6">
         <f>B21+1</f>
         <v>4</v>
       </c>
-      <c r="D22" s="6"/>
+      <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="12" t="s">
-        <v>10</v>
-      </c>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="A23" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
     </row>
     <row r="24" spans="1:6" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="B24" s="20"/>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
+      <c r="A24" s="18" t="s">
+        <v>21</v>
+      </c>
+      <c r="B24" s="19"/>
+      <c r="C24" s="19"/>
+      <c r="D24" s="20"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="1:6" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="24"/>
+    <row r="25" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="21"/>
+      <c r="B25" s="22"/>
+      <c r="C25" s="22"/>
+      <c r="D25" s="23"/>
     </row>
   </sheetData>
   <mergeCells count="12">

--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\git_code\myCode\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782DB186-652E-4E21-AE5F-3D8258C2FEE7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3A5875-EC6D-4115-A16E-43CB10AD7DB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="551" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>季度重点工作</t>
   </si>
@@ -60,30 +60,12 @@
     <t>规划内工作</t>
   </si>
   <si>
-    <t>自动化全体毕业生排前面的功能bug优化</t>
-  </si>
-  <si>
     <t>完成</t>
   </si>
   <si>
-    <t>湘中幼儿师范高等专科学校等学校自动化</t>
-  </si>
-  <si>
-    <t>陕西省报告部分数据重跑</t>
-  </si>
-  <si>
-    <t>帆软表格滚动插件开发</t>
-  </si>
-  <si>
-    <t>DOM树不更新原因探究</t>
-  </si>
-  <si>
     <t>进行中</t>
   </si>
   <si>
-    <t>湖师大等个性化</t>
-  </si>
-  <si>
     <t>临时事项</t>
   </si>
   <si>
@@ -96,17 +78,46 @@
     <t>持续跑自动化代码并跟进bug</t>
   </si>
   <si>
-    <t>湖南省简报自动化优化</t>
-  </si>
-  <si>
     <t>工作总结</t>
   </si>
   <si>
-    <t>1.之前困扰了我很久的自动化跑出来word有时候打不开的问题终于解决了，一开始我以为是我环境有问题一直不知道怎么处理，后面延春也跑出这个问题来了，并且只跑了派遣部分。这下范围就小多了，二分法跑了几次最后发现是第二章基层就业添加图片的时候参数传了个Cm(14),其实应该传14的，这个案子总算结了；
-2.仅仅是想要在帆软的驾驶舱里加一个用来控制表格的开关，按f12一看全是各种看不懂的高深底层代码。我想起来好像写个浏览器插件可以帮助我解决这个问题。插件写好之后发现还是没办法解决帆软从目录进去找不到表格元素的问题，一开始以为是动态加载的问题，但动态加载也会更新DOM树啊，现在是DOM树都没更新。我百度了一天也不知道为什么，录了个视频发给思远了不知道啥时候思远有没有空看。目前只有两种解决办法，一个是传统的往控制台灌代码的方法，一个是把要展示的大屏另存为然后点插件滚动。</t>
-  </si>
-  <si>
     <t>龙辛柯-周报(2024年01月01日-2024年01月07日)1月第1周</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>自动化表格输出优化</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>湖师大个性自动化等</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>部分遗留冗余代码简化</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录云就业学生与企业取数</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>研究院24年规划参会及会议纪要</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改湖南省简报图片为python作图</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.这段时间时间比较充裕，平时跑代码的时候顺便看了一下自动化代码以前没优化过的地方，比如第二章由于不需要分学历基本没优化，发现有些逻辑上的漏洞，比如八大经济区的生源人数和就业人数最多的经济区计算是有问题的（按照生源和就业地分组排序取第一个），于是完善了这部分的逻辑；重点战略地区部分的代码写的有点复杂，也优化了一下；
+2.在优化的时候发现numpy.int64格式不能被pyecharts自动转换，pyecharts的官方文档是这么说的，“pyecharts 是一个通用的第三方库，我们不可能关心开发者的所有使用场景，这个转换需要我们引入 numpy/pandas 两个第三方库，而这两个库 太重了，所以我们将这个工作交给了开发者”，但关键是我用不允许的格式的时候又不报个错提示一下，跑不出来图的时候总以为是数据问题查半天</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>帆软滚动DOM树不更新原因探究</t>
+  </si>
+  <si>
+    <t>自动化无法控制边框问题研究</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -114,7 +125,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -169,6 +180,13 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="6">
     <fill>
@@ -363,7 +381,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -388,52 +406,58 @@
     <xf numFmtId="9" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="2" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="9" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="10" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="11" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="12" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -719,8 +743,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -733,132 +757,132 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B1" s="8"/>
-      <c r="C1" s="8"/>
-      <c r="D1" s="8"/>
+      <c r="A1" s="21" t="s">
+        <v>14</v>
+      </c>
+      <c r="B1" s="21"/>
+      <c r="C1" s="21"/>
+      <c r="D1" s="21"/>
     </row>
     <row r="2" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="9" t="s">
+      <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="9"/>
-      <c r="C2" s="9"/>
+      <c r="B2" s="17"/>
+      <c r="C2" s="17"/>
       <c r="D2" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="36.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="10" t="s">
+      <c r="A3" s="22" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="10"/>
-      <c r="C3" s="10"/>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
       <c r="D3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="13"/>
+      <c r="B4" s="14"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="15"/>
     </row>
     <row r="5" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="14"/>
-      <c r="C5" s="14"/>
+      <c r="B5" s="16"/>
+      <c r="C5" s="16"/>
       <c r="D5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="18" t="s">
         <v>6</v>
       </c>
       <c r="B6" s="6">
         <v>1</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="7" t="s">
-        <v>8</v>
-      </c>
     </row>
     <row r="7" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16"/>
+      <c r="A7" s="19"/>
       <c r="B7" s="6">
         <f t="shared" ref="B7:B16" si="0">B6+1</f>
         <v>2</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>9</v>
+      <c r="C7" s="23" t="s">
+        <v>16</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16"/>
+      <c r="A8" s="19"/>
       <c r="B8" s="6">
         <f t="shared" si="0"/>
         <v>3</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>10</v>
+      <c r="C8" s="23" t="s">
+        <v>17</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16"/>
+      <c r="A9" s="19"/>
       <c r="B9" s="6">
         <f t="shared" si="0"/>
         <v>4</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>11</v>
+      <c r="C9" s="23" t="s">
+        <v>18</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16"/>
+      <c r="A10" s="19"/>
       <c r="B10" s="6">
         <f t="shared" si="0"/>
         <v>5</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>12</v>
+      <c r="C10" s="23" t="s">
+        <v>19</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16"/>
+      <c r="A11" s="19"/>
       <c r="B11" s="6">
         <f t="shared" si="0"/>
         <v>6</v>
       </c>
-      <c r="C11" s="6" t="s">
-        <v>14</v>
+      <c r="C11" s="23" t="s">
+        <v>20</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16"/>
+      <c r="A12" s="19"/>
       <c r="B12" s="6">
         <f t="shared" si="0"/>
         <v>7</v>
@@ -867,8 +891,8 @@
       <c r="D12" s="7"/>
     </row>
     <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
-        <v>15</v>
+      <c r="A13" s="20" t="s">
+        <v>9</v>
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
@@ -877,7 +901,7 @@
       <c r="D13" s="7"/>
     </row>
     <row r="14" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
+      <c r="A14" s="20"/>
       <c r="B14" s="6">
         <f t="shared" si="0"/>
         <v>9</v>
@@ -886,7 +910,7 @@
       <c r="D14" s="7"/>
     </row>
     <row r="15" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="17"/>
+      <c r="A15" s="20"/>
       <c r="B15" s="6">
         <f t="shared" si="0"/>
         <v>10</v>
@@ -895,7 +919,7 @@
       <c r="D15" s="7"/>
     </row>
     <row r="16" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="17"/>
+      <c r="A16" s="20"/>
       <c r="B16" s="6">
         <f t="shared" si="0"/>
         <v>11</v>
@@ -904,65 +928,65 @@
       <c r="D16" s="6"/>
     </row>
     <row r="17" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17" s="12"/>
-      <c r="C17" s="12"/>
-      <c r="D17" s="13"/>
+      <c r="A17" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="15"/>
     </row>
     <row r="18" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="14" t="s">
+      <c r="A18" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
+      <c r="B18" s="16"/>
+      <c r="C18" s="16"/>
       <c r="D18" s="5" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="17" t="s">
+      <c r="A19" s="20" t="s">
         <v>6</v>
       </c>
       <c r="B19" s="6">
         <v>1</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>12</v>
+      <c r="C19" s="23" t="s">
+        <v>23</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="17"/>
+      <c r="A20" s="20"/>
       <c r="B20" s="6">
         <f>B19+1</f>
         <v>2</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="17"/>
+      <c r="A21" s="20"/>
       <c r="B21" s="6">
         <f>B20+1</f>
         <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="17"/>
+      <c r="A22" s="20"/>
       <c r="B22" s="6">
         <f>B21+1</f>
         <v>4</v>
@@ -970,31 +994,36 @@
       <c r="D22" s="7"/>
     </row>
     <row r="23" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B23" s="9"/>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
+      <c r="A23" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
     </row>
     <row r="24" spans="1:6" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="18" t="s">
+      <c r="A24" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="B24" s="19"/>
-      <c r="C24" s="19"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="1"/>
+      <c r="B24" s="8"/>
+      <c r="C24" s="8"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="24"/>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="21"/>
-      <c r="B25" s="22"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
+      <c r="A25" s="10"/>
+      <c r="B25" s="11"/>
+      <c r="C25" s="11"/>
+      <c r="D25" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A2:C2"/>
+    <mergeCell ref="A3:C3"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="A5:C5"/>
     <mergeCell ref="A24:D25"/>
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:C18"/>
@@ -1002,11 +1031,6 @@
     <mergeCell ref="A6:A12"/>
     <mergeCell ref="A13:A16"/>
     <mergeCell ref="A19:A22"/>
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A2:C2"/>
-    <mergeCell ref="A3:C3"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="A5:C5"/>
   </mergeCells>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/lib/研究院工作周报-龙辛柯.xlsx
+++ b/lib/研究院工作周报-龙辛柯.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\桌面\git_code\myCode\lib\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C3A5875-EC6D-4115-A16E-43CB10AD7DB8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{852822A6-2BAE-4F7C-949F-A507FD5189E4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" tabRatio="551" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="25">
   <si>
     <t>季度重点工作</t>
   </si>
@@ -63,9 +63,6 @@
     <t>完成</t>
   </si>
   <si>
-    <t>进行中</t>
-  </si>
-  <si>
     <t>临时事项</t>
   </si>
   <si>
@@ -102,10 +99,6 @@
   </si>
   <si>
     <t>研究院24年规划参会及会议纪要</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>修改湖南省简报图片为python作图</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
@@ -118,6 +111,18 @@
   </si>
   <si>
     <t>自动化无法控制边框问题研究</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>修改湖南省简报图片复制实现</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>完成</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.自动化的边框颜色算是设置好了，本来是想通过color_1直接计算的，但是试了很久也没拟合出来word里的浅色80%和color_1到底是什么关系，没办法，反正也就十多个模板，只能新建一个变量color_7一个个去模板里取出来了</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -381,7 +386,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -459,6 +464,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="8" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -743,8 +751,8 @@
   </sheetPr>
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -758,7 +766,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="26.45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="21" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -810,7 +818,7 @@
         <v>1</v>
       </c>
       <c r="C6" s="23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>7</v>
@@ -823,7 +831,7 @@
         <v>2</v>
       </c>
       <c r="C7" s="23" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>7</v>
@@ -836,7 +844,7 @@
         <v>3</v>
       </c>
       <c r="C8" s="23" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>7</v>
@@ -849,7 +857,7 @@
         <v>4</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>7</v>
@@ -862,10 +870,10 @@
         <v>5</v>
       </c>
       <c r="C10" s="23" t="s">
-        <v>19</v>
-      </c>
-      <c r="D10" s="7" t="s">
-        <v>8</v>
+        <v>18</v>
+      </c>
+      <c r="D10" s="26" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -875,7 +883,7 @@
         <v>6</v>
       </c>
       <c r="C11" s="23" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>7</v>
@@ -892,7 +900,7 @@
     </row>
     <row r="13" spans="1:4" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B13" s="6">
         <f t="shared" si="0"/>
@@ -929,7 +937,7 @@
     </row>
     <row r="17" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -942,7 +950,7 @@
       <c r="B18" s="16"/>
       <c r="C18" s="16"/>
       <c r="D18" s="5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
@@ -953,7 +961,7 @@
         <v>1</v>
       </c>
       <c r="C19" s="23" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D19" s="7" t="s">
         <v>7</v>
@@ -966,7 +974,7 @@
         <v>2</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D20" s="7" t="s">
         <v>7</v>
@@ -979,7 +987,7 @@
         <v>3</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D21" s="7" t="s">
         <v>7</v>
@@ -995,7 +1003,7 @@
     </row>
     <row r="23" spans="1:6" ht="18.600000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="17" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B23" s="17"/>
       <c r="C23" s="17"/>
@@ -1003,12 +1011,14 @@
     </row>
     <row r="24" spans="1:6" ht="82.15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="25" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="9"/>
-      <c r="E24" s="24"/>
+      <c r="E24" s="24" t="s">
+        <v>24</v>
+      </c>
       <c r="F24" s="1"/>
     </row>
     <row r="25" spans="1:6" ht="75" customHeight="1" x14ac:dyDescent="0.2">
